--- a/2-Requisitos/2.5-Planilha_de_Contagem/Contagem Estimada - Pousada Power.xlsx
+++ b/2-Requisitos/2.5-Planilha_de_Contagem/Contagem Estimada - Pousada Power.xlsx
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="160">
   <si>
     <t>Identificação da Contagem</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t>TESTE (TST)</t>
+  </si>
+  <si>
+    <t>Manter Fornecedor</t>
+  </si>
+  <si>
+    <t>ALI Fornecedor</t>
   </si>
 </sst>
 </file>
@@ -1524,32 +1530,46 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1558,56 +1578,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1615,6 +1607,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1626,16 +1621,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1646,6 +1648,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1660,11 +1663,14 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1916,6 +1922,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2049,6 +2103,54 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2150,6 +2252,54 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2502,36 +2652,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="89"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
+      <c r="X1" s="83"/>
+      <c r="Y1" s="83"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="83"/>
+      <c r="AB1" s="84"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -2567,7 +2717,7 @@
       <c r="Y2" s="86"/>
       <c r="Z2" s="86"/>
       <c r="AA2" s="86"/>
-      <c r="AB2" s="90"/>
+      <c r="AB2" s="87"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -2577,34 +2727,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="88"/>
-      <c r="W3" s="88"/>
-      <c r="X3" s="88"/>
-      <c r="Y3" s="88"/>
-      <c r="Z3" s="88"/>
-      <c r="AA3" s="88"/>
-      <c r="AB3" s="91"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="90"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -2614,45 +2764,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="93" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="78"/>
+      <c r="S4" s="79"/>
       <c r="T4" s="2">
         <v>400</v>
       </c>
-      <c r="U4" s="93" t="s">
+      <c r="U4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="78"/>
-      <c r="W4" s="98">
+      <c r="V4" s="79"/>
+      <c r="W4" s="96">
         <f>W5*T4</f>
         <v>226800</v>
       </c>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="78"/>
+      <c r="X4" s="81"/>
+      <c r="Y4" s="81"/>
+      <c r="Z4" s="81"/>
+      <c r="AA4" s="81"/>
+      <c r="AB4" s="79"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -2662,41 +2812,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="93" t="s">
+      <c r="A5" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="78"/>
-      <c r="W5" s="92">
+      <c r="V5" s="79"/>
+      <c r="W5" s="91">
         <f>SUM(Y11:Y14)</f>
         <v>567</v>
       </c>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="78"/>
+      <c r="X5" s="81"/>
+      <c r="Y5" s="81"/>
+      <c r="Z5" s="81"/>
+      <c r="AA5" s="81"/>
+      <c r="AB5" s="79"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -2706,36 +2856,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="78"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="79"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -2745,38 +2895,38 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="77"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="81" t="s">
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
+      <c r="N7" s="81"/>
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="77"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="78"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="92"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="81"/>
+      <c r="AB7" s="79"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -2786,38 +2936,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="81" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+      <c r="L8" s="81"/>
+      <c r="M8" s="81"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="81"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="81"/>
+      <c r="S8" s="81"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="77"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="78"/>
+      <c r="V8" s="81"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="92"/>
+      <c r="Y8" s="81"/>
+      <c r="Z8" s="81"/>
+      <c r="AA8" s="81"/>
+      <c r="AB8" s="79"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -2863,46 +3013,46 @@
       <c r="AI9" s="1"/>
     </row>
     <row r="10" spans="1:35" ht="12" customHeight="1">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="76" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="78"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="79"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="83" t="s">
+      <c r="O10" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="93" t="s">
+      <c r="P10" s="83"/>
+      <c r="Q10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="78"/>
-      <c r="U10" s="93" t="s">
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="79"/>
+      <c r="U10" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="78"/>
-      <c r="Y10" s="93" t="s">
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="78"/>
+      <c r="Z10" s="81"/>
+      <c r="AA10" s="81"/>
+      <c r="AB10" s="79"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -2913,45 +3063,45 @@
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
       <c r="A11" s="85"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="76" t="s">
+      <c r="B11" s="87"/>
+      <c r="C11" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="78"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
+      <c r="K11" s="79"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
       <c r="O11" s="85"/>
       <c r="P11" s="86"/>
-      <c r="Q11" s="81" t="s">
+      <c r="Q11" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="92">
+      <c r="R11" s="79"/>
+      <c r="S11" s="91">
         <f>Sumário!E55</f>
         <v>567</v>
       </c>
-      <c r="T11" s="78"/>
-      <c r="U11" s="96">
+      <c r="T11" s="79"/>
+      <c r="U11" s="94">
         <v>1</v>
       </c>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="92">
+      <c r="V11" s="81"/>
+      <c r="W11" s="81"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="91">
         <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
         <v>567</v>
       </c>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="78"/>
+      <c r="Z11" s="81"/>
+      <c r="AA11" s="81"/>
+      <c r="AB11" s="79"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -2962,45 +3112,45 @@
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
       <c r="A12" s="85"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="76" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="79"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="85"/>
       <c r="P12" s="86"/>
-      <c r="Q12" s="81" t="s">
+      <c r="Q12" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="77"/>
-      <c r="S12" s="92">
+      <c r="R12" s="81"/>
+      <c r="S12" s="91">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="78"/>
-      <c r="U12" s="96">
+      <c r="T12" s="79"/>
+      <c r="U12" s="94">
         <v>1</v>
       </c>
-      <c r="V12" s="77"/>
-      <c r="W12" s="77"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="92">
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="77"/>
-      <c r="AA12" s="77"/>
-      <c r="AB12" s="78"/>
+      <c r="Z12" s="81"/>
+      <c r="AA12" s="81"/>
+      <c r="AB12" s="79"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -3011,45 +3161,45 @@
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
       <c r="A13" s="85"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="76" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="78"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="79"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="85"/>
       <c r="P13" s="86"/>
-      <c r="Q13" s="81" t="s">
+      <c r="Q13" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="77"/>
-      <c r="S13" s="92">
+      <c r="R13" s="81"/>
+      <c r="S13" s="91">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="78"/>
-      <c r="U13" s="96">
+      <c r="T13" s="79"/>
+      <c r="U13" s="94">
         <v>1</v>
       </c>
-      <c r="V13" s="77"/>
-      <c r="W13" s="77"/>
-      <c r="X13" s="78"/>
-      <c r="Y13" s="92">
+      <c r="V13" s="81"/>
+      <c r="W13" s="81"/>
+      <c r="X13" s="79"/>
+      <c r="Y13" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="77"/>
-      <c r="AA13" s="77"/>
-      <c r="AB13" s="78"/>
+      <c r="Z13" s="81"/>
+      <c r="AA13" s="81"/>
+      <c r="AB13" s="79"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -3059,8 +3209,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="87"/>
-      <c r="B14" s="91"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="90"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3073,26 +3223,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="81"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="92">
+      <c r="O14" s="88"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="93"/>
+      <c r="R14" s="81"/>
+      <c r="S14" s="91">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="78"/>
-      <c r="U14" s="96"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="77"/>
-      <c r="X14" s="78"/>
-      <c r="Y14" s="92">
+      <c r="T14" s="79"/>
+      <c r="U14" s="94"/>
+      <c r="V14" s="81"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="79"/>
+      <c r="Y14" s="91">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z14" s="77"/>
-      <c r="AA14" s="77"/>
-      <c r="AB14" s="78"/>
+      <c r="Z14" s="81"/>
+      <c r="AA14" s="81"/>
+      <c r="AB14" s="79"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -3152,17 +3302,17 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="94" t="s">
+      <c r="K16" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89"/>
+      <c r="O16" s="89"/>
+      <c r="P16" s="89"/>
+      <c r="Q16" s="89"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -3181,34 +3331,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="95"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="84"/>
-      <c r="Q17" s="84"/>
-      <c r="R17" s="84"/>
-      <c r="S17" s="84"/>
-      <c r="T17" s="84"/>
-      <c r="U17" s="84"/>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="84"/>
-      <c r="AA17" s="84"/>
-      <c r="AB17" s="89"/>
+      <c r="A17" s="99"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="83"/>
+      <c r="AB17" s="84"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -3245,7 +3395,7 @@
       <c r="Y18" s="86"/>
       <c r="Z18" s="86"/>
       <c r="AA18" s="86"/>
-      <c r="AB18" s="90"/>
+      <c r="AB18" s="87"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -3282,7 +3432,7 @@
       <c r="Y19" s="86"/>
       <c r="Z19" s="86"/>
       <c r="AA19" s="86"/>
-      <c r="AB19" s="90"/>
+      <c r="AB19" s="87"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -3319,7 +3469,7 @@
       <c r="Y20" s="86"/>
       <c r="Z20" s="86"/>
       <c r="AA20" s="86"/>
-      <c r="AB20" s="90"/>
+      <c r="AB20" s="87"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -3356,7 +3506,7 @@
       <c r="Y21" s="86"/>
       <c r="Z21" s="86"/>
       <c r="AA21" s="86"/>
-      <c r="AB21" s="90"/>
+      <c r="AB21" s="87"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -3393,7 +3543,7 @@
       <c r="Y22" s="86"/>
       <c r="Z22" s="86"/>
       <c r="AA22" s="86"/>
-      <c r="AB22" s="90"/>
+      <c r="AB22" s="87"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -3430,7 +3580,7 @@
       <c r="Y23" s="86"/>
       <c r="Z23" s="86"/>
       <c r="AA23" s="86"/>
-      <c r="AB23" s="90"/>
+      <c r="AB23" s="87"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -3467,7 +3617,7 @@
       <c r="Y24" s="86"/>
       <c r="Z24" s="86"/>
       <c r="AA24" s="86"/>
-      <c r="AB24" s="90"/>
+      <c r="AB24" s="87"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -3504,7 +3654,7 @@
       <c r="Y25" s="86"/>
       <c r="Z25" s="86"/>
       <c r="AA25" s="86"/>
-      <c r="AB25" s="90"/>
+      <c r="AB25" s="87"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -3541,7 +3691,7 @@
       <c r="Y26" s="86"/>
       <c r="Z26" s="86"/>
       <c r="AA26" s="86"/>
-      <c r="AB26" s="90"/>
+      <c r="AB26" s="87"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -3578,7 +3728,7 @@
       <c r="Y27" s="86"/>
       <c r="Z27" s="86"/>
       <c r="AA27" s="86"/>
-      <c r="AB27" s="90"/>
+      <c r="AB27" s="87"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -3615,7 +3765,7 @@
       <c r="Y28" s="86"/>
       <c r="Z28" s="86"/>
       <c r="AA28" s="86"/>
-      <c r="AB28" s="90"/>
+      <c r="AB28" s="87"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -3652,7 +3802,7 @@
       <c r="Y29" s="86"/>
       <c r="Z29" s="86"/>
       <c r="AA29" s="86"/>
-      <c r="AB29" s="90"/>
+      <c r="AB29" s="87"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -3689,7 +3839,7 @@
       <c r="Y30" s="86"/>
       <c r="Z30" s="86"/>
       <c r="AA30" s="86"/>
-      <c r="AB30" s="90"/>
+      <c r="AB30" s="87"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -3726,7 +3876,7 @@
       <c r="Y31" s="86"/>
       <c r="Z31" s="86"/>
       <c r="AA31" s="86"/>
-      <c r="AB31" s="90"/>
+      <c r="AB31" s="87"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -3763,7 +3913,7 @@
       <c r="Y32" s="86"/>
       <c r="Z32" s="86"/>
       <c r="AA32" s="86"/>
-      <c r="AB32" s="90"/>
+      <c r="AB32" s="87"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -3800,7 +3950,7 @@
       <c r="Y33" s="86"/>
       <c r="Z33" s="86"/>
       <c r="AA33" s="86"/>
-      <c r="AB33" s="90"/>
+      <c r="AB33" s="87"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -3837,7 +3987,7 @@
       <c r="Y34" s="86"/>
       <c r="Z34" s="86"/>
       <c r="AA34" s="86"/>
-      <c r="AB34" s="90"/>
+      <c r="AB34" s="87"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -3874,7 +4024,7 @@
       <c r="Y35" s="86"/>
       <c r="Z35" s="86"/>
       <c r="AA35" s="86"/>
-      <c r="AB35" s="90"/>
+      <c r="AB35" s="87"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -3911,7 +4061,7 @@
       <c r="Y36" s="86"/>
       <c r="Z36" s="86"/>
       <c r="AA36" s="86"/>
-      <c r="AB36" s="90"/>
+      <c r="AB36" s="87"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -3948,7 +4098,7 @@
       <c r="Y37" s="86"/>
       <c r="Z37" s="86"/>
       <c r="AA37" s="86"/>
-      <c r="AB37" s="90"/>
+      <c r="AB37" s="87"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -3958,34 +4108,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="87"/>
-      <c r="B38" s="88"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="88"/>
-      <c r="H38" s="88"/>
-      <c r="I38" s="88"/>
-      <c r="J38" s="88"/>
-      <c r="K38" s="88"/>
-      <c r="L38" s="88"/>
-      <c r="M38" s="88"/>
-      <c r="N38" s="88"/>
-      <c r="O38" s="88"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
-      <c r="S38" s="88"/>
-      <c r="T38" s="88"/>
-      <c r="U38" s="88"/>
-      <c r="V38" s="88"/>
-      <c r="W38" s="88"/>
-      <c r="X38" s="88"/>
-      <c r="Y38" s="88"/>
-      <c r="Z38" s="88"/>
-      <c r="AA38" s="88"/>
-      <c r="AB38" s="91"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="89"/>
+      <c r="O38" s="89"/>
+      <c r="P38" s="89"/>
+      <c r="Q38" s="89"/>
+      <c r="R38" s="89"/>
+      <c r="S38" s="89"/>
+      <c r="T38" s="89"/>
+      <c r="U38" s="89"/>
+      <c r="V38" s="89"/>
+      <c r="W38" s="89"/>
+      <c r="X38" s="89"/>
+      <c r="Y38" s="89"/>
+      <c r="Z38" s="89"/>
+      <c r="AA38" s="89"/>
+      <c r="AB38" s="90"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -4042,17 +4192,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="94" t="s">
+      <c r="K40" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="89"/>
+      <c r="N40" s="89"/>
+      <c r="O40" s="89"/>
+      <c r="P40" s="89"/>
+      <c r="Q40" s="89"/>
+      <c r="R40" s="89"/>
+      <c r="S40" s="89"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -4071,34 +4221,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="95"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="84"/>
-      <c r="Q41" s="84"/>
-      <c r="R41" s="84"/>
-      <c r="S41" s="84"/>
-      <c r="T41" s="84"/>
-      <c r="U41" s="84"/>
-      <c r="V41" s="84"/>
-      <c r="W41" s="84"/>
-      <c r="X41" s="84"/>
-      <c r="Y41" s="84"/>
-      <c r="Z41" s="84"/>
-      <c r="AA41" s="84"/>
-      <c r="AB41" s="89"/>
+      <c r="A41" s="99"/>
+      <c r="B41" s="83"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="83"/>
+      <c r="E41" s="83"/>
+      <c r="F41" s="83"/>
+      <c r="G41" s="83"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="83"/>
+      <c r="J41" s="83"/>
+      <c r="K41" s="83"/>
+      <c r="L41" s="83"/>
+      <c r="M41" s="83"/>
+      <c r="N41" s="83"/>
+      <c r="O41" s="83"/>
+      <c r="P41" s="83"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="83"/>
+      <c r="S41" s="83"/>
+      <c r="T41" s="83"/>
+      <c r="U41" s="83"/>
+      <c r="V41" s="83"/>
+      <c r="W41" s="83"/>
+      <c r="X41" s="83"/>
+      <c r="Y41" s="83"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="83"/>
+      <c r="AB41" s="84"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -4135,7 +4285,7 @@
       <c r="Y42" s="86"/>
       <c r="Z42" s="86"/>
       <c r="AA42" s="86"/>
-      <c r="AB42" s="90"/>
+      <c r="AB42" s="87"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -4172,7 +4322,7 @@
       <c r="Y43" s="86"/>
       <c r="Z43" s="86"/>
       <c r="AA43" s="86"/>
-      <c r="AB43" s="90"/>
+      <c r="AB43" s="87"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -4209,7 +4359,7 @@
       <c r="Y44" s="86"/>
       <c r="Z44" s="86"/>
       <c r="AA44" s="86"/>
-      <c r="AB44" s="90"/>
+      <c r="AB44" s="87"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -4246,7 +4396,7 @@
       <c r="Y45" s="86"/>
       <c r="Z45" s="86"/>
       <c r="AA45" s="86"/>
-      <c r="AB45" s="90"/>
+      <c r="AB45" s="87"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -4283,7 +4433,7 @@
       <c r="Y46" s="86"/>
       <c r="Z46" s="86"/>
       <c r="AA46" s="86"/>
-      <c r="AB46" s="90"/>
+      <c r="AB46" s="87"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -4320,7 +4470,7 @@
       <c r="Y47" s="86"/>
       <c r="Z47" s="86"/>
       <c r="AA47" s="86"/>
-      <c r="AB47" s="90"/>
+      <c r="AB47" s="87"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -4357,7 +4507,7 @@
       <c r="Y48" s="86"/>
       <c r="Z48" s="86"/>
       <c r="AA48" s="86"/>
-      <c r="AB48" s="90"/>
+      <c r="AB48" s="87"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -4394,7 +4544,7 @@
       <c r="Y49" s="86"/>
       <c r="Z49" s="86"/>
       <c r="AA49" s="86"/>
-      <c r="AB49" s="90"/>
+      <c r="AB49" s="87"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -4431,7 +4581,7 @@
       <c r="Y50" s="86"/>
       <c r="Z50" s="86"/>
       <c r="AA50" s="86"/>
-      <c r="AB50" s="90"/>
+      <c r="AB50" s="87"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -4468,7 +4618,7 @@
       <c r="Y51" s="86"/>
       <c r="Z51" s="86"/>
       <c r="AA51" s="86"/>
-      <c r="AB51" s="90"/>
+      <c r="AB51" s="87"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -4505,7 +4655,7 @@
       <c r="Y52" s="86"/>
       <c r="Z52" s="86"/>
       <c r="AA52" s="86"/>
-      <c r="AB52" s="90"/>
+      <c r="AB52" s="87"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -4542,7 +4692,7 @@
       <c r="Y53" s="86"/>
       <c r="Z53" s="86"/>
       <c r="AA53" s="86"/>
-      <c r="AB53" s="90"/>
+      <c r="AB53" s="87"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -4579,7 +4729,7 @@
       <c r="Y54" s="86"/>
       <c r="Z54" s="86"/>
       <c r="AA54" s="86"/>
-      <c r="AB54" s="90"/>
+      <c r="AB54" s="87"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -4616,7 +4766,7 @@
       <c r="Y55" s="86"/>
       <c r="Z55" s="86"/>
       <c r="AA55" s="86"/>
-      <c r="AB55" s="90"/>
+      <c r="AB55" s="87"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -4653,7 +4803,7 @@
       <c r="Y56" s="86"/>
       <c r="Z56" s="86"/>
       <c r="AA56" s="86"/>
-      <c r="AB56" s="90"/>
+      <c r="AB56" s="87"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -4690,7 +4840,7 @@
       <c r="Y57" s="86"/>
       <c r="Z57" s="86"/>
       <c r="AA57" s="86"/>
-      <c r="AB57" s="90"/>
+      <c r="AB57" s="87"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -4727,7 +4877,7 @@
       <c r="Y58" s="86"/>
       <c r="Z58" s="86"/>
       <c r="AA58" s="86"/>
-      <c r="AB58" s="90"/>
+      <c r="AB58" s="87"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -4764,7 +4914,7 @@
       <c r="Y59" s="86"/>
       <c r="Z59" s="86"/>
       <c r="AA59" s="86"/>
-      <c r="AB59" s="90"/>
+      <c r="AB59" s="87"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -4774,34 +4924,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="87"/>
-      <c r="B60" s="88"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="88"/>
-      <c r="E60" s="88"/>
-      <c r="F60" s="88"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="88"/>
-      <c r="I60" s="88"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="88"/>
-      <c r="L60" s="88"/>
-      <c r="M60" s="88"/>
-      <c r="N60" s="88"/>
-      <c r="O60" s="88"/>
-      <c r="P60" s="88"/>
-      <c r="Q60" s="88"/>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
-      <c r="V60" s="88"/>
-      <c r="W60" s="88"/>
-      <c r="X60" s="88"/>
-      <c r="Y60" s="88"/>
-      <c r="Z60" s="88"/>
-      <c r="AA60" s="88"/>
-      <c r="AB60" s="91"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="89"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="89"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="89"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="89"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="89"/>
+      <c r="Q60" s="89"/>
+      <c r="R60" s="89"/>
+      <c r="S60" s="89"/>
+      <c r="T60" s="89"/>
+      <c r="U60" s="89"/>
+      <c r="V60" s="89"/>
+      <c r="W60" s="89"/>
+      <c r="X60" s="89"/>
+      <c r="Y60" s="89"/>
+      <c r="Z60" s="89"/>
+      <c r="AA60" s="89"/>
+      <c r="AB60" s="90"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -4849,6 +4999,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="K16:S16"/>
+    <mergeCell ref="A17:AB38"/>
+    <mergeCell ref="A41:AB60"/>
+    <mergeCell ref="K40:S40"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="O10:P14"/>
+    <mergeCell ref="A10:B14"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="F6:AB6"/>
+    <mergeCell ref="F7:T7"/>
+    <mergeCell ref="X7:AB7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F8:T8"/>
+    <mergeCell ref="A8:E8"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A1:AB3"/>
@@ -4865,39 +5048,6 @@
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="W5:AB5"/>
     <mergeCell ref="W4:AB4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="K16:S16"/>
-    <mergeCell ref="A17:AB38"/>
-    <mergeCell ref="A41:AB60"/>
-    <mergeCell ref="K40:S40"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="F6:AB6"/>
-    <mergeCell ref="F7:T7"/>
-    <mergeCell ref="X7:AB7"/>
-    <mergeCell ref="U7:W7"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="O10:P14"/>
-    <mergeCell ref="A10:B14"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="F8:T8"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U10:X10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -4913,8 +5063,8 @@
   <dimension ref="A1:T230"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P49" sqref="P49:T49"/>
+      <pane ySplit="7" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A53" sqref="A53:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -4937,7 +5087,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="113" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="86"/>
@@ -4961,7 +5111,7 @@
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="120"/>
+      <c r="A2" s="114"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -4983,7 +5133,7 @@
       <c r="T2" s="9"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
-      <c r="A3" s="120"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="86"/>
       <c r="C3" s="86"/>
       <c r="D3" s="86"/>
@@ -5005,89 +5155,89 @@
       <c r="T3" s="9"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1">
-      <c r="A4" s="121" t="str">
+      <c r="A4" s="116" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="118" t="str">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="112" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="78"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="81"/>
+      <c r="R4" s="81"/>
+      <c r="S4" s="81"/>
+      <c r="T4" s="79"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
-      <c r="A5" s="114" t="str">
+      <c r="A5" s="115" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="118" t="str">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="112" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="78"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="81"/>
+      <c r="R5" s="81"/>
+      <c r="S5" s="81"/>
+      <c r="T5" s="79"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
-      <c r="A6" s="114" t="str">
+      <c r="A6" s="115" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="118" t="str">
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="112" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="117" t="str">
+      <c r="G6" s="79"/>
+      <c r="H6" s="125" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 226.800,00</v>
       </c>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="91"/>
-      <c r="N6" s="122" t="str">
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="117" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 567</v>
       </c>
-      <c r="O6" s="123"/>
+      <c r="O6" s="118"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
@@ -5095,14 +5245,14 @@
       <c r="T6" s="11"/>
     </row>
     <row r="7" spans="1:20" ht="15" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="78"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -5130,16 +5280,16 @@
       <c r="O7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P7" s="124" t="s">
+      <c r="P7" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="125"/>
-      <c r="R7" s="125"/>
-      <c r="S7" s="125"/>
-      <c r="T7" s="125"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
     </row>
     <row r="8" spans="1:20" ht="18" customHeight="1">
-      <c r="A8" s="115" t="s">
+      <c r="A8" s="123" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="103"/>
@@ -5179,11 +5329,11 @@
         <f>IF(H8="I",N8*Contagem!$U$11,IF(H8="E",N8*Contagem!$U$13,IF(H8="A",N8*Contagem!$U$12,IF(H8="T",N8*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="101"/>
-      <c r="R8" s="101"/>
-      <c r="S8" s="101"/>
-      <c r="T8" s="101"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="111"/>
+      <c r="S8" s="111"/>
+      <c r="T8" s="111"/>
     </row>
     <row r="9" spans="1:20" ht="18" customHeight="1">
       <c r="A9" s="102" t="s">
@@ -5226,11 +5376,11 @@
         <f>IF(H9="I",N9*Contagem!$U$11,IF(H9="E",N9*Contagem!$U$13,IF(H9="A",N9*Contagem!$U$12,IF(H9="T",N9*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P9" s="100"/>
-      <c r="Q9" s="101"/>
-      <c r="R9" s="101"/>
-      <c r="S9" s="101"/>
-      <c r="T9" s="101"/>
+      <c r="P9" s="110"/>
+      <c r="Q9" s="111"/>
+      <c r="R9" s="111"/>
+      <c r="S9" s="111"/>
+      <c r="T9" s="111"/>
     </row>
     <row r="10" spans="1:20" ht="18" customHeight="1">
       <c r="A10" s="102" t="s">
@@ -5273,11 +5423,11 @@
         <f>IF(H10="I",N10*Contagem!$U$11,IF(H10="E",N10*Contagem!$U$13,IF(H10="A",N10*Contagem!$U$12,IF(H10="T",N10*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P10" s="100"/>
-      <c r="Q10" s="101"/>
-      <c r="R10" s="101"/>
-      <c r="S10" s="101"/>
-      <c r="T10" s="101"/>
+      <c r="P10" s="110"/>
+      <c r="Q10" s="111"/>
+      <c r="R10" s="111"/>
+      <c r="S10" s="111"/>
+      <c r="T10" s="111"/>
     </row>
     <row r="11" spans="1:20" ht="18" customHeight="1">
       <c r="A11" s="102" t="s">
@@ -5320,11 +5470,11 @@
         <f>IF(H11="I",N11*Contagem!$U$11,IF(H11="E",N11*Contagem!$U$13,IF(H11="A",N11*Contagem!$U$12,IF(H11="T",N11*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P11" s="100"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
+      <c r="P11" s="110"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="111"/>
+      <c r="T11" s="111"/>
     </row>
     <row r="12" spans="1:20" ht="18" customHeight="1">
       <c r="A12" s="102" t="s">
@@ -5367,11 +5517,11 @@
         <f>IF(H12="I",N12*Contagem!$U$11,IF(H12="E",N12*Contagem!$U$13,IF(H12="A",N12*Contagem!$U$12,IF(H12="T",N12*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P12" s="100"/>
-      <c r="Q12" s="101"/>
-      <c r="R12" s="101"/>
-      <c r="S12" s="101"/>
-      <c r="T12" s="101"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
+      <c r="S12" s="111"/>
+      <c r="T12" s="111"/>
     </row>
     <row r="13" spans="1:20" ht="18" customHeight="1">
       <c r="A13" s="102" t="s">
@@ -5414,11 +5564,11 @@
         <f>IF(H13="I",N13*Contagem!$U$11,IF(H13="E",N13*Contagem!$U$13,IF(H13="A",N13*Contagem!$U$12,IF(H13="T",N13*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P13" s="100"/>
-      <c r="Q13" s="101"/>
-      <c r="R13" s="101"/>
-      <c r="S13" s="101"/>
-      <c r="T13" s="101"/>
+      <c r="P13" s="110"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="111"/>
+      <c r="S13" s="111"/>
+      <c r="T13" s="111"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
       <c r="A14" s="102" t="s">
@@ -5461,21 +5611,21 @@
         <f>IF(H14="I",N14*Contagem!$U$11,IF(H14="E",N14*Contagem!$U$13,IF(H14="A",N14*Contagem!$U$12,IF(H14="T",N14*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P14" s="100"/>
-      <c r="Q14" s="101"/>
-      <c r="R14" s="101"/>
-      <c r="S14" s="101"/>
-      <c r="T14" s="101"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="111"/>
+      <c r="S14" s="111"/>
+      <c r="T14" s="111"/>
     </row>
     <row r="15" spans="1:20" ht="18" customHeight="1">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="106"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="122"/>
       <c r="G15" s="16" t="s">
         <v>44</v>
       </c>
@@ -5508,21 +5658,21 @@
         <f>IF(H15="I",N15*Contagem!$U$11,IF(H15="E",N15*Contagem!$U$13,IF(H15="A",N15*Contagem!$U$12,IF(H15="T",N15*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
-      <c r="S15" s="101"/>
-      <c r="T15" s="101"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="111"/>
+      <c r="S15" s="111"/>
+      <c r="T15" s="111"/>
     </row>
     <row r="16" spans="1:20" ht="18" customHeight="1">
-      <c r="A16" s="105" t="s">
+      <c r="A16" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="106"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="122"/>
       <c r="G16" s="16" t="s">
         <v>48</v>
       </c>
@@ -5562,12 +5712,12 @@
       <c r="T16" s="23"/>
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="106"/>
+      <c r="A17" s="121"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="122"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
       <c r="I17" s="16"/>
@@ -5577,21 +5727,21 @@
       <c r="M17" s="20"/>
       <c r="N17" s="21"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="100"/>
-      <c r="Q17" s="101"/>
-      <c r="R17" s="101"/>
-      <c r="S17" s="101"/>
-      <c r="T17" s="101"/>
+      <c r="P17" s="110"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="111"/>
+      <c r="S17" s="111"/>
+      <c r="T17" s="111"/>
     </row>
     <row r="18" spans="1:20" ht="18" customHeight="1">
-      <c r="A18" s="112" t="s">
+      <c r="A18" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="113"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="106"/>
       <c r="G18" s="18"/>
       <c r="H18" s="17" t="s">
         <v>37</v>
@@ -5614,25 +5764,22 @@
         <f t="shared" ref="N18:N23" si="7">IF(ISBLANK(G18),"",IF(G18="ALI",IF(L18="L",7,IF(L18="A",10,15)),IF(G18="AIE",IF(L18="L",5,IF(L18="A",7,10)),IF(G18="SE",IF(L18="L",4,IF(L18="A",5,7)),IF(OR(G18="EE",G18="CE"),IF(L18="L",3,IF(L18="A",4,6)))))))</f>
         <v/>
       </c>
-      <c r="O18" s="28" t="e">
-        <f>IF(H18="I",N18*Contagem!$U$11,IF(H18="E",N18*Contagem!$U$13,IF(H18="A",N18*Contagem!$U$12,IF(H18="T",N18*Contagem!$U$14,""))))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P18" s="100"/>
-      <c r="Q18" s="101"/>
-      <c r="R18" s="101"/>
-      <c r="S18" s="101"/>
-      <c r="T18" s="101"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="111"/>
+      <c r="S18" s="111"/>
+      <c r="T18" s="111"/>
     </row>
     <row r="19" spans="1:20" ht="18" customHeight="1">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="113"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="106"/>
       <c r="G19" s="16" t="s">
         <v>36</v>
       </c>
@@ -5665,21 +5812,21 @@
         <f>IF(H19="I",N19*Contagem!$U$11,IF(H19="E",N19*Contagem!$U$13,IF(H19="A",N19*Contagem!$U$12,IF(H19="T",N19*Contagem!$U$14,""))))</f>
         <v>10</v>
       </c>
-      <c r="P19" s="100"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-      <c r="S19" s="101"/>
-      <c r="T19" s="101"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="111"/>
+      <c r="S19" s="111"/>
+      <c r="T19" s="111"/>
     </row>
     <row r="20" spans="1:20" ht="18" customHeight="1">
-      <c r="A20" s="112" t="s">
+      <c r="A20" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="113"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="106"/>
       <c r="G20" s="16" t="s">
         <v>39</v>
       </c>
@@ -5712,21 +5859,21 @@
         <f>IF(H20="I",N20*Contagem!$U$11,IF(H20="E",N20*Contagem!$U$13,IF(H20="A",N20*Contagem!$U$12,IF(H20="T",N20*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P20" s="100"/>
-      <c r="Q20" s="101"/>
-      <c r="R20" s="101"/>
-      <c r="S20" s="101"/>
-      <c r="T20" s="101"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
+      <c r="S20" s="111"/>
+      <c r="T20" s="111"/>
     </row>
     <row r="21" spans="1:20" ht="18" customHeight="1">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="113"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="106"/>
       <c r="G21" s="16" t="s">
         <v>39</v>
       </c>
@@ -5759,21 +5906,21 @@
         <f>IF(H21="I",N21*Contagem!$U$11,IF(H21="E",N21*Contagem!$U$13,IF(H21="A",N21*Contagem!$U$12,IF(H21="T",N21*Contagem!$U$14,""))))</f>
         <v>6</v>
       </c>
-      <c r="P21" s="100"/>
-      <c r="Q21" s="101"/>
-      <c r="R21" s="101"/>
-      <c r="S21" s="101"/>
-      <c r="T21" s="101"/>
+      <c r="P21" s="110"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="111"/>
+      <c r="S21" s="111"/>
+      <c r="T21" s="111"/>
     </row>
     <row r="22" spans="1:20" ht="18" customHeight="1">
-      <c r="A22" s="112" t="s">
+      <c r="A22" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="113"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="106"/>
       <c r="G22" s="16" t="s">
         <v>44</v>
       </c>
@@ -5806,21 +5953,21 @@
         <f>IF(H22="I",N22*Contagem!$U$11,IF(H22="E",N22*Contagem!$U$13,IF(H22="A",N22*Contagem!$U$12,IF(H22="T",N22*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P22" s="100"/>
-      <c r="Q22" s="101"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="101"/>
+      <c r="P22" s="110"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="111"/>
+      <c r="S22" s="111"/>
+      <c r="T22" s="111"/>
     </row>
     <row r="23" spans="1:20" ht="18" customHeight="1">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="113"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="106"/>
       <c r="G23" s="16" t="s">
         <v>44</v>
       </c>
@@ -5853,21 +6000,21 @@
         <f>IF(H23="I",N23*Contagem!$U$11,IF(H23="E",N23*Contagem!$U$13,IF(H23="A",N23*Contagem!$U$12,IF(H23="T",N23*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P23" s="100"/>
-      <c r="Q23" s="101"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="101"/>
+      <c r="P23" s="110"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="111"/>
+      <c r="S23" s="111"/>
+      <c r="T23" s="111"/>
     </row>
     <row r="24" spans="1:20" ht="18" customHeight="1">
-      <c r="A24" s="109" t="s">
+      <c r="A24" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="111"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
       <c r="G24" s="16" t="s">
         <v>39</v>
       </c>
@@ -5900,11 +6047,11 @@
         <f>IF(H24="I",N24*Contagem!$U$11,IF(H24="E",N24*Contagem!$U$13,IF(H24="A",N24*Contagem!$U$12,IF(H24="T",N24*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P24" s="100"/>
-      <c r="Q24" s="101"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="101"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="111"/>
+      <c r="S24" s="111"/>
+      <c r="T24" s="111"/>
     </row>
     <row r="25" spans="1:20" ht="18" customHeight="1">
       <c r="A25" s="102" t="s">
@@ -5947,11 +6094,11 @@
         <f>IF(H25="I",N25*Contagem!$U$11,IF(H25="E",N25*Contagem!$U$13,IF(H25="A",N25*Contagem!$U$12,IF(H25="T",N25*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P25" s="100"/>
-      <c r="Q25" s="101"/>
-      <c r="R25" s="101"/>
-      <c r="S25" s="101"/>
-      <c r="T25" s="101"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="111"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
     </row>
     <row r="26" spans="1:20" ht="18" customHeight="1">
       <c r="A26" s="102" t="s">
@@ -5994,11 +6141,11 @@
         <f>IF(H26="I",N26*Contagem!$U$11,IF(H26="E",N26*Contagem!$U$13,IF(H26="A",N26*Contagem!$U$12,IF(H26="T",N26*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P26" s="100"/>
-      <c r="Q26" s="101"/>
-      <c r="R26" s="101"/>
-      <c r="S26" s="101"/>
-      <c r="T26" s="101"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="111"/>
+      <c r="S26" s="111"/>
+      <c r="T26" s="111"/>
     </row>
     <row r="27" spans="1:20" ht="18" customHeight="1">
       <c r="A27" s="102" t="s">
@@ -6041,11 +6188,11 @@
         <f>IF(H27="I",N27*Contagem!$U$11,IF(H27="E",N27*Contagem!$U$13,IF(H27="A",N27*Contagem!$U$12,IF(H27="T",N27*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P27" s="100"/>
-      <c r="Q27" s="101"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="101"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="111"/>
+      <c r="S27" s="111"/>
+      <c r="T27" s="111"/>
     </row>
     <row r="28" spans="1:20" ht="18" customHeight="1">
       <c r="A28" s="102"/>
@@ -6077,11 +6224,11 @@
         <v/>
       </c>
       <c r="O28" s="22"/>
-      <c r="P28" s="100"/>
-      <c r="Q28" s="101"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
+      <c r="P28" s="110"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="111"/>
+      <c r="S28" s="111"/>
+      <c r="T28" s="111"/>
     </row>
     <row r="29" spans="1:20" ht="18" customHeight="1">
       <c r="A29" s="102" t="s">
@@ -6115,11 +6262,11 @@
         <v/>
       </c>
       <c r="O29" s="22"/>
-      <c r="P29" s="100"/>
-      <c r="Q29" s="101"/>
-      <c r="R29" s="101"/>
-      <c r="S29" s="101"/>
-      <c r="T29" s="101"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="111"/>
+      <c r="S29" s="111"/>
+      <c r="T29" s="111"/>
     </row>
     <row r="30" spans="1:20" ht="18" customHeight="1">
       <c r="A30" s="102" t="s">
@@ -6158,11 +6305,11 @@
         <f>IF(H30="I",N30*Contagem!$U$11,IF(H30="E",N30*Contagem!$U$13,IF(H30="A",N30*Contagem!$U$12,IF(H30="T",N30*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P30" s="100"/>
-      <c r="Q30" s="101"/>
-      <c r="R30" s="101"/>
-      <c r="S30" s="101"/>
-      <c r="T30" s="101"/>
+      <c r="P30" s="110"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="111"/>
+      <c r="S30" s="111"/>
+      <c r="T30" s="111"/>
     </row>
     <row r="31" spans="1:20" ht="18" customHeight="1">
       <c r="A31" s="102" t="s">
@@ -6201,11 +6348,11 @@
         <f>IF(H31="I",N31*Contagem!$U$11,IF(H31="E",N31*Contagem!$U$13,IF(H31="A",N31*Contagem!$U$12,IF(H31="T",N31*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P31" s="100"/>
-      <c r="Q31" s="101"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="101"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="111"/>
+      <c r="S31" s="111"/>
+      <c r="T31" s="111"/>
     </row>
     <row r="32" spans="1:20" ht="18" customHeight="1">
       <c r="A32" s="102" t="s">
@@ -6244,11 +6391,11 @@
         <f>IF(H32="I",N32*Contagem!$U$11,IF(H32="E",N32*Contagem!$U$13,IF(H32="A",N32*Contagem!$U$12,IF(H32="T",N32*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P32" s="100"/>
-      <c r="Q32" s="101"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="101"/>
+      <c r="P32" s="110"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="111"/>
+      <c r="S32" s="111"/>
+      <c r="T32" s="111"/>
     </row>
     <row r="33" spans="1:20" ht="18" customHeight="1">
       <c r="A33" s="102" t="s">
@@ -6287,11 +6434,11 @@
         <f>IF(H33="I",N33*Contagem!$U$11,IF(H33="E",N33*Contagem!$U$13,IF(H33="A",N33*Contagem!$U$12,IF(H33="T",N33*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P33" s="100"/>
-      <c r="Q33" s="101"/>
-      <c r="R33" s="101"/>
-      <c r="S33" s="101"/>
-      <c r="T33" s="101"/>
+      <c r="P33" s="110"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
     </row>
     <row r="34" spans="1:20" ht="18" customHeight="1">
       <c r="A34" s="102" t="s">
@@ -6330,11 +6477,11 @@
         <f>IF(H34="I",N34*Contagem!$U$11,IF(H34="E",N34*Contagem!$U$13,IF(H34="A",N34*Contagem!$U$12,IF(H34="T",N34*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P34" s="100"/>
-      <c r="Q34" s="101"/>
-      <c r="R34" s="101"/>
-      <c r="S34" s="101"/>
-      <c r="T34" s="101"/>
+      <c r="P34" s="110"/>
+      <c r="Q34" s="111"/>
+      <c r="R34" s="111"/>
+      <c r="S34" s="111"/>
+      <c r="T34" s="111"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
       <c r="A35" s="102" t="s">
@@ -6373,11 +6520,11 @@
         <f>IF(H35="I",N35*Contagem!$U$11,IF(H35="E",N35*Contagem!$U$13,IF(H35="A",N35*Contagem!$U$12,IF(H35="T",N35*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P35" s="100"/>
-      <c r="Q35" s="101"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="101"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="111"/>
+      <c r="R35" s="111"/>
+      <c r="S35" s="111"/>
+      <c r="T35" s="111"/>
     </row>
     <row r="36" spans="1:20" ht="18" customHeight="1">
       <c r="A36" s="102" t="s">
@@ -6416,11 +6563,11 @@
         <f>IF(H36="I",N36*Contagem!$U$11,IF(H36="E",N36*Contagem!$U$13,IF(H36="A",N36*Contagem!$U$12,IF(H36="T",N36*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P36" s="100"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="101"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="111"/>
+      <c r="R36" s="111"/>
+      <c r="S36" s="111"/>
+      <c r="T36" s="111"/>
     </row>
     <row r="37" spans="1:20" ht="18" customHeight="1">
       <c r="A37" s="102"/>
@@ -6452,11 +6599,11 @@
         <v/>
       </c>
       <c r="O37" s="22"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="101"/>
-      <c r="T37" s="101"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="111"/>
     </row>
     <row r="38" spans="1:20" ht="18" customHeight="1">
       <c r="A38" s="102" t="s">
@@ -6490,11 +6637,11 @@
         <v/>
       </c>
       <c r="O38" s="22"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="101"/>
-      <c r="T38" s="101"/>
+      <c r="P38" s="110"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="111"/>
     </row>
     <row r="39" spans="1:20" ht="18" customHeight="1">
       <c r="A39" s="102" t="s">
@@ -6533,11 +6680,11 @@
         <f>IF(H39="I",N39*Contagem!$U$11,IF(H39="E",N39*Contagem!$U$13,IF(H39="A",N39*Contagem!$U$12,IF(H39="T",N39*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P39" s="100"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="101"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
     </row>
     <row r="40" spans="1:20" ht="18" customHeight="1">
       <c r="A40" s="102" t="s">
@@ -6576,11 +6723,11 @@
         <f>IF(H40="I",N40*Contagem!$U$11,IF(H40="E",N40*Contagem!$U$13,IF(H40="A",N40*Contagem!$U$12,IF(H40="T",N40*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P40" s="100"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="101"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
     </row>
     <row r="41" spans="1:20" ht="18" customHeight="1">
       <c r="A41" s="102" t="s">
@@ -6619,11 +6766,11 @@
         <f>IF(H41="I",N41*Contagem!$U$11,IF(H41="E",N41*Contagem!$U$13,IF(H41="A",N41*Contagem!$U$12,IF(H41="T",N41*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P41" s="100"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="101"/>
-      <c r="T41" s="101"/>
+      <c r="P41" s="110"/>
+      <c r="Q41" s="111"/>
+      <c r="R41" s="111"/>
+      <c r="S41" s="111"/>
+      <c r="T41" s="111"/>
     </row>
     <row r="42" spans="1:20" ht="18" customHeight="1">
       <c r="A42" s="102" t="s">
@@ -6662,11 +6809,11 @@
         <f>IF(H42="I",N42*Contagem!$U$11,IF(H42="E",N42*Contagem!$U$13,IF(H42="A",N42*Contagem!$U$12,IF(H42="T",N42*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P42" s="100"/>
-      <c r="Q42" s="101"/>
-      <c r="R42" s="101"/>
-      <c r="S42" s="101"/>
-      <c r="T42" s="101"/>
+      <c r="P42" s="110"/>
+      <c r="Q42" s="111"/>
+      <c r="R42" s="111"/>
+      <c r="S42" s="111"/>
+      <c r="T42" s="111"/>
     </row>
     <row r="43" spans="1:20" ht="18" customHeight="1">
       <c r="A43" s="102" t="s">
@@ -6705,11 +6852,11 @@
         <f>IF(H43="I",N43*Contagem!$U$11,IF(H43="E",N43*Contagem!$U$13,IF(H43="A",N43*Contagem!$U$12,IF(H43="T",N43*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P43" s="100"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
+      <c r="P43" s="110"/>
+      <c r="Q43" s="111"/>
+      <c r="R43" s="111"/>
+      <c r="S43" s="111"/>
+      <c r="T43" s="111"/>
     </row>
     <row r="44" spans="1:20" ht="18" customHeight="1">
       <c r="A44" s="102" t="s">
@@ -6748,14 +6895,14 @@
         <f>IF(H44="I",N44*Contagem!$U$11,IF(H44="E",N44*Contagem!$U$13,IF(H44="A",N44*Contagem!$U$12,IF(H44="T",N44*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P44" s="100"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
+      <c r="P44" s="110"/>
+      <c r="Q44" s="111"/>
+      <c r="R44" s="111"/>
+      <c r="S44" s="111"/>
+      <c r="T44" s="111"/>
     </row>
     <row r="45" spans="1:20" s="72" customFormat="1" ht="18" customHeight="1">
-      <c r="A45" s="142"/>
+      <c r="A45" s="76"/>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
       <c r="D45" s="71"/>
@@ -6766,7 +6913,7 @@
       <c r="I45" s="29"/>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
-      <c r="L45" s="143"/>
+      <c r="L45" s="77"/>
       <c r="M45" s="26"/>
       <c r="N45" s="27"/>
       <c r="O45" s="28"/>
@@ -6777,14 +6924,14 @@
       <c r="T45" s="74"/>
     </row>
     <row r="46" spans="1:20" ht="18" customHeight="1">
-      <c r="A46" s="112" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="113"/>
+      <c r="A46" s="105" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="106"/>
       <c r="G46" s="18"/>
       <c r="H46" s="17" t="s">
         <v>37</v>
@@ -6808,21 +6955,21 @@
         <v/>
       </c>
       <c r="O46" s="28"/>
-      <c r="P46" s="100"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
     </row>
     <row r="47" spans="1:20" ht="18" customHeight="1">
-      <c r="A47" s="112" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="113"/>
+      <c r="A47" s="105" t="s">
+        <v>159</v>
+      </c>
+      <c r="B47" s="81"/>
+      <c r="C47" s="81"/>
+      <c r="D47" s="81"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="106"/>
       <c r="G47" s="18" t="s">
         <v>36</v>
       </c>
@@ -6855,21 +7002,21 @@
         <f>IF(H47="I",N47*Contagem!$U$11,IF(H47="E",N47*Contagem!$U$13,IF(H47="A",N47*Contagem!$U$12,IF(H47="T",N47*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P47" s="100"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="101"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
     </row>
     <row r="48" spans="1:20" ht="18" customHeight="1">
-      <c r="A48" s="112" t="s">
+      <c r="A48" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="113"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="106"/>
       <c r="G48" s="18" t="s">
         <v>39</v>
       </c>
@@ -6902,21 +7049,21 @@
         <f>IF(H48="I",N48*Contagem!$U$11,IF(H48="E",N48*Contagem!$U$13,IF(H48="A",N48*Contagem!$U$12,IF(H48="T",N48*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P48" s="100"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
+      <c r="P48" s="110"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
     </row>
     <row r="49" spans="1:20" ht="18" customHeight="1">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="113"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="106"/>
       <c r="G49" s="18" t="s">
         <v>39</v>
       </c>
@@ -6949,21 +7096,21 @@
         <f>IF(H49="I",N49*Contagem!$U$11,IF(H49="E",N49*Contagem!$U$13,IF(H49="A",N49*Contagem!$U$12,IF(H49="T",N49*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P49" s="100"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="101"/>
+      <c r="P49" s="110"/>
+      <c r="Q49" s="111"/>
+      <c r="R49" s="111"/>
+      <c r="S49" s="111"/>
+      <c r="T49" s="111"/>
     </row>
     <row r="50" spans="1:20" ht="18" customHeight="1">
-      <c r="A50" s="112" t="s">
+      <c r="A50" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="113"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="106"/>
       <c r="G50" s="18" t="s">
         <v>44</v>
       </c>
@@ -6996,21 +7143,21 @@
         <f>IF(H50="I",N50*Contagem!$U$11,IF(H50="E",N50*Contagem!$U$13,IF(H50="A",N50*Contagem!$U$12,IF(H50="T",N50*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P50" s="100"/>
-      <c r="Q50" s="101"/>
-      <c r="R50" s="101"/>
-      <c r="S50" s="101"/>
-      <c r="T50" s="101"/>
+      <c r="P50" s="110"/>
+      <c r="Q50" s="111"/>
+      <c r="R50" s="111"/>
+      <c r="S50" s="111"/>
+      <c r="T50" s="111"/>
     </row>
     <row r="51" spans="1:20" ht="18" customHeight="1">
-      <c r="A51" s="112" t="s">
+      <c r="A51" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="113"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="81"/>
+      <c r="D51" s="81"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="106"/>
       <c r="G51" s="18" t="s">
         <v>44</v>
       </c>
@@ -7043,21 +7190,21 @@
         <f>IF(H51="I",N51*Contagem!$U$11,IF(H51="E",N51*Contagem!$U$13,IF(H51="A",N51*Contagem!$U$12,IF(H51="T",N51*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P51" s="100"/>
-      <c r="Q51" s="101"/>
-      <c r="R51" s="101"/>
-      <c r="S51" s="101"/>
-      <c r="T51" s="101"/>
+      <c r="P51" s="110"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
     </row>
     <row r="52" spans="1:20" ht="18" customHeight="1">
-      <c r="A52" s="109" t="s">
+      <c r="A52" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="110"/>
-      <c r="C52" s="110"/>
-      <c r="D52" s="110"/>
-      <c r="E52" s="110"/>
-      <c r="F52" s="111"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="109"/>
       <c r="G52" s="18" t="s">
         <v>39</v>
       </c>
@@ -7090,11 +7237,11 @@
         <f>IF(H52="I",N52*Contagem!$U$11,IF(H52="E",N52*Contagem!$U$13,IF(H52="A",N52*Contagem!$U$12,IF(H52="T",N52*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P52" s="100"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
+      <c r="P52" s="110"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
     </row>
     <row r="53" spans="1:20" ht="18" customHeight="1">
       <c r="A53" s="102"/>
@@ -7126,11 +7273,11 @@
         <v/>
       </c>
       <c r="O53" s="22"/>
-      <c r="P53" s="100"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="101"/>
+      <c r="P53" s="110"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="111"/>
+      <c r="S53" s="111"/>
+      <c r="T53" s="111"/>
     </row>
     <row r="54" spans="1:20" ht="18" customHeight="1">
       <c r="A54" s="102" t="s">
@@ -7164,11 +7311,11 @@
         <v/>
       </c>
       <c r="O54" s="22"/>
-      <c r="P54" s="100"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="101"/>
+      <c r="P54" s="110"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="111"/>
+      <c r="S54" s="111"/>
+      <c r="T54" s="111"/>
     </row>
     <row r="55" spans="1:20" ht="18" customHeight="1">
       <c r="A55" s="102" t="s">
@@ -7211,11 +7358,11 @@
         <f>IF(H55="I",N55*Contagem!$U$11,IF(H55="E",N55*Contagem!$U$13,IF(H55="A",N55*Contagem!$U$12,IF(H55="T",N55*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P55" s="100"/>
-      <c r="Q55" s="101"/>
-      <c r="R55" s="101"/>
-      <c r="S55" s="101"/>
-      <c r="T55" s="101"/>
+      <c r="P55" s="110"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="111"/>
+      <c r="S55" s="111"/>
+      <c r="T55" s="111"/>
     </row>
     <row r="56" spans="1:20" ht="18" customHeight="1">
       <c r="A56" s="102" t="s">
@@ -7258,11 +7405,11 @@
         <f>IF(H56="I",N56*Contagem!$U$11,IF(H56="E",N56*Contagem!$U$13,IF(H56="A",N56*Contagem!$U$12,IF(H56="T",N56*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P56" s="100"/>
-      <c r="Q56" s="101"/>
-      <c r="R56" s="101"/>
-      <c r="S56" s="101"/>
-      <c r="T56" s="101"/>
+      <c r="P56" s="110"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="111"/>
+      <c r="S56" s="111"/>
+      <c r="T56" s="111"/>
     </row>
     <row r="57" spans="1:20" ht="18" customHeight="1">
       <c r="A57" s="102" t="s">
@@ -7305,11 +7452,11 @@
         <f>IF(H57="I",N57*Contagem!$U$11,IF(H57="E",N57*Contagem!$U$13,IF(H57="A",N57*Contagem!$U$12,IF(H57="T",N57*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P57" s="100"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="101"/>
+      <c r="P57" s="110"/>
+      <c r="Q57" s="111"/>
+      <c r="R57" s="111"/>
+      <c r="S57" s="111"/>
+      <c r="T57" s="111"/>
     </row>
     <row r="58" spans="1:20" ht="18" customHeight="1">
       <c r="A58" s="102" t="s">
@@ -7352,11 +7499,11 @@
         <f>IF(H58="I",N58*Contagem!$U$11,IF(H58="E",N58*Contagem!$U$13,IF(H58="A",N58*Contagem!$U$12,IF(H58="T",N58*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P58" s="100"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="101"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="101"/>
+      <c r="P58" s="110"/>
+      <c r="Q58" s="111"/>
+      <c r="R58" s="111"/>
+      <c r="S58" s="111"/>
+      <c r="T58" s="111"/>
     </row>
     <row r="59" spans="1:20" ht="18" customHeight="1">
       <c r="A59" s="102" t="s">
@@ -7399,11 +7546,11 @@
         <f>IF(H59="I",N59*Contagem!$U$11,IF(H59="E",N59*Contagem!$U$13,IF(H59="A",N59*Contagem!$U$12,IF(H59="T",N59*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P59" s="100"/>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="101"/>
-      <c r="S59" s="101"/>
-      <c r="T59" s="101"/>
+      <c r="P59" s="110"/>
+      <c r="Q59" s="111"/>
+      <c r="R59" s="111"/>
+      <c r="S59" s="111"/>
+      <c r="T59" s="111"/>
     </row>
     <row r="60" spans="1:20" ht="18" customHeight="1">
       <c r="A60" s="102" t="s">
@@ -7446,11 +7593,11 @@
         <f>IF(H60="I",N60*Contagem!$U$11,IF(H60="E",N60*Contagem!$U$13,IF(H60="A",N60*Contagem!$U$12,IF(H60="T",N60*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P60" s="100"/>
-      <c r="Q60" s="101"/>
-      <c r="R60" s="101"/>
-      <c r="S60" s="101"/>
-      <c r="T60" s="101"/>
+      <c r="P60" s="110"/>
+      <c r="Q60" s="111"/>
+      <c r="R60" s="111"/>
+      <c r="S60" s="111"/>
+      <c r="T60" s="111"/>
     </row>
     <row r="61" spans="1:20" ht="18" customHeight="1">
       <c r="A61" s="102" t="s">
@@ -7493,11 +7640,11 @@
         <f>IF(H61="I",N61*Contagem!$U$11,IF(H61="E",N61*Contagem!$U$13,IF(H61="A",N61*Contagem!$U$12,IF(H61="T",N61*Contagem!$U$14,""))))</f>
         <v>3</v>
       </c>
-      <c r="P61" s="100"/>
-      <c r="Q61" s="101"/>
-      <c r="R61" s="101"/>
-      <c r="S61" s="101"/>
-      <c r="T61" s="101"/>
+      <c r="P61" s="110"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
+      <c r="S61" s="111"/>
+      <c r="T61" s="111"/>
     </row>
     <row r="62" spans="1:20" ht="18" customHeight="1">
       <c r="A62" s="102"/>
@@ -7529,11 +7676,11 @@
         <v/>
       </c>
       <c r="O62" s="22"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="101"/>
-      <c r="R62" s="101"/>
-      <c r="S62" s="101"/>
-      <c r="T62" s="101"/>
+      <c r="P62" s="110"/>
+      <c r="Q62" s="111"/>
+      <c r="R62" s="111"/>
+      <c r="S62" s="111"/>
+      <c r="T62" s="111"/>
     </row>
     <row r="63" spans="1:20" ht="18" customHeight="1">
       <c r="A63" s="102" t="s">
@@ -7567,11 +7714,11 @@
         <v/>
       </c>
       <c r="O63" s="22"/>
-      <c r="P63" s="100"/>
-      <c r="Q63" s="101"/>
-      <c r="R63" s="101"/>
-      <c r="S63" s="101"/>
-      <c r="T63" s="101"/>
+      <c r="P63" s="110"/>
+      <c r="Q63" s="111"/>
+      <c r="R63" s="111"/>
+      <c r="S63" s="111"/>
+      <c r="T63" s="111"/>
     </row>
     <row r="64" spans="1:20" ht="18" customHeight="1">
       <c r="A64" s="102" t="s">
@@ -7610,11 +7757,11 @@
         <f>IF(H64="I",N64*Contagem!$U$11,IF(H64="E",N64*Contagem!$U$13,IF(H64="A",N64*Contagem!$U$12,IF(H64="T",N64*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P64" s="100"/>
-      <c r="Q64" s="101"/>
-      <c r="R64" s="101"/>
-      <c r="S64" s="101"/>
-      <c r="T64" s="101"/>
+      <c r="P64" s="110"/>
+      <c r="Q64" s="111"/>
+      <c r="R64" s="111"/>
+      <c r="S64" s="111"/>
+      <c r="T64" s="111"/>
     </row>
     <row r="65" spans="1:20" ht="18" customHeight="1">
       <c r="A65" s="102" t="s">
@@ -7653,11 +7800,11 @@
         <f>IF(H65="I",N65*Contagem!$U$11,IF(H65="E",N65*Contagem!$U$13,IF(H65="A",N65*Contagem!$U$12,IF(H65="T",N65*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P65" s="100"/>
-      <c r="Q65" s="101"/>
-      <c r="R65" s="101"/>
-      <c r="S65" s="101"/>
-      <c r="T65" s="101"/>
+      <c r="P65" s="110"/>
+      <c r="Q65" s="111"/>
+      <c r="R65" s="111"/>
+      <c r="S65" s="111"/>
+      <c r="T65" s="111"/>
     </row>
     <row r="66" spans="1:20" ht="18" customHeight="1">
       <c r="A66" s="102" t="s">
@@ -7696,11 +7843,11 @@
         <f>IF(H66="I",N66*Contagem!$U$11,IF(H66="E",N66*Contagem!$U$13,IF(H66="A",N66*Contagem!$U$12,IF(H66="T",N66*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P66" s="100"/>
-      <c r="Q66" s="101"/>
-      <c r="R66" s="101"/>
-      <c r="S66" s="101"/>
-      <c r="T66" s="101"/>
+      <c r="P66" s="110"/>
+      <c r="Q66" s="111"/>
+      <c r="R66" s="111"/>
+      <c r="S66" s="111"/>
+      <c r="T66" s="111"/>
     </row>
     <row r="67" spans="1:20" ht="18" customHeight="1">
       <c r="A67" s="102" t="s">
@@ -7739,11 +7886,11 @@
         <f>IF(H67="I",N67*Contagem!$U$11,IF(H67="E",N67*Contagem!$U$13,IF(H67="A",N67*Contagem!$U$12,IF(H67="T",N67*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P67" s="100"/>
-      <c r="Q67" s="101"/>
-      <c r="R67" s="101"/>
-      <c r="S67" s="101"/>
-      <c r="T67" s="101"/>
+      <c r="P67" s="110"/>
+      <c r="Q67" s="111"/>
+      <c r="R67" s="111"/>
+      <c r="S67" s="111"/>
+      <c r="T67" s="111"/>
     </row>
     <row r="68" spans="1:20" ht="18" customHeight="1">
       <c r="A68" s="102" t="s">
@@ -7782,11 +7929,11 @@
         <f>IF(H68="I",N68*Contagem!$U$11,IF(H68="E",N68*Contagem!$U$13,IF(H68="A",N68*Contagem!$U$12,IF(H68="T",N68*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P68" s="100"/>
-      <c r="Q68" s="101"/>
-      <c r="R68" s="101"/>
-      <c r="S68" s="101"/>
-      <c r="T68" s="101"/>
+      <c r="P68" s="110"/>
+      <c r="Q68" s="111"/>
+      <c r="R68" s="111"/>
+      <c r="S68" s="111"/>
+      <c r="T68" s="111"/>
     </row>
     <row r="69" spans="1:20" ht="18" customHeight="1">
       <c r="A69" s="102" t="s">
@@ -7825,11 +7972,11 @@
         <f>IF(H69="I",N69*Contagem!$U$11,IF(H69="E",N69*Contagem!$U$13,IF(H69="A",N69*Contagem!$U$12,IF(H69="T",N69*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P69" s="100"/>
-      <c r="Q69" s="101"/>
-      <c r="R69" s="101"/>
-      <c r="S69" s="101"/>
-      <c r="T69" s="101"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="111"/>
+      <c r="R69" s="111"/>
+      <c r="S69" s="111"/>
+      <c r="T69" s="111"/>
     </row>
     <row r="70" spans="1:20" ht="18" customHeight="1">
       <c r="A70" s="102"/>
@@ -7861,11 +8008,11 @@
         <v/>
       </c>
       <c r="O70" s="22"/>
-      <c r="P70" s="100"/>
-      <c r="Q70" s="101"/>
-      <c r="R70" s="101"/>
-      <c r="S70" s="101"/>
-      <c r="T70" s="101"/>
+      <c r="P70" s="110"/>
+      <c r="Q70" s="111"/>
+      <c r="R70" s="111"/>
+      <c r="S70" s="111"/>
+      <c r="T70" s="111"/>
     </row>
     <row r="71" spans="1:20" ht="18" customHeight="1">
       <c r="A71" s="102" t="s">
@@ -7899,11 +8046,11 @@
         <v/>
       </c>
       <c r="O71" s="22"/>
-      <c r="P71" s="100"/>
-      <c r="Q71" s="101"/>
-      <c r="R71" s="101"/>
-      <c r="S71" s="101"/>
-      <c r="T71" s="101"/>
+      <c r="P71" s="110"/>
+      <c r="Q71" s="111"/>
+      <c r="R71" s="111"/>
+      <c r="S71" s="111"/>
+      <c r="T71" s="111"/>
     </row>
     <row r="72" spans="1:20" ht="18" customHeight="1">
       <c r="A72" s="102" t="s">
@@ -7942,11 +8089,11 @@
         <f>IF(H72="I",N72*Contagem!$U$11,IF(H72="E",N72*Contagem!$U$13,IF(H72="A",N72*Contagem!$U$12,IF(H72="T",N72*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P72" s="100"/>
-      <c r="Q72" s="101"/>
-      <c r="R72" s="101"/>
-      <c r="S72" s="101"/>
-      <c r="T72" s="101"/>
+      <c r="P72" s="110"/>
+      <c r="Q72" s="111"/>
+      <c r="R72" s="111"/>
+      <c r="S72" s="111"/>
+      <c r="T72" s="111"/>
     </row>
     <row r="73" spans="1:20" ht="18" customHeight="1">
       <c r="A73" s="102" t="s">
@@ -7985,11 +8132,11 @@
         <f>IF(H73="I",N73*Contagem!$U$11,IF(H73="E",N73*Contagem!$U$13,IF(H73="A",N73*Contagem!$U$12,IF(H73="T",N73*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P73" s="100"/>
-      <c r="Q73" s="101"/>
-      <c r="R73" s="101"/>
-      <c r="S73" s="101"/>
-      <c r="T73" s="101"/>
+      <c r="P73" s="110"/>
+      <c r="Q73" s="111"/>
+      <c r="R73" s="111"/>
+      <c r="S73" s="111"/>
+      <c r="T73" s="111"/>
     </row>
     <row r="74" spans="1:20" ht="18" customHeight="1">
       <c r="A74" s="102" t="s">
@@ -8028,11 +8175,11 @@
         <f>IF(H74="I",N74*Contagem!$U$11,IF(H74="E",N74*Contagem!$U$13,IF(H74="A",N74*Contagem!$U$12,IF(H74="T",N74*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P74" s="100"/>
-      <c r="Q74" s="101"/>
-      <c r="R74" s="101"/>
-      <c r="S74" s="101"/>
-      <c r="T74" s="101"/>
+      <c r="P74" s="110"/>
+      <c r="Q74" s="111"/>
+      <c r="R74" s="111"/>
+      <c r="S74" s="111"/>
+      <c r="T74" s="111"/>
     </row>
     <row r="75" spans="1:20" ht="18" customHeight="1">
       <c r="A75" s="102" t="s">
@@ -8071,11 +8218,11 @@
         <f>IF(H75="I",N75*Contagem!$U$11,IF(H75="E",N75*Contagem!$U$13,IF(H75="A",N75*Contagem!$U$12,IF(H75="T",N75*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P75" s="100"/>
-      <c r="Q75" s="101"/>
-      <c r="R75" s="101"/>
-      <c r="S75" s="101"/>
-      <c r="T75" s="101"/>
+      <c r="P75" s="110"/>
+      <c r="Q75" s="111"/>
+      <c r="R75" s="111"/>
+      <c r="S75" s="111"/>
+      <c r="T75" s="111"/>
     </row>
     <row r="76" spans="1:20" ht="18" customHeight="1">
       <c r="A76" s="102" t="s">
@@ -8114,11 +8261,11 @@
         <f>IF(H76="I",N76*Contagem!$U$11,IF(H76="E",N76*Contagem!$U$13,IF(H76="A",N76*Contagem!$U$12,IF(H76="T",N76*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P76" s="100"/>
-      <c r="Q76" s="101"/>
-      <c r="R76" s="101"/>
-      <c r="S76" s="101"/>
-      <c r="T76" s="101"/>
+      <c r="P76" s="110"/>
+      <c r="Q76" s="111"/>
+      <c r="R76" s="111"/>
+      <c r="S76" s="111"/>
+      <c r="T76" s="111"/>
     </row>
     <row r="77" spans="1:20" ht="18" customHeight="1">
       <c r="A77" s="102" t="s">
@@ -8157,11 +8304,11 @@
         <f>IF(H77="I",N77*Contagem!$U$11,IF(H77="E",N77*Contagem!$U$13,IF(H77="A",N77*Contagem!$U$12,IF(H77="T",N77*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P77" s="100"/>
-      <c r="Q77" s="101"/>
-      <c r="R77" s="101"/>
-      <c r="S77" s="101"/>
-      <c r="T77" s="101"/>
+      <c r="P77" s="110"/>
+      <c r="Q77" s="111"/>
+      <c r="R77" s="111"/>
+      <c r="S77" s="111"/>
+      <c r="T77" s="111"/>
     </row>
     <row r="78" spans="1:20" ht="18" customHeight="1">
       <c r="A78" s="102"/>
@@ -8193,11 +8340,11 @@
         <v/>
       </c>
       <c r="O78" s="22"/>
-      <c r="P78" s="100"/>
-      <c r="Q78" s="101"/>
-      <c r="R78" s="101"/>
-      <c r="S78" s="101"/>
-      <c r="T78" s="101"/>
+      <c r="P78" s="110"/>
+      <c r="Q78" s="111"/>
+      <c r="R78" s="111"/>
+      <c r="S78" s="111"/>
+      <c r="T78" s="111"/>
     </row>
     <row r="79" spans="1:20" ht="18" customHeight="1">
       <c r="A79" s="102" t="s">
@@ -8231,11 +8378,11 @@
         <v/>
       </c>
       <c r="O79" s="22"/>
-      <c r="P79" s="100"/>
-      <c r="Q79" s="101"/>
-      <c r="R79" s="101"/>
-      <c r="S79" s="101"/>
-      <c r="T79" s="101"/>
+      <c r="P79" s="110"/>
+      <c r="Q79" s="111"/>
+      <c r="R79" s="111"/>
+      <c r="S79" s="111"/>
+      <c r="T79" s="111"/>
     </row>
     <row r="80" spans="1:20" ht="18" customHeight="1">
       <c r="A80" s="102" t="s">
@@ -8274,11 +8421,11 @@
         <f>IF(H80="I",N80*Contagem!$U$11,IF(H80="E",N80*Contagem!$U$13,IF(H80="A",N80*Contagem!$U$12,IF(H80="T",N80*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P80" s="100"/>
-      <c r="Q80" s="101"/>
-      <c r="R80" s="101"/>
-      <c r="S80" s="101"/>
-      <c r="T80" s="101"/>
+      <c r="P80" s="110"/>
+      <c r="Q80" s="111"/>
+      <c r="R80" s="111"/>
+      <c r="S80" s="111"/>
+      <c r="T80" s="111"/>
     </row>
     <row r="81" spans="1:20" ht="18" customHeight="1">
       <c r="A81" s="102" t="s">
@@ -8317,11 +8464,11 @@
         <f>IF(H81="I",N81*Contagem!$U$11,IF(H81="E",N81*Contagem!$U$13,IF(H81="A",N81*Contagem!$U$12,IF(H81="T",N81*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P81" s="100"/>
-      <c r="Q81" s="101"/>
-      <c r="R81" s="101"/>
-      <c r="S81" s="101"/>
-      <c r="T81" s="101"/>
+      <c r="P81" s="110"/>
+      <c r="Q81" s="111"/>
+      <c r="R81" s="111"/>
+      <c r="S81" s="111"/>
+      <c r="T81" s="111"/>
     </row>
     <row r="82" spans="1:20" ht="18" customHeight="1">
       <c r="A82" s="102" t="s">
@@ -8360,11 +8507,11 @@
         <f>IF(H82="I",N82*Contagem!$U$11,IF(H82="E",N82*Contagem!$U$13,IF(H82="A",N82*Contagem!$U$12,IF(H82="T",N82*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P82" s="100"/>
-      <c r="Q82" s="101"/>
-      <c r="R82" s="101"/>
-      <c r="S82" s="101"/>
-      <c r="T82" s="101"/>
+      <c r="P82" s="110"/>
+      <c r="Q82" s="111"/>
+      <c r="R82" s="111"/>
+      <c r="S82" s="111"/>
+      <c r="T82" s="111"/>
     </row>
     <row r="83" spans="1:20" ht="18" customHeight="1">
       <c r="A83" s="102" t="s">
@@ -8403,11 +8550,11 @@
         <f>IF(H83="I",N83*Contagem!$U$11,IF(H83="E",N83*Contagem!$U$13,IF(H83="A",N83*Contagem!$U$12,IF(H83="T",N83*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P83" s="100"/>
-      <c r="Q83" s="101"/>
-      <c r="R83" s="101"/>
-      <c r="S83" s="101"/>
-      <c r="T83" s="101"/>
+      <c r="P83" s="110"/>
+      <c r="Q83" s="111"/>
+      <c r="R83" s="111"/>
+      <c r="S83" s="111"/>
+      <c r="T83" s="111"/>
     </row>
     <row r="84" spans="1:20" ht="18" customHeight="1">
       <c r="A84" s="102" t="s">
@@ -8446,11 +8593,11 @@
         <f>IF(H84="I",N84*Contagem!$U$11,IF(H84="E",N84*Contagem!$U$13,IF(H84="A",N84*Contagem!$U$12,IF(H84="T",N84*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P84" s="100"/>
-      <c r="Q84" s="101"/>
-      <c r="R84" s="101"/>
-      <c r="S84" s="101"/>
-      <c r="T84" s="101"/>
+      <c r="P84" s="110"/>
+      <c r="Q84" s="111"/>
+      <c r="R84" s="111"/>
+      <c r="S84" s="111"/>
+      <c r="T84" s="111"/>
     </row>
     <row r="85" spans="1:20" ht="18" customHeight="1">
       <c r="A85" s="102" t="s">
@@ -8489,11 +8636,11 @@
         <f>IF(H85="I",N85*Contagem!$U$11,IF(H85="E",N85*Contagem!$U$13,IF(H85="A",N85*Contagem!$U$12,IF(H85="T",N85*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P85" s="100"/>
-      <c r="Q85" s="101"/>
-      <c r="R85" s="101"/>
-      <c r="S85" s="101"/>
-      <c r="T85" s="101"/>
+      <c r="P85" s="110"/>
+      <c r="Q85" s="111"/>
+      <c r="R85" s="111"/>
+      <c r="S85" s="111"/>
+      <c r="T85" s="111"/>
     </row>
     <row r="86" spans="1:20" ht="18" customHeight="1">
       <c r="A86" s="102"/>
@@ -8525,11 +8672,11 @@
         <v/>
       </c>
       <c r="O86" s="22"/>
-      <c r="P86" s="100"/>
-      <c r="Q86" s="101"/>
-      <c r="R86" s="101"/>
-      <c r="S86" s="101"/>
-      <c r="T86" s="101"/>
+      <c r="P86" s="110"/>
+      <c r="Q86" s="111"/>
+      <c r="R86" s="111"/>
+      <c r="S86" s="111"/>
+      <c r="T86" s="111"/>
     </row>
     <row r="87" spans="1:20" ht="18" customHeight="1">
       <c r="A87" s="102" t="s">
@@ -8563,11 +8710,11 @@
         <v/>
       </c>
       <c r="O87" s="22"/>
-      <c r="P87" s="100"/>
-      <c r="Q87" s="101"/>
-      <c r="R87" s="101"/>
-      <c r="S87" s="101"/>
-      <c r="T87" s="101"/>
+      <c r="P87" s="110"/>
+      <c r="Q87" s="111"/>
+      <c r="R87" s="111"/>
+      <c r="S87" s="111"/>
+      <c r="T87" s="111"/>
     </row>
     <row r="88" spans="1:20" ht="18" customHeight="1">
       <c r="A88" s="102" t="s">
@@ -8606,11 +8753,11 @@
         <f>IF(H88="I",N88*Contagem!$U$11,IF(H88="E",N88*Contagem!$U$13,IF(H88="A",N88*Contagem!$U$12,IF(H88="T",N88*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P88" s="100"/>
-      <c r="Q88" s="101"/>
-      <c r="R88" s="101"/>
-      <c r="S88" s="101"/>
-      <c r="T88" s="101"/>
+      <c r="P88" s="110"/>
+      <c r="Q88" s="111"/>
+      <c r="R88" s="111"/>
+      <c r="S88" s="111"/>
+      <c r="T88" s="111"/>
     </row>
     <row r="89" spans="1:20" ht="18" customHeight="1">
       <c r="A89" s="102" t="s">
@@ -8649,11 +8796,11 @@
         <f>IF(H89="I",N89*Contagem!$U$11,IF(H89="E",N89*Contagem!$U$13,IF(H89="A",N89*Contagem!$U$12,IF(H89="T",N89*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P89" s="100"/>
-      <c r="Q89" s="101"/>
-      <c r="R89" s="101"/>
-      <c r="S89" s="101"/>
-      <c r="T89" s="101"/>
+      <c r="P89" s="110"/>
+      <c r="Q89" s="111"/>
+      <c r="R89" s="111"/>
+      <c r="S89" s="111"/>
+      <c r="T89" s="111"/>
     </row>
     <row r="90" spans="1:20" ht="18" customHeight="1">
       <c r="A90" s="102" t="s">
@@ -8692,11 +8839,11 @@
         <f>IF(H90="I",N90*Contagem!$U$11,IF(H90="E",N90*Contagem!$U$13,IF(H90="A",N90*Contagem!$U$12,IF(H90="T",N90*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P90" s="100"/>
-      <c r="Q90" s="101"/>
-      <c r="R90" s="101"/>
-      <c r="S90" s="101"/>
-      <c r="T90" s="101"/>
+      <c r="P90" s="110"/>
+      <c r="Q90" s="111"/>
+      <c r="R90" s="111"/>
+      <c r="S90" s="111"/>
+      <c r="T90" s="111"/>
     </row>
     <row r="91" spans="1:20" ht="18" customHeight="1">
       <c r="A91" s="102" t="s">
@@ -8735,11 +8882,11 @@
         <f>IF(H91="I",N91*Contagem!$U$11,IF(H91="E",N91*Contagem!$U$13,IF(H91="A",N91*Contagem!$U$12,IF(H91="T",N91*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P91" s="100"/>
-      <c r="Q91" s="101"/>
-      <c r="R91" s="101"/>
-      <c r="S91" s="101"/>
-      <c r="T91" s="101"/>
+      <c r="P91" s="110"/>
+      <c r="Q91" s="111"/>
+      <c r="R91" s="111"/>
+      <c r="S91" s="111"/>
+      <c r="T91" s="111"/>
     </row>
     <row r="92" spans="1:20" ht="18" customHeight="1">
       <c r="A92" s="102" t="s">
@@ -8778,11 +8925,11 @@
         <f>IF(H92="I",N92*Contagem!$U$11,IF(H92="E",N92*Contagem!$U$13,IF(H92="A",N92*Contagem!$U$12,IF(H92="T",N92*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P92" s="100"/>
-      <c r="Q92" s="101"/>
-      <c r="R92" s="101"/>
-      <c r="S92" s="101"/>
-      <c r="T92" s="101"/>
+      <c r="P92" s="110"/>
+      <c r="Q92" s="111"/>
+      <c r="R92" s="111"/>
+      <c r="S92" s="111"/>
+      <c r="T92" s="111"/>
     </row>
     <row r="93" spans="1:20" ht="18" customHeight="1">
       <c r="A93" s="102" t="s">
@@ -8821,11 +8968,11 @@
         <f>IF(H93="I",N93*Contagem!$U$11,IF(H93="E",N93*Contagem!$U$13,IF(H93="A",N93*Contagem!$U$12,IF(H93="T",N93*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P93" s="100"/>
-      <c r="Q93" s="101"/>
-      <c r="R93" s="101"/>
-      <c r="S93" s="101"/>
-      <c r="T93" s="101"/>
+      <c r="P93" s="110"/>
+      <c r="Q93" s="111"/>
+      <c r="R93" s="111"/>
+      <c r="S93" s="111"/>
+      <c r="T93" s="111"/>
     </row>
     <row r="94" spans="1:20" ht="18" customHeight="1">
       <c r="A94" s="102" t="s">
@@ -8864,11 +9011,11 @@
         <f>IF(H94="I",N94*Contagem!$U$11,IF(H94="E",N94*Contagem!$U$13,IF(H94="A",N94*Contagem!$U$12,IF(H94="T",N94*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P94" s="100"/>
-      <c r="Q94" s="101"/>
-      <c r="R94" s="101"/>
-      <c r="S94" s="101"/>
-      <c r="T94" s="101"/>
+      <c r="P94" s="110"/>
+      <c r="Q94" s="111"/>
+      <c r="R94" s="111"/>
+      <c r="S94" s="111"/>
+      <c r="T94" s="111"/>
     </row>
     <row r="95" spans="1:20" ht="18" customHeight="1">
       <c r="A95" s="102" t="s">
@@ -8907,11 +9054,11 @@
         <f>IF(H95="I",N95*Contagem!$U$11,IF(H95="E",N95*Contagem!$U$13,IF(H95="A",N95*Contagem!$U$12,IF(H95="T",N95*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P95" s="100"/>
-      <c r="Q95" s="101"/>
-      <c r="R95" s="101"/>
-      <c r="S95" s="101"/>
-      <c r="T95" s="101"/>
+      <c r="P95" s="110"/>
+      <c r="Q95" s="111"/>
+      <c r="R95" s="111"/>
+      <c r="S95" s="111"/>
+      <c r="T95" s="111"/>
     </row>
     <row r="96" spans="1:20" ht="18" customHeight="1">
       <c r="A96" s="102" t="s">
@@ -9122,11 +9269,11 @@
         <f>IF(H100="I",N100*Contagem!$U$11,IF(H100="E",N100*Contagem!$U$13,IF(H100="A",N100*Contagem!$U$12,IF(H100="T",N100*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P100" s="100"/>
-      <c r="Q100" s="101"/>
-      <c r="R100" s="101"/>
-      <c r="S100" s="101"/>
-      <c r="T100" s="101"/>
+      <c r="P100" s="110"/>
+      <c r="Q100" s="111"/>
+      <c r="R100" s="111"/>
+      <c r="S100" s="111"/>
+      <c r="T100" s="111"/>
     </row>
     <row r="101" spans="1:20" ht="18" customHeight="1">
       <c r="A101" s="102"/>
@@ -9158,11 +9305,11 @@
         <v/>
       </c>
       <c r="O101" s="22"/>
-      <c r="P101" s="100"/>
-      <c r="Q101" s="101"/>
-      <c r="R101" s="101"/>
-      <c r="S101" s="101"/>
-      <c r="T101" s="101"/>
+      <c r="P101" s="110"/>
+      <c r="Q101" s="111"/>
+      <c r="R101" s="111"/>
+      <c r="S101" s="111"/>
+      <c r="T101" s="111"/>
     </row>
     <row r="102" spans="1:20" ht="18" customHeight="1">
       <c r="A102" s="102" t="s">
@@ -9201,11 +9348,11 @@
         <f>IF(H102="I",N102*Contagem!$U$11,IF(H102="E",N102*Contagem!$U$13,IF(H102="A",N102*Contagem!$U$12,IF(H102="T",N102*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P102" s="100"/>
-      <c r="Q102" s="101"/>
-      <c r="R102" s="101"/>
-      <c r="S102" s="101"/>
-      <c r="T102" s="101"/>
+      <c r="P102" s="110"/>
+      <c r="Q102" s="111"/>
+      <c r="R102" s="111"/>
+      <c r="S102" s="111"/>
+      <c r="T102" s="111"/>
     </row>
     <row r="103" spans="1:20" ht="18" customHeight="1">
       <c r="A103" s="102" t="s">
@@ -9244,11 +9391,11 @@
         <f>IF(H103="I",N103*Contagem!$U$11,IF(H103="E",N103*Contagem!$U$13,IF(H103="A",N103*Contagem!$U$12,IF(H103="T",N103*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P103" s="100"/>
-      <c r="Q103" s="101"/>
-      <c r="R103" s="101"/>
-      <c r="S103" s="101"/>
-      <c r="T103" s="101"/>
+      <c r="P103" s="110"/>
+      <c r="Q103" s="111"/>
+      <c r="R103" s="111"/>
+      <c r="S103" s="111"/>
+      <c r="T103" s="111"/>
     </row>
     <row r="104" spans="1:20" ht="18" customHeight="1">
       <c r="A104" s="102"/>
@@ -9280,11 +9427,11 @@
         <v/>
       </c>
       <c r="O104" s="22"/>
-      <c r="P104" s="100"/>
-      <c r="Q104" s="101"/>
-      <c r="R104" s="101"/>
-      <c r="S104" s="101"/>
-      <c r="T104" s="101"/>
+      <c r="P104" s="110"/>
+      <c r="Q104" s="111"/>
+      <c r="R104" s="111"/>
+      <c r="S104" s="111"/>
+      <c r="T104" s="111"/>
     </row>
     <row r="105" spans="1:20" ht="18" customHeight="1">
       <c r="A105" s="102"/>
@@ -9316,11 +9463,11 @@
         <v/>
       </c>
       <c r="O105" s="22"/>
-      <c r="P105" s="100"/>
-      <c r="Q105" s="101"/>
-      <c r="R105" s="101"/>
-      <c r="S105" s="101"/>
-      <c r="T105" s="101"/>
+      <c r="P105" s="110"/>
+      <c r="Q105" s="111"/>
+      <c r="R105" s="111"/>
+      <c r="S105" s="111"/>
+      <c r="T105" s="111"/>
     </row>
     <row r="106" spans="1:20" ht="18" customHeight="1">
       <c r="A106" s="102"/>
@@ -9352,11 +9499,11 @@
         <v/>
       </c>
       <c r="O106" s="22"/>
-      <c r="P106" s="100"/>
-      <c r="Q106" s="101"/>
-      <c r="R106" s="101"/>
-      <c r="S106" s="101"/>
-      <c r="T106" s="101"/>
+      <c r="P106" s="110"/>
+      <c r="Q106" s="111"/>
+      <c r="R106" s="111"/>
+      <c r="S106" s="111"/>
+      <c r="T106" s="111"/>
     </row>
     <row r="107" spans="1:20" ht="18" customHeight="1">
       <c r="A107" s="102" t="s">
@@ -9390,11 +9537,11 @@
         <v/>
       </c>
       <c r="O107" s="22"/>
-      <c r="P107" s="100"/>
-      <c r="Q107" s="101"/>
-      <c r="R107" s="101"/>
-      <c r="S107" s="101"/>
-      <c r="T107" s="101"/>
+      <c r="P107" s="110"/>
+      <c r="Q107" s="111"/>
+      <c r="R107" s="111"/>
+      <c r="S107" s="111"/>
+      <c r="T107" s="111"/>
     </row>
     <row r="108" spans="1:20" ht="18" customHeight="1">
       <c r="A108" s="102" t="s">
@@ -9433,11 +9580,11 @@
         <f>IF(H108="I",N108*Contagem!$U$11,IF(H108="E",N108*Contagem!$U$13,IF(H108="A",N108*Contagem!$U$12,IF(H108="T",N108*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P108" s="100"/>
-      <c r="Q108" s="101"/>
-      <c r="R108" s="101"/>
-      <c r="S108" s="101"/>
-      <c r="T108" s="101"/>
+      <c r="P108" s="110"/>
+      <c r="Q108" s="111"/>
+      <c r="R108" s="111"/>
+      <c r="S108" s="111"/>
+      <c r="T108" s="111"/>
     </row>
     <row r="109" spans="1:20" ht="18" customHeight="1">
       <c r="A109" s="102" t="s">
@@ -9476,11 +9623,11 @@
         <f>IF(H109="I",N109*Contagem!$U$11,IF(H109="E",N109*Contagem!$U$13,IF(H109="A",N109*Contagem!$U$12,IF(H109="T",N109*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P109" s="100"/>
-      <c r="Q109" s="101"/>
-      <c r="R109" s="101"/>
-      <c r="S109" s="101"/>
-      <c r="T109" s="101"/>
+      <c r="P109" s="110"/>
+      <c r="Q109" s="111"/>
+      <c r="R109" s="111"/>
+      <c r="S109" s="111"/>
+      <c r="T109" s="111"/>
     </row>
     <row r="110" spans="1:20" ht="18" customHeight="1">
       <c r="A110" s="102" t="s">
@@ -9519,11 +9666,11 @@
         <f>IF(H110="I",N110*Contagem!$U$11,IF(H110="E",N110*Contagem!$U$13,IF(H110="A",N110*Contagem!$U$12,IF(H110="T",N110*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P110" s="100"/>
-      <c r="Q110" s="101"/>
-      <c r="R110" s="101"/>
-      <c r="S110" s="101"/>
-      <c r="T110" s="101"/>
+      <c r="P110" s="110"/>
+      <c r="Q110" s="111"/>
+      <c r="R110" s="111"/>
+      <c r="S110" s="111"/>
+      <c r="T110" s="111"/>
     </row>
     <row r="111" spans="1:20" ht="18" customHeight="1">
       <c r="A111" s="102" t="s">
@@ -9562,11 +9709,11 @@
         <f>IF(H111="I",N111*Contagem!$U$11,IF(H111="E",N111*Contagem!$U$13,IF(H111="A",N111*Contagem!$U$12,IF(H111="T",N111*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P111" s="100"/>
-      <c r="Q111" s="101"/>
-      <c r="R111" s="101"/>
-      <c r="S111" s="101"/>
-      <c r="T111" s="101"/>
+      <c r="P111" s="110"/>
+      <c r="Q111" s="111"/>
+      <c r="R111" s="111"/>
+      <c r="S111" s="111"/>
+      <c r="T111" s="111"/>
     </row>
     <row r="112" spans="1:20" ht="18" customHeight="1">
       <c r="A112" s="102" t="s">
@@ -9605,11 +9752,11 @@
         <f>IF(H112="I",N112*Contagem!$U$11,IF(H112="E",N112*Contagem!$U$13,IF(H112="A",N112*Contagem!$U$12,IF(H112="T",N112*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P112" s="100"/>
-      <c r="Q112" s="101"/>
-      <c r="R112" s="101"/>
-      <c r="S112" s="101"/>
-      <c r="T112" s="101"/>
+      <c r="P112" s="110"/>
+      <c r="Q112" s="111"/>
+      <c r="R112" s="111"/>
+      <c r="S112" s="111"/>
+      <c r="T112" s="111"/>
     </row>
     <row r="113" spans="1:20" ht="18" customHeight="1">
       <c r="A113" s="102" t="s">
@@ -9648,11 +9795,11 @@
         <f>IF(H113="I",N113*Contagem!$U$11,IF(H113="E",N113*Contagem!$U$13,IF(H113="A",N113*Contagem!$U$12,IF(H113="T",N113*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P113" s="100"/>
-      <c r="Q113" s="101"/>
-      <c r="R113" s="101"/>
-      <c r="S113" s="101"/>
-      <c r="T113" s="101"/>
+      <c r="P113" s="110"/>
+      <c r="Q113" s="111"/>
+      <c r="R113" s="111"/>
+      <c r="S113" s="111"/>
+      <c r="T113" s="111"/>
     </row>
     <row r="114" spans="1:20" ht="18" customHeight="1">
       <c r="A114" s="102" t="s">
@@ -9691,11 +9838,11 @@
         <f>IF(H114="I",N114*Contagem!$U$11,IF(H114="E",N114*Contagem!$U$13,IF(H114="A",N114*Contagem!$U$12,IF(H114="T",N114*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P114" s="100"/>
-      <c r="Q114" s="101"/>
-      <c r="R114" s="101"/>
-      <c r="S114" s="101"/>
-      <c r="T114" s="101"/>
+      <c r="P114" s="110"/>
+      <c r="Q114" s="111"/>
+      <c r="R114" s="111"/>
+      <c r="S114" s="111"/>
+      <c r="T114" s="111"/>
     </row>
     <row r="115" spans="1:20" ht="18" customHeight="1">
       <c r="A115" s="102" t="s">
@@ -9734,11 +9881,11 @@
         <f>IF(H115="I",N115*Contagem!$U$11,IF(H115="E",N115*Contagem!$U$13,IF(H115="A",N115*Contagem!$U$12,IF(H115="T",N115*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P115" s="100"/>
-      <c r="Q115" s="101"/>
-      <c r="R115" s="101"/>
-      <c r="S115" s="101"/>
-      <c r="T115" s="101"/>
+      <c r="P115" s="110"/>
+      <c r="Q115" s="111"/>
+      <c r="R115" s="111"/>
+      <c r="S115" s="111"/>
+      <c r="T115" s="111"/>
     </row>
     <row r="116" spans="1:20" ht="18" customHeight="1">
       <c r="A116" s="102" t="s">
@@ -9777,11 +9924,11 @@
         <f>IF(H116="I",N116*Contagem!$U$11,IF(H116="E",N116*Contagem!$U$13,IF(H116="A",N116*Contagem!$U$12,IF(H116="T",N116*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P116" s="100"/>
-      <c r="Q116" s="101"/>
-      <c r="R116" s="101"/>
-      <c r="S116" s="101"/>
-      <c r="T116" s="101"/>
+      <c r="P116" s="110"/>
+      <c r="Q116" s="111"/>
+      <c r="R116" s="111"/>
+      <c r="S116" s="111"/>
+      <c r="T116" s="111"/>
     </row>
     <row r="117" spans="1:20" ht="18" customHeight="1">
       <c r="A117" s="102" t="s">
@@ -9820,11 +9967,11 @@
         <f>IF(H117="I",N117*Contagem!$U$11,IF(H117="E",N117*Contagem!$U$13,IF(H117="A",N117*Contagem!$U$12,IF(H117="T",N117*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P117" s="100"/>
-      <c r="Q117" s="101"/>
-      <c r="R117" s="101"/>
-      <c r="S117" s="101"/>
-      <c r="T117" s="101"/>
+      <c r="P117" s="110"/>
+      <c r="Q117" s="111"/>
+      <c r="R117" s="111"/>
+      <c r="S117" s="111"/>
+      <c r="T117" s="111"/>
     </row>
     <row r="118" spans="1:20" ht="18" customHeight="1">
       <c r="A118" s="102" t="s">
@@ -9863,11 +10010,11 @@
         <f>IF(H118="I",N118*Contagem!$U$11,IF(H118="E",N118*Contagem!$U$13,IF(H118="A",N118*Contagem!$U$12,IF(H118="T",N118*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P118" s="100"/>
-      <c r="Q118" s="101"/>
-      <c r="R118" s="101"/>
-      <c r="S118" s="101"/>
-      <c r="T118" s="101"/>
+      <c r="P118" s="110"/>
+      <c r="Q118" s="111"/>
+      <c r="R118" s="111"/>
+      <c r="S118" s="111"/>
+      <c r="T118" s="111"/>
     </row>
     <row r="119" spans="1:20" ht="18" customHeight="1">
       <c r="A119" s="102"/>
@@ -9899,11 +10046,11 @@
         <v/>
       </c>
       <c r="O119" s="22"/>
-      <c r="P119" s="100"/>
-      <c r="Q119" s="101"/>
-      <c r="R119" s="101"/>
-      <c r="S119" s="101"/>
-      <c r="T119" s="101"/>
+      <c r="P119" s="110"/>
+      <c r="Q119" s="111"/>
+      <c r="R119" s="111"/>
+      <c r="S119" s="111"/>
+      <c r="T119" s="111"/>
     </row>
     <row r="120" spans="1:20" ht="18" customHeight="1">
       <c r="A120" s="102" t="s">
@@ -9942,11 +10089,11 @@
         <f>IF(H120="I",N120*Contagem!$U$11,IF(H120="E",N120*Contagem!$U$13,IF(H120="A",N120*Contagem!$U$12,IF(H120="T",N120*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P120" s="100"/>
-      <c r="Q120" s="101"/>
-      <c r="R120" s="101"/>
-      <c r="S120" s="101"/>
-      <c r="T120" s="101"/>
+      <c r="P120" s="110"/>
+      <c r="Q120" s="111"/>
+      <c r="R120" s="111"/>
+      <c r="S120" s="111"/>
+      <c r="T120" s="111"/>
     </row>
     <row r="121" spans="1:20" ht="18" customHeight="1">
       <c r="A121" s="102" t="s">
@@ -9985,11 +10132,11 @@
         <f>IF(H121="I",N121*Contagem!$U$11,IF(H121="E",N121*Contagem!$U$13,IF(H121="A",N121*Contagem!$U$12,IF(H121="T",N121*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P121" s="100"/>
-      <c r="Q121" s="101"/>
-      <c r="R121" s="101"/>
-      <c r="S121" s="101"/>
-      <c r="T121" s="101"/>
+      <c r="P121" s="110"/>
+      <c r="Q121" s="111"/>
+      <c r="R121" s="111"/>
+      <c r="S121" s="111"/>
+      <c r="T121" s="111"/>
     </row>
     <row r="122" spans="1:20" ht="18" customHeight="1">
       <c r="A122" s="102"/>
@@ -10021,11 +10168,11 @@
         <v/>
       </c>
       <c r="O122" s="22"/>
-      <c r="P122" s="100"/>
-      <c r="Q122" s="101"/>
-      <c r="R122" s="101"/>
-      <c r="S122" s="101"/>
-      <c r="T122" s="101"/>
+      <c r="P122" s="110"/>
+      <c r="Q122" s="111"/>
+      <c r="R122" s="111"/>
+      <c r="S122" s="111"/>
+      <c r="T122" s="111"/>
     </row>
     <row r="123" spans="1:20" ht="18" customHeight="1">
       <c r="A123" s="102" t="s">
@@ -10064,11 +10211,11 @@
         <f>IF(H123="I",N123*Contagem!$U$11,IF(H123="E",N123*Contagem!$U$13,IF(H123="A",N123*Contagem!$U$12,IF(H123="T",N123*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P123" s="100"/>
-      <c r="Q123" s="101"/>
-      <c r="R123" s="101"/>
-      <c r="S123" s="101"/>
-      <c r="T123" s="101"/>
+      <c r="P123" s="110"/>
+      <c r="Q123" s="111"/>
+      <c r="R123" s="111"/>
+      <c r="S123" s="111"/>
+      <c r="T123" s="111"/>
     </row>
     <row r="124" spans="1:20" ht="18" customHeight="1">
       <c r="A124" s="102" t="s">
@@ -10107,11 +10254,11 @@
         <f>IF(H124="I",N124*Contagem!$U$11,IF(H124="E",N124*Contagem!$U$13,IF(H124="A",N124*Contagem!$U$12,IF(H124="T",N124*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P124" s="100"/>
-      <c r="Q124" s="101"/>
-      <c r="R124" s="101"/>
-      <c r="S124" s="101"/>
-      <c r="T124" s="101"/>
+      <c r="P124" s="110"/>
+      <c r="Q124" s="111"/>
+      <c r="R124" s="111"/>
+      <c r="S124" s="111"/>
+      <c r="T124" s="111"/>
     </row>
     <row r="125" spans="1:20" ht="18" customHeight="1">
       <c r="A125" s="102"/>
@@ -10143,11 +10290,11 @@
         <v/>
       </c>
       <c r="O125" s="22"/>
-      <c r="P125" s="100"/>
-      <c r="Q125" s="101"/>
-      <c r="R125" s="101"/>
-      <c r="S125" s="101"/>
-      <c r="T125" s="101"/>
+      <c r="P125" s="110"/>
+      <c r="Q125" s="111"/>
+      <c r="R125" s="111"/>
+      <c r="S125" s="111"/>
+      <c r="T125" s="111"/>
     </row>
     <row r="126" spans="1:20" ht="18" customHeight="1">
       <c r="A126" s="102" t="s">
@@ -10186,11 +10333,11 @@
         <f>IF(H126="I",N126*Contagem!$U$11,IF(H126="E",N126*Contagem!$U$13,IF(H126="A",N126*Contagem!$U$12,IF(H126="T",N126*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P126" s="100"/>
-      <c r="Q126" s="101"/>
-      <c r="R126" s="101"/>
-      <c r="S126" s="101"/>
-      <c r="T126" s="101"/>
+      <c r="P126" s="110"/>
+      <c r="Q126" s="111"/>
+      <c r="R126" s="111"/>
+      <c r="S126" s="111"/>
+      <c r="T126" s="111"/>
     </row>
     <row r="127" spans="1:20" ht="18" customHeight="1">
       <c r="A127" s="102" t="s">
@@ -10229,11 +10376,11 @@
         <f>IF(H127="I",N127*Contagem!$U$11,IF(H127="E",N127*Contagem!$U$13,IF(H127="A",N127*Contagem!$U$12,IF(H127="T",N127*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P127" s="100"/>
-      <c r="Q127" s="101"/>
-      <c r="R127" s="101"/>
-      <c r="S127" s="101"/>
-      <c r="T127" s="101"/>
+      <c r="P127" s="110"/>
+      <c r="Q127" s="111"/>
+      <c r="R127" s="111"/>
+      <c r="S127" s="111"/>
+      <c r="T127" s="111"/>
     </row>
     <row r="128" spans="1:20" ht="18" customHeight="1">
       <c r="A128" s="102" t="s">
@@ -10272,21 +10419,21 @@
         <f>IF(H128="I",N128*Contagem!$U$11,IF(H128="E",N128*Contagem!$U$13,IF(H128="A",N128*Contagem!$U$12,IF(H128="T",N128*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P128" s="100"/>
-      <c r="Q128" s="101"/>
-      <c r="R128" s="101"/>
-      <c r="S128" s="101"/>
-      <c r="T128" s="101"/>
+      <c r="P128" s="110"/>
+      <c r="Q128" s="111"/>
+      <c r="R128" s="111"/>
+      <c r="S128" s="111"/>
+      <c r="T128" s="111"/>
     </row>
     <row r="129" spans="1:20" ht="18" customHeight="1">
-      <c r="A129" s="105" t="s">
+      <c r="A129" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="84"/>
-      <c r="C129" s="84"/>
-      <c r="D129" s="84"/>
-      <c r="E129" s="84"/>
-      <c r="F129" s="106"/>
+      <c r="B129" s="83"/>
+      <c r="C129" s="83"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="122"/>
       <c r="G129" s="16" t="s">
         <v>39</v>
       </c>
@@ -10315,19 +10462,19 @@
         <f>IF(H129="I",N129*Contagem!$U$11,IF(H129="E",N129*Contagem!$U$13,IF(H129="A",N129*Contagem!$U$12,IF(H129="T",N129*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P129" s="100"/>
-      <c r="Q129" s="101"/>
-      <c r="R129" s="101"/>
-      <c r="S129" s="101"/>
-      <c r="T129" s="101"/>
+      <c r="P129" s="110"/>
+      <c r="Q129" s="111"/>
+      <c r="R129" s="111"/>
+      <c r="S129" s="111"/>
+      <c r="T129" s="111"/>
     </row>
     <row r="130" spans="1:20" ht="18" customHeight="1">
-      <c r="A130" s="105"/>
-      <c r="B130" s="84"/>
-      <c r="C130" s="84"/>
-      <c r="D130" s="84"/>
-      <c r="E130" s="84"/>
-      <c r="F130" s="106"/>
+      <c r="A130" s="121"/>
+      <c r="B130" s="83"/>
+      <c r="C130" s="83"/>
+      <c r="D130" s="83"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="122"/>
       <c r="G130" s="16"/>
       <c r="H130" s="17" t="s">
         <v>37</v>
@@ -10351,11 +10498,11 @@
         <v/>
       </c>
       <c r="O130" s="22"/>
-      <c r="P130" s="100"/>
-      <c r="Q130" s="101"/>
-      <c r="R130" s="101"/>
-      <c r="S130" s="101"/>
-      <c r="T130" s="101"/>
+      <c r="P130" s="110"/>
+      <c r="Q130" s="111"/>
+      <c r="R130" s="111"/>
+      <c r="S130" s="111"/>
+      <c r="T130" s="111"/>
     </row>
     <row r="131" spans="1:20" ht="18" customHeight="1">
       <c r="A131" s="30" t="s">
@@ -10389,11 +10536,11 @@
         <v/>
       </c>
       <c r="O131" s="22"/>
-      <c r="P131" s="100"/>
-      <c r="Q131" s="101"/>
-      <c r="R131" s="101"/>
-      <c r="S131" s="101"/>
-      <c r="T131" s="101"/>
+      <c r="P131" s="110"/>
+      <c r="Q131" s="111"/>
+      <c r="R131" s="111"/>
+      <c r="S131" s="111"/>
+      <c r="T131" s="111"/>
     </row>
     <row r="132" spans="1:20" ht="18" customHeight="1">
       <c r="A132" s="34" t="s">
@@ -10432,11 +10579,11 @@
         <f>IF(H132="I",N132*Contagem!$U$11,IF(H132="E",N132*Contagem!$U$13,IF(H132="A",N132*Contagem!$U$12,IF(H132="T",N132*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P132" s="100"/>
-      <c r="Q132" s="101"/>
-      <c r="R132" s="101"/>
-      <c r="S132" s="101"/>
-      <c r="T132" s="101"/>
+      <c r="P132" s="110"/>
+      <c r="Q132" s="111"/>
+      <c r="R132" s="111"/>
+      <c r="S132" s="111"/>
+      <c r="T132" s="111"/>
     </row>
     <row r="133" spans="1:20" ht="18" customHeight="1">
       <c r="A133" s="34" t="s">
@@ -10475,11 +10622,11 @@
         <f>IF(H133="I",N133*Contagem!$U$11,IF(H133="E",N133*Contagem!$U$13,IF(H133="A",N133*Contagem!$U$12,IF(H133="T",N133*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P133" s="100"/>
-      <c r="Q133" s="101"/>
-      <c r="R133" s="101"/>
-      <c r="S133" s="101"/>
-      <c r="T133" s="101"/>
+      <c r="P133" s="110"/>
+      <c r="Q133" s="111"/>
+      <c r="R133" s="111"/>
+      <c r="S133" s="111"/>
+      <c r="T133" s="111"/>
     </row>
     <row r="134" spans="1:20" ht="18" customHeight="1">
       <c r="A134" s="34" t="s">
@@ -10518,11 +10665,11 @@
         <f>IF(H134="I",N134*Contagem!$U$11,IF(H134="E",N134*Contagem!$U$13,IF(H134="A",N134*Contagem!$U$12,IF(H134="T",N134*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P134" s="100"/>
-      <c r="Q134" s="101"/>
-      <c r="R134" s="101"/>
-      <c r="S134" s="101"/>
-      <c r="T134" s="101"/>
+      <c r="P134" s="110"/>
+      <c r="Q134" s="111"/>
+      <c r="R134" s="111"/>
+      <c r="S134" s="111"/>
+      <c r="T134" s="111"/>
     </row>
     <row r="135" spans="1:20" ht="18" customHeight="1">
       <c r="A135" s="34" t="s">
@@ -10561,11 +10708,11 @@
         <f>IF(H135="I",N135*Contagem!$U$11,IF(H135="E",N135*Contagem!$U$13,IF(H135="A",N135*Contagem!$U$12,IF(H135="T",N135*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P135" s="100"/>
-      <c r="Q135" s="101"/>
-      <c r="R135" s="101"/>
-      <c r="S135" s="101"/>
-      <c r="T135" s="101"/>
+      <c r="P135" s="110"/>
+      <c r="Q135" s="111"/>
+      <c r="R135" s="111"/>
+      <c r="S135" s="111"/>
+      <c r="T135" s="111"/>
     </row>
     <row r="136" spans="1:20" ht="18" customHeight="1">
       <c r="A136" s="34" t="s">
@@ -10604,11 +10751,11 @@
         <f>IF(H136="I",N136*Contagem!$U$11,IF(H136="E",N136*Contagem!$U$13,IF(H136="A",N136*Contagem!$U$12,IF(H136="T",N136*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P136" s="100"/>
-      <c r="Q136" s="101"/>
-      <c r="R136" s="101"/>
-      <c r="S136" s="101"/>
-      <c r="T136" s="101"/>
+      <c r="P136" s="110"/>
+      <c r="Q136" s="111"/>
+      <c r="R136" s="111"/>
+      <c r="S136" s="111"/>
+      <c r="T136" s="111"/>
     </row>
     <row r="137" spans="1:20" ht="18" customHeight="1">
       <c r="A137" s="34" t="s">
@@ -10647,11 +10794,11 @@
         <f>IF(H137="I",N137*Contagem!$U$11,IF(H137="E",N137*Contagem!$U$13,IF(H137="A",N137*Contagem!$U$12,IF(H137="T",N137*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P137" s="100"/>
-      <c r="Q137" s="101"/>
-      <c r="R137" s="101"/>
-      <c r="S137" s="101"/>
-      <c r="T137" s="101"/>
+      <c r="P137" s="110"/>
+      <c r="Q137" s="111"/>
+      <c r="R137" s="111"/>
+      <c r="S137" s="111"/>
+      <c r="T137" s="111"/>
     </row>
     <row r="138" spans="1:20" ht="18" customHeight="1">
       <c r="A138" s="34" t="s">
@@ -10690,19 +10837,19 @@
         <f>IF(H138="I",N138*Contagem!$U$11,IF(H138="E",N138*Contagem!$U$13,IF(H138="A",N138*Contagem!$U$12,IF(H138="T",N138*Contagem!$U$14,""))))</f>
         <v>5</v>
       </c>
-      <c r="P138" s="100"/>
-      <c r="Q138" s="101"/>
-      <c r="R138" s="101"/>
-      <c r="S138" s="101"/>
-      <c r="T138" s="101"/>
+      <c r="P138" s="110"/>
+      <c r="Q138" s="111"/>
+      <c r="R138" s="111"/>
+      <c r="S138" s="111"/>
+      <c r="T138" s="111"/>
     </row>
     <row r="139" spans="1:20" ht="18" customHeight="1">
-      <c r="A139" s="105"/>
-      <c r="B139" s="84"/>
-      <c r="C139" s="84"/>
-      <c r="D139" s="84"/>
-      <c r="E139" s="84"/>
-      <c r="F139" s="106"/>
+      <c r="A139" s="121"/>
+      <c r="B139" s="83"/>
+      <c r="C139" s="83"/>
+      <c r="D139" s="83"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="122"/>
       <c r="G139" s="16"/>
       <c r="H139" s="17" t="s">
         <v>37</v>
@@ -10726,21 +10873,21 @@
         <v/>
       </c>
       <c r="O139" s="22"/>
-      <c r="P139" s="100"/>
-      <c r="Q139" s="101"/>
-      <c r="R139" s="101"/>
-      <c r="S139" s="101"/>
-      <c r="T139" s="101"/>
+      <c r="P139" s="110"/>
+      <c r="Q139" s="111"/>
+      <c r="R139" s="111"/>
+      <c r="S139" s="111"/>
+      <c r="T139" s="111"/>
     </row>
     <row r="140" spans="1:20" ht="18" customHeight="1">
-      <c r="A140" s="105" t="s">
+      <c r="A140" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="B140" s="84"/>
-      <c r="C140" s="84"/>
-      <c r="D140" s="84"/>
-      <c r="E140" s="84"/>
-      <c r="F140" s="106"/>
+      <c r="B140" s="83"/>
+      <c r="C140" s="83"/>
+      <c r="D140" s="83"/>
+      <c r="E140" s="83"/>
+      <c r="F140" s="122"/>
       <c r="G140" s="16"/>
       <c r="H140" s="17" t="s">
         <v>37</v>
@@ -10764,21 +10911,21 @@
         <v/>
       </c>
       <c r="O140" s="22"/>
-      <c r="P140" s="100"/>
-      <c r="Q140" s="101"/>
-      <c r="R140" s="101"/>
-      <c r="S140" s="101"/>
-      <c r="T140" s="101"/>
+      <c r="P140" s="110"/>
+      <c r="Q140" s="111"/>
+      <c r="R140" s="111"/>
+      <c r="S140" s="111"/>
+      <c r="T140" s="111"/>
     </row>
     <row r="141" spans="1:20" ht="18" customHeight="1">
-      <c r="A141" s="105" t="s">
+      <c r="A141" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="84"/>
-      <c r="C141" s="84"/>
-      <c r="D141" s="84"/>
-      <c r="E141" s="84"/>
-      <c r="F141" s="106"/>
+      <c r="B141" s="83"/>
+      <c r="C141" s="83"/>
+      <c r="D141" s="83"/>
+      <c r="E141" s="83"/>
+      <c r="F141" s="122"/>
       <c r="G141" s="16" t="s">
         <v>36</v>
       </c>
@@ -10807,21 +10954,21 @@
         <f>IF(H141="I",N141*Contagem!$U$11,IF(H141="E",N141*Contagem!$U$13,IF(H141="A",N141*Contagem!$U$12,IF(H141="T",N141*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P141" s="100"/>
-      <c r="Q141" s="101"/>
-      <c r="R141" s="101"/>
-      <c r="S141" s="101"/>
-      <c r="T141" s="101"/>
+      <c r="P141" s="110"/>
+      <c r="Q141" s="111"/>
+      <c r="R141" s="111"/>
+      <c r="S141" s="111"/>
+      <c r="T141" s="111"/>
     </row>
     <row r="142" spans="1:20" ht="18" customHeight="1">
-      <c r="A142" s="105" t="s">
+      <c r="A142" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="B142" s="84"/>
-      <c r="C142" s="84"/>
-      <c r="D142" s="84"/>
-      <c r="E142" s="84"/>
-      <c r="F142" s="106"/>
+      <c r="B142" s="83"/>
+      <c r="C142" s="83"/>
+      <c r="D142" s="83"/>
+      <c r="E142" s="83"/>
+      <c r="F142" s="122"/>
       <c r="G142" s="16" t="s">
         <v>39</v>
       </c>
@@ -10850,19 +10997,19 @@
         <f>IF(H142="I",N142*Contagem!$U$11,IF(H142="E",N142*Contagem!$U$13,IF(H142="A",N142*Contagem!$U$12,IF(H142="T",N142*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P142" s="100"/>
-      <c r="Q142" s="101"/>
-      <c r="R142" s="101"/>
-      <c r="S142" s="101"/>
-      <c r="T142" s="101"/>
+      <c r="P142" s="110"/>
+      <c r="Q142" s="111"/>
+      <c r="R142" s="111"/>
+      <c r="S142" s="111"/>
+      <c r="T142" s="111"/>
     </row>
     <row r="143" spans="1:20" ht="18" customHeight="1">
-      <c r="A143" s="105"/>
-      <c r="B143" s="84"/>
-      <c r="C143" s="84"/>
-      <c r="D143" s="84"/>
-      <c r="E143" s="84"/>
-      <c r="F143" s="106"/>
+      <c r="A143" s="121"/>
+      <c r="B143" s="83"/>
+      <c r="C143" s="83"/>
+      <c r="D143" s="83"/>
+      <c r="E143" s="83"/>
+      <c r="F143" s="122"/>
       <c r="G143" s="16"/>
       <c r="H143" s="17" t="s">
         <v>37</v>
@@ -10886,11 +11033,11 @@
         <v/>
       </c>
       <c r="O143" s="22"/>
-      <c r="P143" s="100"/>
-      <c r="Q143" s="101"/>
-      <c r="R143" s="101"/>
-      <c r="S143" s="101"/>
-      <c r="T143" s="101"/>
+      <c r="P143" s="110"/>
+      <c r="Q143" s="111"/>
+      <c r="R143" s="111"/>
+      <c r="S143" s="111"/>
+      <c r="T143" s="111"/>
     </row>
     <row r="144" spans="1:20" ht="18" customHeight="1">
       <c r="A144" s="102" t="s">
@@ -10924,11 +11071,11 @@
         <v/>
       </c>
       <c r="O144" s="22"/>
-      <c r="P144" s="100"/>
-      <c r="Q144" s="101"/>
-      <c r="R144" s="101"/>
-      <c r="S144" s="101"/>
-      <c r="T144" s="101"/>
+      <c r="P144" s="110"/>
+      <c r="Q144" s="111"/>
+      <c r="R144" s="111"/>
+      <c r="S144" s="111"/>
+      <c r="T144" s="111"/>
     </row>
     <row r="145" spans="1:20" ht="18" customHeight="1">
       <c r="A145" s="102" t="s">
@@ -10967,11 +11114,11 @@
         <f>IF(H145="I",N145*Contagem!$U$11,IF(H145="E",N145*Contagem!$U$13,IF(H145="A",N145*Contagem!$U$12,IF(H145="T",N145*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P145" s="100"/>
-      <c r="Q145" s="101"/>
-      <c r="R145" s="101"/>
-      <c r="S145" s="101"/>
-      <c r="T145" s="101"/>
+      <c r="P145" s="110"/>
+      <c r="Q145" s="111"/>
+      <c r="R145" s="111"/>
+      <c r="S145" s="111"/>
+      <c r="T145" s="111"/>
     </row>
     <row r="146" spans="1:20" ht="18" customHeight="1">
       <c r="A146" s="102" t="s">
@@ -11010,11 +11157,11 @@
         <f>IF(H146="I",N146*Contagem!$U$11,IF(H146="E",N146*Contagem!$U$13,IF(H146="A",N146*Contagem!$U$12,IF(H146="T",N146*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P146" s="100"/>
-      <c r="Q146" s="101"/>
-      <c r="R146" s="101"/>
-      <c r="S146" s="101"/>
-      <c r="T146" s="101"/>
+      <c r="P146" s="110"/>
+      <c r="Q146" s="111"/>
+      <c r="R146" s="111"/>
+      <c r="S146" s="111"/>
+      <c r="T146" s="111"/>
     </row>
     <row r="147" spans="1:20" ht="18" customHeight="1">
       <c r="A147" s="102" t="s">
@@ -11053,11 +11200,11 @@
         <f>IF(H147="I",N147*Contagem!$U$11,IF(H147="E",N147*Contagem!$U$13,IF(H147="A",N147*Contagem!$U$12,IF(H147="T",N147*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P147" s="100"/>
-      <c r="Q147" s="101"/>
-      <c r="R147" s="101"/>
-      <c r="S147" s="101"/>
-      <c r="T147" s="101"/>
+      <c r="P147" s="110"/>
+      <c r="Q147" s="111"/>
+      <c r="R147" s="111"/>
+      <c r="S147" s="111"/>
+      <c r="T147" s="111"/>
     </row>
     <row r="148" spans="1:20" ht="18" customHeight="1">
       <c r="A148" s="102" t="s">
@@ -11096,11 +11243,11 @@
         <f>IF(H148="I",N148*Contagem!$U$11,IF(H148="E",N148*Contagem!$U$13,IF(H148="A",N148*Contagem!$U$12,IF(H148="T",N148*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P148" s="100"/>
-      <c r="Q148" s="101"/>
-      <c r="R148" s="101"/>
-      <c r="S148" s="101"/>
-      <c r="T148" s="101"/>
+      <c r="P148" s="110"/>
+      <c r="Q148" s="111"/>
+      <c r="R148" s="111"/>
+      <c r="S148" s="111"/>
+      <c r="T148" s="111"/>
     </row>
     <row r="149" spans="1:20" ht="18" customHeight="1">
       <c r="A149" s="102" t="s">
@@ -11139,11 +11286,11 @@
         <f>IF(H149="I",N149*Contagem!$U$11,IF(H149="E",N149*Contagem!$U$13,IF(H149="A",N149*Contagem!$U$12,IF(H149="T",N149*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P149" s="100"/>
-      <c r="Q149" s="101"/>
-      <c r="R149" s="101"/>
-      <c r="S149" s="101"/>
-      <c r="T149" s="101"/>
+      <c r="P149" s="110"/>
+      <c r="Q149" s="111"/>
+      <c r="R149" s="111"/>
+      <c r="S149" s="111"/>
+      <c r="T149" s="111"/>
     </row>
     <row r="150" spans="1:20" ht="18" customHeight="1">
       <c r="A150" s="102" t="s">
@@ -11182,19 +11329,19 @@
         <f>IF(H150="I",N150*Contagem!$U$11,IF(H150="E",N150*Contagem!$U$13,IF(H150="A",N150*Contagem!$U$12,IF(H150="T",N150*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P150" s="100"/>
-      <c r="Q150" s="101"/>
-      <c r="R150" s="101"/>
-      <c r="S150" s="101"/>
-      <c r="T150" s="101"/>
+      <c r="P150" s="110"/>
+      <c r="Q150" s="111"/>
+      <c r="R150" s="111"/>
+      <c r="S150" s="111"/>
+      <c r="T150" s="111"/>
     </row>
     <row r="151" spans="1:20" ht="18" customHeight="1">
-      <c r="A151" s="105"/>
-      <c r="B151" s="84"/>
-      <c r="C151" s="84"/>
-      <c r="D151" s="84"/>
-      <c r="E151" s="84"/>
-      <c r="F151" s="106"/>
+      <c r="A151" s="121"/>
+      <c r="B151" s="83"/>
+      <c r="C151" s="83"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="122"/>
       <c r="G151" s="16"/>
       <c r="H151" s="17" t="s">
         <v>37</v>
@@ -11218,11 +11365,11 @@
         <v/>
       </c>
       <c r="O151" s="22"/>
-      <c r="P151" s="100"/>
-      <c r="Q151" s="101"/>
-      <c r="R151" s="101"/>
-      <c r="S151" s="101"/>
-      <c r="T151" s="101"/>
+      <c r="P151" s="110"/>
+      <c r="Q151" s="111"/>
+      <c r="R151" s="111"/>
+      <c r="S151" s="111"/>
+      <c r="T151" s="111"/>
     </row>
     <row r="152" spans="1:20" ht="18" customHeight="1">
       <c r="A152" s="102" t="s">
@@ -11256,11 +11403,11 @@
         <v/>
       </c>
       <c r="O152" s="22"/>
-      <c r="P152" s="100"/>
-      <c r="Q152" s="101"/>
-      <c r="R152" s="101"/>
-      <c r="S152" s="101"/>
-      <c r="T152" s="101"/>
+      <c r="P152" s="110"/>
+      <c r="Q152" s="111"/>
+      <c r="R152" s="111"/>
+      <c r="S152" s="111"/>
+      <c r="T152" s="111"/>
     </row>
     <row r="153" spans="1:20" ht="18" customHeight="1">
       <c r="A153" s="102" t="s">
@@ -11299,11 +11446,11 @@
         <f>IF(H153="I",N153*Contagem!$U$11,IF(H153="E",N153*Contagem!$U$13,IF(H153="A",N153*Contagem!$U$12,IF(H153="T",N153*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P153" s="100"/>
-      <c r="Q153" s="101"/>
-      <c r="R153" s="101"/>
-      <c r="S153" s="101"/>
-      <c r="T153" s="101"/>
+      <c r="P153" s="110"/>
+      <c r="Q153" s="111"/>
+      <c r="R153" s="111"/>
+      <c r="S153" s="111"/>
+      <c r="T153" s="111"/>
     </row>
     <row r="154" spans="1:20" ht="18" customHeight="1">
       <c r="A154" s="102" t="s">
@@ -11342,11 +11489,11 @@
         <f>IF(H154="I",N154*Contagem!$U$11,IF(H154="E",N154*Contagem!$U$13,IF(H154="A",N154*Contagem!$U$12,IF(H154="T",N154*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P154" s="100"/>
-      <c r="Q154" s="101"/>
-      <c r="R154" s="101"/>
-      <c r="S154" s="101"/>
-      <c r="T154" s="101"/>
+      <c r="P154" s="110"/>
+      <c r="Q154" s="111"/>
+      <c r="R154" s="111"/>
+      <c r="S154" s="111"/>
+      <c r="T154" s="111"/>
     </row>
     <row r="155" spans="1:20" ht="18" customHeight="1">
       <c r="A155" s="102" t="s">
@@ -11385,11 +11532,11 @@
         <f>IF(H155="I",N155*Contagem!$U$11,IF(H155="E",N155*Contagem!$U$13,IF(H155="A",N155*Contagem!$U$12,IF(H155="T",N155*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P155" s="100"/>
-      <c r="Q155" s="101"/>
-      <c r="R155" s="101"/>
-      <c r="S155" s="101"/>
-      <c r="T155" s="101"/>
+      <c r="P155" s="110"/>
+      <c r="Q155" s="111"/>
+      <c r="R155" s="111"/>
+      <c r="S155" s="111"/>
+      <c r="T155" s="111"/>
     </row>
     <row r="156" spans="1:20" ht="18" customHeight="1">
       <c r="A156" s="102" t="s">
@@ -11428,11 +11575,11 @@
         <f>IF(H156="I",N156*Contagem!$U$11,IF(H156="E",N156*Contagem!$U$13,IF(H156="A",N156*Contagem!$U$12,IF(H156="T",N156*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P156" s="100"/>
-      <c r="Q156" s="101"/>
-      <c r="R156" s="101"/>
-      <c r="S156" s="101"/>
-      <c r="T156" s="101"/>
+      <c r="P156" s="110"/>
+      <c r="Q156" s="111"/>
+      <c r="R156" s="111"/>
+      <c r="S156" s="111"/>
+      <c r="T156" s="111"/>
     </row>
     <row r="157" spans="1:20" ht="18" customHeight="1">
       <c r="A157" s="102" t="s">
@@ -11471,11 +11618,11 @@
         <f>IF(H157="I",N157*Contagem!$U$11,IF(H157="E",N157*Contagem!$U$13,IF(H157="A",N157*Contagem!$U$12,IF(H157="T",N157*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P157" s="100"/>
-      <c r="Q157" s="101"/>
-      <c r="R157" s="101"/>
-      <c r="S157" s="101"/>
-      <c r="T157" s="101"/>
+      <c r="P157" s="110"/>
+      <c r="Q157" s="111"/>
+      <c r="R157" s="111"/>
+      <c r="S157" s="111"/>
+      <c r="T157" s="111"/>
     </row>
     <row r="158" spans="1:20" ht="18" customHeight="1">
       <c r="A158" s="102" t="s">
@@ -11514,19 +11661,19 @@
         <f>IF(H158="I",N158*Contagem!$U$11,IF(H158="E",N158*Contagem!$U$13,IF(H158="A",N158*Contagem!$U$12,IF(H158="T",N158*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P158" s="100"/>
-      <c r="Q158" s="101"/>
-      <c r="R158" s="101"/>
-      <c r="S158" s="101"/>
-      <c r="T158" s="101"/>
+      <c r="P158" s="110"/>
+      <c r="Q158" s="111"/>
+      <c r="R158" s="111"/>
+      <c r="S158" s="111"/>
+      <c r="T158" s="111"/>
     </row>
     <row r="159" spans="1:20" ht="18" customHeight="1">
-      <c r="A159" s="107"/>
+      <c r="A159" s="126"/>
       <c r="B159" s="86"/>
       <c r="C159" s="86"/>
       <c r="D159" s="86"/>
       <c r="E159" s="86"/>
-      <c r="F159" s="108"/>
+      <c r="F159" s="127"/>
       <c r="G159" s="16"/>
       <c r="H159" s="17" t="s">
         <v>37</v>
@@ -11550,11 +11697,11 @@
         <v/>
       </c>
       <c r="O159" s="22"/>
-      <c r="P159" s="100"/>
-      <c r="Q159" s="101"/>
-      <c r="R159" s="101"/>
-      <c r="S159" s="101"/>
-      <c r="T159" s="101"/>
+      <c r="P159" s="110"/>
+      <c r="Q159" s="111"/>
+      <c r="R159" s="111"/>
+      <c r="S159" s="111"/>
+      <c r="T159" s="111"/>
     </row>
     <row r="160" spans="1:20" ht="18" customHeight="1">
       <c r="A160" s="102" t="s">
@@ -11588,11 +11735,11 @@
         <v/>
       </c>
       <c r="O160" s="22"/>
-      <c r="P160" s="100"/>
-      <c r="Q160" s="101"/>
-      <c r="R160" s="101"/>
-      <c r="S160" s="101"/>
-      <c r="T160" s="101"/>
+      <c r="P160" s="110"/>
+      <c r="Q160" s="111"/>
+      <c r="R160" s="111"/>
+      <c r="S160" s="111"/>
+      <c r="T160" s="111"/>
     </row>
     <row r="161" spans="1:20" ht="18" customHeight="1">
       <c r="A161" s="102" t="s">
@@ -11631,11 +11778,11 @@
         <f>IF(H161="I",N161*Contagem!$U$11,IF(H161="E",N161*Contagem!$U$13,IF(H161="A",N161*Contagem!$U$12,IF(H161="T",N161*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P161" s="100"/>
-      <c r="Q161" s="101"/>
-      <c r="R161" s="101"/>
-      <c r="S161" s="101"/>
-      <c r="T161" s="101"/>
+      <c r="P161" s="110"/>
+      <c r="Q161" s="111"/>
+      <c r="R161" s="111"/>
+      <c r="S161" s="111"/>
+      <c r="T161" s="111"/>
     </row>
     <row r="162" spans="1:20" ht="18" customHeight="1">
       <c r="A162" s="102" t="s">
@@ -11674,11 +11821,11 @@
         <f>IF(H162="I",N162*Contagem!$U$11,IF(H162="E",N162*Contagem!$U$13,IF(H162="A",N162*Contagem!$U$12,IF(H162="T",N162*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P162" s="100"/>
-      <c r="Q162" s="101"/>
-      <c r="R162" s="101"/>
-      <c r="S162" s="101"/>
-      <c r="T162" s="101"/>
+      <c r="P162" s="110"/>
+      <c r="Q162" s="111"/>
+      <c r="R162" s="111"/>
+      <c r="S162" s="111"/>
+      <c r="T162" s="111"/>
     </row>
     <row r="163" spans="1:20" ht="18" customHeight="1">
       <c r="A163" s="102" t="s">
@@ -11717,11 +11864,11 @@
         <f>IF(H163="I",N163*Contagem!$U$11,IF(H163="E",N163*Contagem!$U$13,IF(H163="A",N163*Contagem!$U$12,IF(H163="T",N163*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P163" s="100"/>
-      <c r="Q163" s="101"/>
-      <c r="R163" s="101"/>
-      <c r="S163" s="101"/>
-      <c r="T163" s="101"/>
+      <c r="P163" s="110"/>
+      <c r="Q163" s="111"/>
+      <c r="R163" s="111"/>
+      <c r="S163" s="111"/>
+      <c r="T163" s="111"/>
     </row>
     <row r="164" spans="1:20" ht="18" customHeight="1">
       <c r="A164" s="102" t="s">
@@ -11760,11 +11907,11 @@
         <f>IF(H164="I",N164*Contagem!$U$11,IF(H164="E",N164*Contagem!$U$13,IF(H164="A",N164*Contagem!$U$12,IF(H164="T",N164*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P164" s="100"/>
-      <c r="Q164" s="101"/>
-      <c r="R164" s="101"/>
-      <c r="S164" s="101"/>
-      <c r="T164" s="101"/>
+      <c r="P164" s="110"/>
+      <c r="Q164" s="111"/>
+      <c r="R164" s="111"/>
+      <c r="S164" s="111"/>
+      <c r="T164" s="111"/>
     </row>
     <row r="165" spans="1:20" ht="18" customHeight="1">
       <c r="A165" s="102" t="s">
@@ -11803,11 +11950,11 @@
         <f>IF(H165="I",N165*Contagem!$U$11,IF(H165="E",N165*Contagem!$U$13,IF(H165="A",N165*Contagem!$U$12,IF(H165="T",N165*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P165" s="100"/>
-      <c r="Q165" s="101"/>
-      <c r="R165" s="101"/>
-      <c r="S165" s="101"/>
-      <c r="T165" s="101"/>
+      <c r="P165" s="110"/>
+      <c r="Q165" s="111"/>
+      <c r="R165" s="111"/>
+      <c r="S165" s="111"/>
+      <c r="T165" s="111"/>
     </row>
     <row r="166" spans="1:20" ht="18" customHeight="1">
       <c r="A166" s="102" t="s">
@@ -11846,19 +11993,19 @@
         <f>IF(H166="I",N166*Contagem!$U$11,IF(H166="E",N166*Contagem!$U$13,IF(H166="A",N166*Contagem!$U$12,IF(H166="T",N166*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P166" s="100"/>
-      <c r="Q166" s="101"/>
-      <c r="R166" s="101"/>
-      <c r="S166" s="101"/>
-      <c r="T166" s="101"/>
+      <c r="P166" s="110"/>
+      <c r="Q166" s="111"/>
+      <c r="R166" s="111"/>
+      <c r="S166" s="111"/>
+      <c r="T166" s="111"/>
     </row>
     <row r="167" spans="1:20" ht="18" customHeight="1">
-      <c r="A167" s="107"/>
+      <c r="A167" s="126"/>
       <c r="B167" s="86"/>
       <c r="C167" s="86"/>
       <c r="D167" s="86"/>
       <c r="E167" s="86"/>
-      <c r="F167" s="108"/>
+      <c r="F167" s="127"/>
       <c r="G167" s="16"/>
       <c r="H167" s="17" t="s">
         <v>37</v>
@@ -11882,11 +12029,11 @@
         <v/>
       </c>
       <c r="O167" s="22"/>
-      <c r="P167" s="100"/>
-      <c r="Q167" s="101"/>
-      <c r="R167" s="101"/>
-      <c r="S167" s="101"/>
-      <c r="T167" s="101"/>
+      <c r="P167" s="110"/>
+      <c r="Q167" s="111"/>
+      <c r="R167" s="111"/>
+      <c r="S167" s="111"/>
+      <c r="T167" s="111"/>
     </row>
     <row r="168" spans="1:20" ht="18" customHeight="1">
       <c r="A168" s="102" t="s">
@@ -11920,11 +12067,11 @@
         <v/>
       </c>
       <c r="O168" s="22"/>
-      <c r="P168" s="100"/>
-      <c r="Q168" s="101"/>
-      <c r="R168" s="101"/>
-      <c r="S168" s="101"/>
-      <c r="T168" s="101"/>
+      <c r="P168" s="110"/>
+      <c r="Q168" s="111"/>
+      <c r="R168" s="111"/>
+      <c r="S168" s="111"/>
+      <c r="T168" s="111"/>
     </row>
     <row r="169" spans="1:20" ht="18" customHeight="1">
       <c r="A169" s="102" t="s">
@@ -11963,11 +12110,11 @@
         <f>IF(H169="I",N169*Contagem!$U$11,IF(H169="E",N169*Contagem!$U$13,IF(H169="A",N169*Contagem!$U$12,IF(H169="T",N169*Contagem!$U$14,""))))</f>
         <v>7</v>
       </c>
-      <c r="P169" s="100"/>
-      <c r="Q169" s="101"/>
-      <c r="R169" s="101"/>
-      <c r="S169" s="101"/>
-      <c r="T169" s="101"/>
+      <c r="P169" s="110"/>
+      <c r="Q169" s="111"/>
+      <c r="R169" s="111"/>
+      <c r="S169" s="111"/>
+      <c r="T169" s="111"/>
     </row>
     <row r="170" spans="1:20" ht="18" customHeight="1">
       <c r="A170" s="102" t="s">
@@ -12006,11 +12153,11 @@
         <f>IF(H170="I",N170*Contagem!$U$11,IF(H170="E",N170*Contagem!$U$13,IF(H170="A",N170*Contagem!$U$12,IF(H170="T",N170*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P170" s="100"/>
-      <c r="Q170" s="101"/>
-      <c r="R170" s="101"/>
-      <c r="S170" s="101"/>
-      <c r="T170" s="101"/>
+      <c r="P170" s="110"/>
+      <c r="Q170" s="111"/>
+      <c r="R170" s="111"/>
+      <c r="S170" s="111"/>
+      <c r="T170" s="111"/>
     </row>
     <row r="171" spans="1:20" ht="18" customHeight="1">
       <c r="A171" s="102" t="s">
@@ -12049,11 +12196,11 @@
         <f>IF(H171="I",N171*Contagem!$U$11,IF(H171="E",N171*Contagem!$U$13,IF(H171="A",N171*Contagem!$U$12,IF(H171="T",N171*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P171" s="100"/>
-      <c r="Q171" s="101"/>
-      <c r="R171" s="101"/>
-      <c r="S171" s="101"/>
-      <c r="T171" s="101"/>
+      <c r="P171" s="110"/>
+      <c r="Q171" s="111"/>
+      <c r="R171" s="111"/>
+      <c r="S171" s="111"/>
+      <c r="T171" s="111"/>
     </row>
     <row r="172" spans="1:20" ht="18" customHeight="1">
       <c r="A172" s="102" t="s">
@@ -12092,11 +12239,11 @@
         <f>IF(H172="I",N172*Contagem!$U$11,IF(H172="E",N172*Contagem!$U$13,IF(H172="A",N172*Contagem!$U$12,IF(H172="T",N172*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P172" s="100"/>
-      <c r="Q172" s="101"/>
-      <c r="R172" s="101"/>
-      <c r="S172" s="101"/>
-      <c r="T172" s="101"/>
+      <c r="P172" s="110"/>
+      <c r="Q172" s="111"/>
+      <c r="R172" s="111"/>
+      <c r="S172" s="111"/>
+      <c r="T172" s="111"/>
     </row>
     <row r="173" spans="1:20" ht="18" customHeight="1">
       <c r="A173" s="102" t="s">
@@ -12135,11 +12282,11 @@
         <f>IF(H173="I",N173*Contagem!$U$11,IF(H173="E",N173*Contagem!$U$13,IF(H173="A",N173*Contagem!$U$12,IF(H173="T",N173*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P173" s="100"/>
-      <c r="Q173" s="101"/>
-      <c r="R173" s="101"/>
-      <c r="S173" s="101"/>
-      <c r="T173" s="101"/>
+      <c r="P173" s="110"/>
+      <c r="Q173" s="111"/>
+      <c r="R173" s="111"/>
+      <c r="S173" s="111"/>
+      <c r="T173" s="111"/>
     </row>
     <row r="174" spans="1:20" ht="18" customHeight="1">
       <c r="A174" s="102" t="s">
@@ -12178,19 +12325,19 @@
         <f>IF(H174="I",N174*Contagem!$U$11,IF(H174="E",N174*Contagem!$U$13,IF(H174="A",N174*Contagem!$U$12,IF(H174="T",N174*Contagem!$U$14,""))))</f>
         <v>4</v>
       </c>
-      <c r="P174" s="100"/>
-      <c r="Q174" s="101"/>
-      <c r="R174" s="101"/>
-      <c r="S174" s="101"/>
-      <c r="T174" s="101"/>
+      <c r="P174" s="110"/>
+      <c r="Q174" s="111"/>
+      <c r="R174" s="111"/>
+      <c r="S174" s="111"/>
+      <c r="T174" s="111"/>
     </row>
     <row r="175" spans="1:20" ht="18" customHeight="1">
-      <c r="A175" s="109"/>
-      <c r="B175" s="110"/>
-      <c r="C175" s="110"/>
-      <c r="D175" s="110"/>
-      <c r="E175" s="110"/>
-      <c r="F175" s="111"/>
+      <c r="A175" s="107"/>
+      <c r="B175" s="108"/>
+      <c r="C175" s="108"/>
+      <c r="D175" s="108"/>
+      <c r="E175" s="108"/>
+      <c r="F175" s="109"/>
       <c r="G175" s="16"/>
       <c r="H175" s="17" t="s">
         <v>37</v>
@@ -12217,11 +12364,11 @@
         <f>IF(H175="I",N175*Contagem!$U$11,IF(H175="E",N175*Contagem!$U$13,IF(H175="A",N175*Contagem!$U$12,IF(H175="T",N175*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P175" s="100"/>
-      <c r="Q175" s="101"/>
-      <c r="R175" s="101"/>
-      <c r="S175" s="101"/>
-      <c r="T175" s="101"/>
+      <c r="P175" s="110"/>
+      <c r="Q175" s="111"/>
+      <c r="R175" s="111"/>
+      <c r="S175" s="111"/>
+      <c r="T175" s="111"/>
     </row>
     <row r="176" spans="1:20" ht="18" customHeight="1">
       <c r="A176" s="102"/>
@@ -12256,11 +12403,11 @@
         <f>IF(H176="I",N176*Contagem!$U$11,IF(H176="E",N176*Contagem!$U$13,IF(H176="A",N176*Contagem!$U$12,IF(H176="T",N176*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P176" s="100"/>
-      <c r="Q176" s="101"/>
-      <c r="R176" s="101"/>
-      <c r="S176" s="101"/>
-      <c r="T176" s="101"/>
+      <c r="P176" s="110"/>
+      <c r="Q176" s="111"/>
+      <c r="R176" s="111"/>
+      <c r="S176" s="111"/>
+      <c r="T176" s="111"/>
     </row>
     <row r="177" spans="1:20" ht="18" customHeight="1">
       <c r="A177" s="102"/>
@@ -12295,11 +12442,11 @@
         <f>IF(H177="I",N177*Contagem!$U$11,IF(H177="E",N177*Contagem!$U$13,IF(H177="A",N177*Contagem!$U$12,IF(H177="T",N177*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P177" s="100"/>
-      <c r="Q177" s="101"/>
-      <c r="R177" s="101"/>
-      <c r="S177" s="101"/>
-      <c r="T177" s="101"/>
+      <c r="P177" s="110"/>
+      <c r="Q177" s="111"/>
+      <c r="R177" s="111"/>
+      <c r="S177" s="111"/>
+      <c r="T177" s="111"/>
     </row>
     <row r="178" spans="1:20" ht="18" customHeight="1">
       <c r="A178" s="102"/>
@@ -12334,11 +12481,11 @@
         <f>IF(H178="I",N178*Contagem!$U$11,IF(H178="E",N178*Contagem!$U$13,IF(H178="A",N178*Contagem!$U$12,IF(H178="T",N178*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P178" s="100"/>
-      <c r="Q178" s="101"/>
-      <c r="R178" s="101"/>
-      <c r="S178" s="101"/>
-      <c r="T178" s="101"/>
+      <c r="P178" s="110"/>
+      <c r="Q178" s="111"/>
+      <c r="R178" s="111"/>
+      <c r="S178" s="111"/>
+      <c r="T178" s="111"/>
     </row>
     <row r="179" spans="1:20" ht="18" customHeight="1">
       <c r="A179" s="102"/>
@@ -12373,11 +12520,11 @@
         <f>IF(H179="I",N179*Contagem!$U$11,IF(H179="E",N179*Contagem!$U$13,IF(H179="A",N179*Contagem!$U$12,IF(H179="T",N179*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P179" s="100"/>
-      <c r="Q179" s="101"/>
-      <c r="R179" s="101"/>
-      <c r="S179" s="101"/>
-      <c r="T179" s="101"/>
+      <c r="P179" s="110"/>
+      <c r="Q179" s="111"/>
+      <c r="R179" s="111"/>
+      <c r="S179" s="111"/>
+      <c r="T179" s="111"/>
     </row>
     <row r="180" spans="1:20" ht="18" customHeight="1">
       <c r="A180" s="102"/>
@@ -12412,11 +12559,11 @@
         <f>IF(H180="I",N180*Contagem!$U$11,IF(H180="E",N180*Contagem!$U$13,IF(H180="A",N180*Contagem!$U$12,IF(H180="T",N180*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P180" s="100"/>
-      <c r="Q180" s="101"/>
-      <c r="R180" s="101"/>
-      <c r="S180" s="101"/>
-      <c r="T180" s="101"/>
+      <c r="P180" s="110"/>
+      <c r="Q180" s="111"/>
+      <c r="R180" s="111"/>
+      <c r="S180" s="111"/>
+      <c r="T180" s="111"/>
     </row>
     <row r="181" spans="1:20" ht="18" customHeight="1">
       <c r="A181" s="102"/>
@@ -12451,11 +12598,11 @@
         <f>IF(H181="I",N181*Contagem!$U$11,IF(H181="E",N181*Contagem!$U$13,IF(H181="A",N181*Contagem!$U$12,IF(H181="T",N181*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P181" s="100"/>
-      <c r="Q181" s="101"/>
-      <c r="R181" s="101"/>
-      <c r="S181" s="101"/>
-      <c r="T181" s="101"/>
+      <c r="P181" s="110"/>
+      <c r="Q181" s="111"/>
+      <c r="R181" s="111"/>
+      <c r="S181" s="111"/>
+      <c r="T181" s="111"/>
     </row>
     <row r="182" spans="1:20" ht="18" customHeight="1">
       <c r="A182" s="102"/>
@@ -12490,11 +12637,11 @@
         <f>IF(H182="I",N182*Contagem!$U$11,IF(H182="E",N182*Contagem!$U$13,IF(H182="A",N182*Contagem!$U$12,IF(H182="T",N182*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P182" s="100"/>
-      <c r="Q182" s="101"/>
-      <c r="R182" s="101"/>
-      <c r="S182" s="101"/>
-      <c r="T182" s="101"/>
+      <c r="P182" s="110"/>
+      <c r="Q182" s="111"/>
+      <c r="R182" s="111"/>
+      <c r="S182" s="111"/>
+      <c r="T182" s="111"/>
     </row>
     <row r="183" spans="1:20" ht="18" customHeight="1">
       <c r="A183" s="102"/>
@@ -12529,11 +12676,11 @@
         <f>IF(H183="I",N183*Contagem!$U$11,IF(H183="E",N183*Contagem!$U$13,IF(H183="A",N183*Contagem!$U$12,IF(H183="T",N183*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P183" s="100"/>
-      <c r="Q183" s="101"/>
-      <c r="R183" s="101"/>
-      <c r="S183" s="101"/>
-      <c r="T183" s="101"/>
+      <c r="P183" s="110"/>
+      <c r="Q183" s="111"/>
+      <c r="R183" s="111"/>
+      <c r="S183" s="111"/>
+      <c r="T183" s="111"/>
     </row>
     <row r="184" spans="1:20" ht="18" customHeight="1">
       <c r="A184" s="102"/>
@@ -12568,11 +12715,11 @@
         <f>IF(H184="I",N184*Contagem!$U$11,IF(H184="E",N184*Contagem!$U$13,IF(H184="A",N184*Contagem!$U$12,IF(H184="T",N184*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P184" s="100"/>
-      <c r="Q184" s="101"/>
-      <c r="R184" s="101"/>
-      <c r="S184" s="101"/>
-      <c r="T184" s="101"/>
+      <c r="P184" s="110"/>
+      <c r="Q184" s="111"/>
+      <c r="R184" s="111"/>
+      <c r="S184" s="111"/>
+      <c r="T184" s="111"/>
     </row>
     <row r="185" spans="1:20" ht="18" customHeight="1">
       <c r="A185" s="102"/>
@@ -12607,11 +12754,11 @@
         <f>IF(H185="I",N185*Contagem!$U$11,IF(H185="E",N185*Contagem!$U$13,IF(H185="A",N185*Contagem!$U$12,IF(H185="T",N185*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P185" s="100"/>
-      <c r="Q185" s="101"/>
-      <c r="R185" s="101"/>
-      <c r="S185" s="101"/>
-      <c r="T185" s="101"/>
+      <c r="P185" s="110"/>
+      <c r="Q185" s="111"/>
+      <c r="R185" s="111"/>
+      <c r="S185" s="111"/>
+      <c r="T185" s="111"/>
     </row>
     <row r="186" spans="1:20" ht="18" customHeight="1">
       <c r="A186" s="102"/>
@@ -12646,11 +12793,11 @@
         <f>IF(H186="I",N186*Contagem!$U$11,IF(H186="E",N186*Contagem!$U$13,IF(H186="A",N186*Contagem!$U$12,IF(H186="T",N186*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P186" s="100"/>
-      <c r="Q186" s="101"/>
-      <c r="R186" s="101"/>
-      <c r="S186" s="101"/>
-      <c r="T186" s="101"/>
+      <c r="P186" s="110"/>
+      <c r="Q186" s="111"/>
+      <c r="R186" s="111"/>
+      <c r="S186" s="111"/>
+      <c r="T186" s="111"/>
     </row>
     <row r="187" spans="1:20" ht="18" customHeight="1">
       <c r="A187" s="102"/>
@@ -12685,11 +12832,11 @@
         <f>IF(H187="I",N187*Contagem!$U$11,IF(H187="E",N187*Contagem!$U$13,IF(H187="A",N187*Contagem!$U$12,IF(H187="T",N187*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P187" s="100"/>
-      <c r="Q187" s="101"/>
-      <c r="R187" s="101"/>
-      <c r="S187" s="101"/>
-      <c r="T187" s="101"/>
+      <c r="P187" s="110"/>
+      <c r="Q187" s="111"/>
+      <c r="R187" s="111"/>
+      <c r="S187" s="111"/>
+      <c r="T187" s="111"/>
     </row>
     <row r="188" spans="1:20" ht="18" customHeight="1">
       <c r="A188" s="102"/>
@@ -12724,11 +12871,11 @@
         <f>IF(H188="I",N188*Contagem!$U$11,IF(H188="E",N188*Contagem!$U$13,IF(H188="A",N188*Contagem!$U$12,IF(H188="T",N188*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P188" s="100"/>
-      <c r="Q188" s="101"/>
-      <c r="R188" s="101"/>
-      <c r="S188" s="101"/>
-      <c r="T188" s="101"/>
+      <c r="P188" s="110"/>
+      <c r="Q188" s="111"/>
+      <c r="R188" s="111"/>
+      <c r="S188" s="111"/>
+      <c r="T188" s="111"/>
     </row>
     <row r="189" spans="1:20" ht="18" customHeight="1">
       <c r="A189" s="102"/>
@@ -12763,11 +12910,11 @@
         <f>IF(H189="I",N189*Contagem!$U$11,IF(H189="E",N189*Contagem!$U$13,IF(H189="A",N189*Contagem!$U$12,IF(H189="T",N189*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P189" s="100"/>
-      <c r="Q189" s="101"/>
-      <c r="R189" s="101"/>
-      <c r="S189" s="101"/>
-      <c r="T189" s="101"/>
+      <c r="P189" s="110"/>
+      <c r="Q189" s="111"/>
+      <c r="R189" s="111"/>
+      <c r="S189" s="111"/>
+      <c r="T189" s="111"/>
     </row>
     <row r="190" spans="1:20" ht="18" customHeight="1">
       <c r="A190" s="102"/>
@@ -12802,11 +12949,11 @@
         <f>IF(H190="I",N190*Contagem!$U$11,IF(H190="E",N190*Contagem!$U$13,IF(H190="A",N190*Contagem!$U$12,IF(H190="T",N190*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P190" s="100"/>
-      <c r="Q190" s="101"/>
-      <c r="R190" s="101"/>
-      <c r="S190" s="101"/>
-      <c r="T190" s="101"/>
+      <c r="P190" s="110"/>
+      <c r="Q190" s="111"/>
+      <c r="R190" s="111"/>
+      <c r="S190" s="111"/>
+      <c r="T190" s="111"/>
     </row>
     <row r="191" spans="1:20" ht="18" customHeight="1">
       <c r="A191" s="102"/>
@@ -12841,11 +12988,11 @@
         <f>IF(H191="I",N191*Contagem!$U$11,IF(H191="E",N191*Contagem!$U$13,IF(H191="A",N191*Contagem!$U$12,IF(H191="T",N191*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P191" s="100"/>
-      <c r="Q191" s="101"/>
-      <c r="R191" s="101"/>
-      <c r="S191" s="101"/>
-      <c r="T191" s="101"/>
+      <c r="P191" s="110"/>
+      <c r="Q191" s="111"/>
+      <c r="R191" s="111"/>
+      <c r="S191" s="111"/>
+      <c r="T191" s="111"/>
     </row>
     <row r="192" spans="1:20" ht="18" customHeight="1">
       <c r="A192" s="102"/>
@@ -12880,11 +13027,11 @@
         <f>IF(H192="I",N192*Contagem!$U$11,IF(H192="E",N192*Contagem!$U$13,IF(H192="A",N192*Contagem!$U$12,IF(H192="T",N192*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P192" s="100"/>
-      <c r="Q192" s="101"/>
-      <c r="R192" s="101"/>
-      <c r="S192" s="101"/>
-      <c r="T192" s="101"/>
+      <c r="P192" s="110"/>
+      <c r="Q192" s="111"/>
+      <c r="R192" s="111"/>
+      <c r="S192" s="111"/>
+      <c r="T192" s="111"/>
     </row>
     <row r="193" spans="1:20" ht="18" customHeight="1">
       <c r="A193" s="102"/>
@@ -12919,11 +13066,11 @@
         <f>IF(H193="I",N193*Contagem!$U$11,IF(H193="E",N193*Contagem!$U$13,IF(H193="A",N193*Contagem!$U$12,IF(H193="T",N193*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P193" s="100"/>
-      <c r="Q193" s="101"/>
-      <c r="R193" s="101"/>
-      <c r="S193" s="101"/>
-      <c r="T193" s="101"/>
+      <c r="P193" s="110"/>
+      <c r="Q193" s="111"/>
+      <c r="R193" s="111"/>
+      <c r="S193" s="111"/>
+      <c r="T193" s="111"/>
     </row>
     <row r="194" spans="1:20" ht="18" customHeight="1">
       <c r="A194" s="102"/>
@@ -12958,11 +13105,11 @@
         <f>IF(H194="I",N194*Contagem!$U$11,IF(H194="E",N194*Contagem!$U$13,IF(H194="A",N194*Contagem!$U$12,IF(H194="T",N194*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P194" s="100"/>
-      <c r="Q194" s="101"/>
-      <c r="R194" s="101"/>
-      <c r="S194" s="101"/>
-      <c r="T194" s="101"/>
+      <c r="P194" s="110"/>
+      <c r="Q194" s="111"/>
+      <c r="R194" s="111"/>
+      <c r="S194" s="111"/>
+      <c r="T194" s="111"/>
     </row>
     <row r="195" spans="1:20" ht="18" customHeight="1">
       <c r="A195" s="102"/>
@@ -12997,11 +13144,11 @@
         <f>IF(H195="I",N195*Contagem!$U$11,IF(H195="E",N195*Contagem!$U$13,IF(H195="A",N195*Contagem!$U$12,IF(H195="T",N195*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P195" s="100"/>
-      <c r="Q195" s="101"/>
-      <c r="R195" s="101"/>
-      <c r="S195" s="101"/>
-      <c r="T195" s="101"/>
+      <c r="P195" s="110"/>
+      <c r="Q195" s="111"/>
+      <c r="R195" s="111"/>
+      <c r="S195" s="111"/>
+      <c r="T195" s="111"/>
     </row>
     <row r="196" spans="1:20" ht="18" customHeight="1">
       <c r="A196" s="102"/>
@@ -13036,11 +13183,11 @@
         <f>IF(H196="I",N196*Contagem!$U$11,IF(H196="E",N196*Contagem!$U$13,IF(H196="A",N196*Contagem!$U$12,IF(H196="T",N196*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P196" s="100"/>
-      <c r="Q196" s="101"/>
-      <c r="R196" s="101"/>
-      <c r="S196" s="101"/>
-      <c r="T196" s="101"/>
+      <c r="P196" s="110"/>
+      <c r="Q196" s="111"/>
+      <c r="R196" s="111"/>
+      <c r="S196" s="111"/>
+      <c r="T196" s="111"/>
     </row>
     <row r="197" spans="1:20" ht="18" customHeight="1">
       <c r="A197" s="102"/>
@@ -13075,11 +13222,11 @@
         <f>IF(H197="I",N197*Contagem!$U$11,IF(H197="E",N197*Contagem!$U$13,IF(H197="A",N197*Contagem!$U$12,IF(H197="T",N197*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P197" s="100"/>
-      <c r="Q197" s="101"/>
-      <c r="R197" s="101"/>
-      <c r="S197" s="101"/>
-      <c r="T197" s="101"/>
+      <c r="P197" s="110"/>
+      <c r="Q197" s="111"/>
+      <c r="R197" s="111"/>
+      <c r="S197" s="111"/>
+      <c r="T197" s="111"/>
     </row>
     <row r="198" spans="1:20" ht="18" customHeight="1">
       <c r="A198" s="102"/>
@@ -13114,11 +13261,11 @@
         <f>IF(H198="I",N198*Contagem!$U$11,IF(H198="E",N198*Contagem!$U$13,IF(H198="A",N198*Contagem!$U$12,IF(H198="T",N198*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P198" s="100"/>
-      <c r="Q198" s="101"/>
-      <c r="R198" s="101"/>
-      <c r="S198" s="101"/>
-      <c r="T198" s="101"/>
+      <c r="P198" s="110"/>
+      <c r="Q198" s="111"/>
+      <c r="R198" s="111"/>
+      <c r="S198" s="111"/>
+      <c r="T198" s="111"/>
     </row>
     <row r="199" spans="1:20" ht="18" customHeight="1">
       <c r="A199" s="102"/>
@@ -13153,11 +13300,11 @@
         <f>IF(H199="I",N199*Contagem!$U$11,IF(H199="E",N199*Contagem!$U$13,IF(H199="A",N199*Contagem!$U$12,IF(H199="T",N199*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P199" s="100"/>
-      <c r="Q199" s="101"/>
-      <c r="R199" s="101"/>
-      <c r="S199" s="101"/>
-      <c r="T199" s="101"/>
+      <c r="P199" s="110"/>
+      <c r="Q199" s="111"/>
+      <c r="R199" s="111"/>
+      <c r="S199" s="111"/>
+      <c r="T199" s="111"/>
     </row>
     <row r="200" spans="1:20" ht="18" customHeight="1">
       <c r="A200" s="102"/>
@@ -13192,11 +13339,11 @@
         <f>IF(H200="I",N200*Contagem!$U$11,IF(H200="E",N200*Contagem!$U$13,IF(H200="A",N200*Contagem!$U$12,IF(H200="T",N200*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P200" s="100"/>
-      <c r="Q200" s="101"/>
-      <c r="R200" s="101"/>
-      <c r="S200" s="101"/>
-      <c r="T200" s="101"/>
+      <c r="P200" s="110"/>
+      <c r="Q200" s="111"/>
+      <c r="R200" s="111"/>
+      <c r="S200" s="111"/>
+      <c r="T200" s="111"/>
     </row>
     <row r="201" spans="1:20" ht="18" customHeight="1">
       <c r="A201" s="102"/>
@@ -13231,11 +13378,11 @@
         <f>IF(H201="I",N201*Contagem!$U$11,IF(H201="E",N201*Contagem!$U$13,IF(H201="A",N201*Contagem!$U$12,IF(H201="T",N201*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P201" s="100"/>
-      <c r="Q201" s="101"/>
-      <c r="R201" s="101"/>
-      <c r="S201" s="101"/>
-      <c r="T201" s="101"/>
+      <c r="P201" s="110"/>
+      <c r="Q201" s="111"/>
+      <c r="R201" s="111"/>
+      <c r="S201" s="111"/>
+      <c r="T201" s="111"/>
     </row>
     <row r="202" spans="1:20" ht="18" customHeight="1">
       <c r="A202" s="102"/>
@@ -13270,11 +13417,11 @@
         <f>IF(H202="I",N202*Contagem!$U$11,IF(H202="E",N202*Contagem!$U$13,IF(H202="A",N202*Contagem!$U$12,IF(H202="T",N202*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P202" s="100"/>
-      <c r="Q202" s="101"/>
-      <c r="R202" s="101"/>
-      <c r="S202" s="101"/>
-      <c r="T202" s="101"/>
+      <c r="P202" s="110"/>
+      <c r="Q202" s="111"/>
+      <c r="R202" s="111"/>
+      <c r="S202" s="111"/>
+      <c r="T202" s="111"/>
     </row>
     <row r="203" spans="1:20" ht="18" customHeight="1">
       <c r="A203" s="102"/>
@@ -13309,11 +13456,11 @@
         <f>IF(H203="I",N203*Contagem!$U$11,IF(H203="E",N203*Contagem!$U$13,IF(H203="A",N203*Contagem!$U$12,IF(H203="T",N203*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P203" s="100"/>
-      <c r="Q203" s="101"/>
-      <c r="R203" s="101"/>
-      <c r="S203" s="101"/>
-      <c r="T203" s="101"/>
+      <c r="P203" s="110"/>
+      <c r="Q203" s="111"/>
+      <c r="R203" s="111"/>
+      <c r="S203" s="111"/>
+      <c r="T203" s="111"/>
     </row>
     <row r="204" spans="1:20" ht="18" customHeight="1">
       <c r="A204" s="102"/>
@@ -13348,11 +13495,11 @@
         <f>IF(H204="I",N204*Contagem!$U$11,IF(H204="E",N204*Contagem!$U$13,IF(H204="A",N204*Contagem!$U$12,IF(H204="T",N204*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P204" s="100"/>
-      <c r="Q204" s="101"/>
-      <c r="R204" s="101"/>
-      <c r="S204" s="101"/>
-      <c r="T204" s="101"/>
+      <c r="P204" s="110"/>
+      <c r="Q204" s="111"/>
+      <c r="R204" s="111"/>
+      <c r="S204" s="111"/>
+      <c r="T204" s="111"/>
     </row>
     <row r="205" spans="1:20" ht="18" customHeight="1">
       <c r="A205" s="102"/>
@@ -13387,11 +13534,11 @@
         <f>IF(H205="I",N205*Contagem!$U$11,IF(H205="E",N205*Contagem!$U$13,IF(H205="A",N205*Contagem!$U$12,IF(H205="T",N205*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P205" s="100"/>
-      <c r="Q205" s="101"/>
-      <c r="R205" s="101"/>
-      <c r="S205" s="101"/>
-      <c r="T205" s="101"/>
+      <c r="P205" s="110"/>
+      <c r="Q205" s="111"/>
+      <c r="R205" s="111"/>
+      <c r="S205" s="111"/>
+      <c r="T205" s="111"/>
     </row>
     <row r="206" spans="1:20" ht="18" customHeight="1">
       <c r="A206" s="102"/>
@@ -13426,11 +13573,11 @@
         <f>IF(H206="I",N206*Contagem!$U$11,IF(H206="E",N206*Contagem!$U$13,IF(H206="A",N206*Contagem!$U$12,IF(H206="T",N206*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P206" s="100"/>
-      <c r="Q206" s="101"/>
-      <c r="R206" s="101"/>
-      <c r="S206" s="101"/>
-      <c r="T206" s="101"/>
+      <c r="P206" s="110"/>
+      <c r="Q206" s="111"/>
+      <c r="R206" s="111"/>
+      <c r="S206" s="111"/>
+      <c r="T206" s="111"/>
     </row>
     <row r="207" spans="1:20" ht="18" customHeight="1">
       <c r="A207" s="102"/>
@@ -13465,11 +13612,11 @@
         <f>IF(H207="I",N207*Contagem!$U$11,IF(H207="E",N207*Contagem!$U$13,IF(H207="A",N207*Contagem!$U$12,IF(H207="T",N207*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P207" s="100"/>
-      <c r="Q207" s="101"/>
-      <c r="R207" s="101"/>
-      <c r="S207" s="101"/>
-      <c r="T207" s="101"/>
+      <c r="P207" s="110"/>
+      <c r="Q207" s="111"/>
+      <c r="R207" s="111"/>
+      <c r="S207" s="111"/>
+      <c r="T207" s="111"/>
     </row>
     <row r="208" spans="1:20" ht="18" customHeight="1">
       <c r="A208" s="102"/>
@@ -13504,11 +13651,11 @@
         <f>IF(H208="I",N208*Contagem!$U$11,IF(H208="E",N208*Contagem!$U$13,IF(H208="A",N208*Contagem!$U$12,IF(H208="T",N208*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P208" s="100"/>
-      <c r="Q208" s="101"/>
-      <c r="R208" s="101"/>
-      <c r="S208" s="101"/>
-      <c r="T208" s="101"/>
+      <c r="P208" s="110"/>
+      <c r="Q208" s="111"/>
+      <c r="R208" s="111"/>
+      <c r="S208" s="111"/>
+      <c r="T208" s="111"/>
     </row>
     <row r="209" spans="1:20" ht="18" customHeight="1">
       <c r="A209" s="102"/>
@@ -13543,11 +13690,11 @@
         <f>IF(H209="I",N209*Contagem!$U$11,IF(H209="E",N209*Contagem!$U$13,IF(H209="A",N209*Contagem!$U$12,IF(H209="T",N209*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P209" s="100"/>
-      <c r="Q209" s="101"/>
-      <c r="R209" s="101"/>
-      <c r="S209" s="101"/>
-      <c r="T209" s="101"/>
+      <c r="P209" s="110"/>
+      <c r="Q209" s="111"/>
+      <c r="R209" s="111"/>
+      <c r="S209" s="111"/>
+      <c r="T209" s="111"/>
     </row>
     <row r="210" spans="1:20" ht="18" customHeight="1">
       <c r="A210" s="102"/>
@@ -13582,11 +13729,11 @@
         <f>IF(H210="I",N210*Contagem!$U$11,IF(H210="E",N210*Contagem!$U$13,IF(H210="A",N210*Contagem!$U$12,IF(H210="T",N210*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P210" s="100"/>
-      <c r="Q210" s="101"/>
-      <c r="R210" s="101"/>
-      <c r="S210" s="101"/>
-      <c r="T210" s="101"/>
+      <c r="P210" s="110"/>
+      <c r="Q210" s="111"/>
+      <c r="R210" s="111"/>
+      <c r="S210" s="111"/>
+      <c r="T210" s="111"/>
     </row>
     <row r="211" spans="1:20" ht="18" customHeight="1">
       <c r="A211" s="102"/>
@@ -13621,11 +13768,11 @@
         <f>IF(H211="I",N211*Contagem!$U$11,IF(H211="E",N211*Contagem!$U$13,IF(H211="A",N211*Contagem!$U$12,IF(H211="T",N211*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P211" s="100"/>
-      <c r="Q211" s="101"/>
-      <c r="R211" s="101"/>
-      <c r="S211" s="101"/>
-      <c r="T211" s="101"/>
+      <c r="P211" s="110"/>
+      <c r="Q211" s="111"/>
+      <c r="R211" s="111"/>
+      <c r="S211" s="111"/>
+      <c r="T211" s="111"/>
     </row>
     <row r="212" spans="1:20" ht="18" customHeight="1">
       <c r="A212" s="102"/>
@@ -13660,11 +13807,11 @@
         <f>IF(H212="I",N212*Contagem!$U$11,IF(H212="E",N212*Contagem!$U$13,IF(H212="A",N212*Contagem!$U$12,IF(H212="T",N212*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P212" s="100"/>
-      <c r="Q212" s="101"/>
-      <c r="R212" s="101"/>
-      <c r="S212" s="101"/>
-      <c r="T212" s="101"/>
+      <c r="P212" s="110"/>
+      <c r="Q212" s="111"/>
+      <c r="R212" s="111"/>
+      <c r="S212" s="111"/>
+      <c r="T212" s="111"/>
     </row>
     <row r="213" spans="1:20" ht="18" customHeight="1">
       <c r="A213" s="102"/>
@@ -13699,11 +13846,11 @@
         <f>IF(H213="I",N213*Contagem!$U$11,IF(H213="E",N213*Contagem!$U$13,IF(H213="A",N213*Contagem!$U$12,IF(H213="T",N213*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P213" s="100"/>
-      <c r="Q213" s="101"/>
-      <c r="R213" s="101"/>
-      <c r="S213" s="101"/>
-      <c r="T213" s="101"/>
+      <c r="P213" s="110"/>
+      <c r="Q213" s="111"/>
+      <c r="R213" s="111"/>
+      <c r="S213" s="111"/>
+      <c r="T213" s="111"/>
     </row>
     <row r="214" spans="1:20" ht="18" customHeight="1">
       <c r="A214" s="102"/>
@@ -13738,11 +13885,11 @@
         <f>IF(H214="I",N214*Contagem!$U$11,IF(H214="E",N214*Contagem!$U$13,IF(H214="A",N214*Contagem!$U$12,IF(H214="T",N214*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P214" s="100"/>
-      <c r="Q214" s="101"/>
-      <c r="R214" s="101"/>
-      <c r="S214" s="101"/>
-      <c r="T214" s="101"/>
+      <c r="P214" s="110"/>
+      <c r="Q214" s="111"/>
+      <c r="R214" s="111"/>
+      <c r="S214" s="111"/>
+      <c r="T214" s="111"/>
     </row>
     <row r="215" spans="1:20" ht="18" customHeight="1">
       <c r="A215" s="102"/>
@@ -13777,11 +13924,11 @@
         <f>IF(H215="I",N215*Contagem!$U$11,IF(H215="E",N215*Contagem!$U$13,IF(H215="A",N215*Contagem!$U$12,IF(H215="T",N215*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P215" s="100"/>
-      <c r="Q215" s="101"/>
-      <c r="R215" s="101"/>
-      <c r="S215" s="101"/>
-      <c r="T215" s="101"/>
+      <c r="P215" s="110"/>
+      <c r="Q215" s="111"/>
+      <c r="R215" s="111"/>
+      <c r="S215" s="111"/>
+      <c r="T215" s="111"/>
     </row>
     <row r="216" spans="1:20" ht="18" customHeight="1">
       <c r="A216" s="102"/>
@@ -13816,11 +13963,11 @@
         <f>IF(H216="I",N216*Contagem!$U$11,IF(H216="E",N216*Contagem!$U$13,IF(H216="A",N216*Contagem!$U$12,IF(H216="T",N216*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P216" s="100"/>
-      <c r="Q216" s="101"/>
-      <c r="R216" s="101"/>
-      <c r="S216" s="101"/>
-      <c r="T216" s="101"/>
+      <c r="P216" s="110"/>
+      <c r="Q216" s="111"/>
+      <c r="R216" s="111"/>
+      <c r="S216" s="111"/>
+      <c r="T216" s="111"/>
     </row>
     <row r="217" spans="1:20" ht="18" customHeight="1">
       <c r="A217" s="102"/>
@@ -13855,11 +14002,11 @@
         <f>IF(H217="I",N217*Contagem!$U$11,IF(H217="E",N217*Contagem!$U$13,IF(H217="A",N217*Contagem!$U$12,IF(H217="T",N217*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P217" s="100"/>
-      <c r="Q217" s="101"/>
-      <c r="R217" s="101"/>
-      <c r="S217" s="101"/>
-      <c r="T217" s="101"/>
+      <c r="P217" s="110"/>
+      <c r="Q217" s="111"/>
+      <c r="R217" s="111"/>
+      <c r="S217" s="111"/>
+      <c r="T217" s="111"/>
     </row>
     <row r="218" spans="1:20" ht="18" customHeight="1">
       <c r="A218" s="102"/>
@@ -13894,11 +14041,11 @@
         <f>IF(H218="I",N218*Contagem!$U$11,IF(H218="E",N218*Contagem!$U$13,IF(H218="A",N218*Contagem!$U$12,IF(H218="T",N218*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P218" s="100"/>
-      <c r="Q218" s="101"/>
-      <c r="R218" s="101"/>
-      <c r="S218" s="101"/>
-      <c r="T218" s="101"/>
+      <c r="P218" s="110"/>
+      <c r="Q218" s="111"/>
+      <c r="R218" s="111"/>
+      <c r="S218" s="111"/>
+      <c r="T218" s="111"/>
     </row>
     <row r="219" spans="1:20" ht="18" customHeight="1">
       <c r="A219" s="102"/>
@@ -13933,11 +14080,11 @@
         <f>IF(H219="I",N219*Contagem!$U$11,IF(H219="E",N219*Contagem!$U$13,IF(H219="A",N219*Contagem!$U$12,IF(H219="T",N219*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P219" s="100"/>
-      <c r="Q219" s="101"/>
-      <c r="R219" s="101"/>
-      <c r="S219" s="101"/>
-      <c r="T219" s="101"/>
+      <c r="P219" s="110"/>
+      <c r="Q219" s="111"/>
+      <c r="R219" s="111"/>
+      <c r="S219" s="111"/>
+      <c r="T219" s="111"/>
     </row>
     <row r="220" spans="1:20" ht="18" customHeight="1">
       <c r="A220" s="102"/>
@@ -13972,11 +14119,11 @@
         <f>IF(H220="I",N220*Contagem!$U$11,IF(H220="E",N220*Contagem!$U$13,IF(H220="A",N220*Contagem!$U$12,IF(H220="T",N220*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P220" s="100"/>
-      <c r="Q220" s="101"/>
-      <c r="R220" s="101"/>
-      <c r="S220" s="101"/>
-      <c r="T220" s="101"/>
+      <c r="P220" s="110"/>
+      <c r="Q220" s="111"/>
+      <c r="R220" s="111"/>
+      <c r="S220" s="111"/>
+      <c r="T220" s="111"/>
     </row>
     <row r="221" spans="1:20" ht="18" customHeight="1">
       <c r="A221" s="102"/>
@@ -14011,11 +14158,11 @@
         <f>IF(H221="I",N221*Contagem!$U$11,IF(H221="E",N221*Contagem!$U$13,IF(H221="A",N221*Contagem!$U$12,IF(H221="T",N221*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P221" s="100"/>
-      <c r="Q221" s="101"/>
-      <c r="R221" s="101"/>
-      <c r="S221" s="101"/>
-      <c r="T221" s="101"/>
+      <c r="P221" s="110"/>
+      <c r="Q221" s="111"/>
+      <c r="R221" s="111"/>
+      <c r="S221" s="111"/>
+      <c r="T221" s="111"/>
     </row>
     <row r="222" spans="1:20" ht="18" customHeight="1">
       <c r="A222" s="102"/>
@@ -14050,11 +14197,11 @@
         <f>IF(H222="I",N222*Contagem!$U$11,IF(H222="E",N222*Contagem!$U$13,IF(H222="A",N222*Contagem!$U$12,IF(H222="T",N222*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P222" s="100"/>
-      <c r="Q222" s="101"/>
-      <c r="R222" s="101"/>
-      <c r="S222" s="101"/>
-      <c r="T222" s="101"/>
+      <c r="P222" s="110"/>
+      <c r="Q222" s="111"/>
+      <c r="R222" s="111"/>
+      <c r="S222" s="111"/>
+      <c r="T222" s="111"/>
     </row>
     <row r="223" spans="1:20" ht="18" customHeight="1">
       <c r="A223" s="102"/>
@@ -14089,11 +14236,11 @@
         <f>IF(H223="I",N223*Contagem!$U$11,IF(H223="E",N223*Contagem!$U$13,IF(H223="A",N223*Contagem!$U$12,IF(H223="T",N223*Contagem!$U$14,""))))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P223" s="100"/>
-      <c r="Q223" s="101"/>
-      <c r="R223" s="101"/>
-      <c r="S223" s="101"/>
-      <c r="T223" s="101"/>
+      <c r="P223" s="110"/>
+      <c r="Q223" s="111"/>
+      <c r="R223" s="111"/>
+      <c r="S223" s="111"/>
+      <c r="T223" s="111"/>
     </row>
     <row r="224" spans="1:20" ht="15" customHeight="1">
       <c r="A224" s="102"/>
@@ -14335,84 +14482,332 @@
     </row>
   </sheetData>
   <mergeCells count="435">
-    <mergeCell ref="A194:F194"/>
-    <mergeCell ref="A196:F196"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="A50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A182:F182"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A189:F189"/>
-    <mergeCell ref="A188:F188"/>
-    <mergeCell ref="A185:F185"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A184:F184"/>
-    <mergeCell ref="A213:F213"/>
-    <mergeCell ref="A214:F214"/>
-    <mergeCell ref="A186:F186"/>
-    <mergeCell ref="A187:F187"/>
-    <mergeCell ref="A190:F190"/>
-    <mergeCell ref="A191:F191"/>
-    <mergeCell ref="A193:F193"/>
-    <mergeCell ref="A211:F211"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="A210:F210"/>
-    <mergeCell ref="A209:F209"/>
-    <mergeCell ref="A192:F192"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A198:F198"/>
-    <mergeCell ref="A204:F204"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="A228:F228"/>
-    <mergeCell ref="A229:F229"/>
-    <mergeCell ref="A230:F230"/>
-    <mergeCell ref="A200:F200"/>
-    <mergeCell ref="A201:F201"/>
-    <mergeCell ref="A202:F202"/>
-    <mergeCell ref="A203:F203"/>
-    <mergeCell ref="A224:F224"/>
-    <mergeCell ref="A225:F225"/>
-    <mergeCell ref="A226:F226"/>
-    <mergeCell ref="A227:F227"/>
-    <mergeCell ref="A223:F223"/>
-    <mergeCell ref="A215:F215"/>
-    <mergeCell ref="A216:F216"/>
-    <mergeCell ref="A221:F221"/>
-    <mergeCell ref="A218:F218"/>
-    <mergeCell ref="A217:F217"/>
-    <mergeCell ref="A219:F219"/>
-    <mergeCell ref="A220:F220"/>
-    <mergeCell ref="A222:F222"/>
-    <mergeCell ref="A206:F206"/>
-    <mergeCell ref="A208:F208"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P69:T69"/>
-    <mergeCell ref="P72:T72"/>
-    <mergeCell ref="P63:T63"/>
-    <mergeCell ref="P67:T67"/>
-    <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
-    <mergeCell ref="P54:T54"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P61:T61"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P8:T8"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P60:T60"/>
+    <mergeCell ref="P59:T59"/>
+    <mergeCell ref="P74:T74"/>
+    <mergeCell ref="P71:T71"/>
+    <mergeCell ref="P64:T64"/>
+    <mergeCell ref="P65:T65"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="P43:T43"/>
+    <mergeCell ref="P44:T44"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P18:T18"/>
+    <mergeCell ref="P19:T19"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="P24:T24"/>
+    <mergeCell ref="P183:T183"/>
+    <mergeCell ref="P184:T184"/>
+    <mergeCell ref="P185:T185"/>
+    <mergeCell ref="P126:T126"/>
+    <mergeCell ref="P124:T124"/>
+    <mergeCell ref="P134:T134"/>
+    <mergeCell ref="P128:T128"/>
+    <mergeCell ref="P130:T130"/>
+    <mergeCell ref="P129:T129"/>
+    <mergeCell ref="P131:T131"/>
+    <mergeCell ref="P132:T132"/>
+    <mergeCell ref="P133:T133"/>
+    <mergeCell ref="P150:T150"/>
+    <mergeCell ref="P156:T156"/>
+    <mergeCell ref="P175:T175"/>
+    <mergeCell ref="P174:T174"/>
+    <mergeCell ref="P181:T181"/>
+    <mergeCell ref="P182:T182"/>
+    <mergeCell ref="P177:T177"/>
+    <mergeCell ref="P178:T178"/>
+    <mergeCell ref="P176:T176"/>
+    <mergeCell ref="P180:T180"/>
+    <mergeCell ref="P179:T179"/>
+    <mergeCell ref="P166:T166"/>
+    <mergeCell ref="P202:T202"/>
+    <mergeCell ref="P198:T198"/>
+    <mergeCell ref="P211:T211"/>
+    <mergeCell ref="P212:T212"/>
+    <mergeCell ref="P219:T219"/>
+    <mergeCell ref="P220:T220"/>
+    <mergeCell ref="P186:T186"/>
+    <mergeCell ref="P187:T187"/>
+    <mergeCell ref="P191:T191"/>
+    <mergeCell ref="P188:T188"/>
+    <mergeCell ref="P189:T189"/>
+    <mergeCell ref="P190:T190"/>
+    <mergeCell ref="P200:T200"/>
+    <mergeCell ref="P201:T201"/>
+    <mergeCell ref="P196:T196"/>
+    <mergeCell ref="P197:T197"/>
+    <mergeCell ref="P192:T192"/>
+    <mergeCell ref="P193:T193"/>
+    <mergeCell ref="P194:T194"/>
+    <mergeCell ref="P195:T195"/>
+    <mergeCell ref="P199:T199"/>
+    <mergeCell ref="P215:T215"/>
+    <mergeCell ref="P216:T216"/>
+    <mergeCell ref="P217:T217"/>
+    <mergeCell ref="P165:T165"/>
+    <mergeCell ref="P164:T164"/>
+    <mergeCell ref="P171:T171"/>
+    <mergeCell ref="P172:T172"/>
+    <mergeCell ref="P169:T169"/>
+    <mergeCell ref="P170:T170"/>
+    <mergeCell ref="P173:T173"/>
+    <mergeCell ref="P167:T167"/>
+    <mergeCell ref="P168:T168"/>
+    <mergeCell ref="P159:T159"/>
+    <mergeCell ref="P160:T160"/>
+    <mergeCell ref="P161:T161"/>
+    <mergeCell ref="P162:T162"/>
+    <mergeCell ref="P163:T163"/>
+    <mergeCell ref="P151:T151"/>
+    <mergeCell ref="P153:T153"/>
+    <mergeCell ref="P152:T152"/>
+    <mergeCell ref="P158:T158"/>
+    <mergeCell ref="P157:T157"/>
+    <mergeCell ref="P218:T218"/>
+    <mergeCell ref="P222:T222"/>
+    <mergeCell ref="P223:T223"/>
+    <mergeCell ref="P221:T221"/>
+    <mergeCell ref="P135:T135"/>
+    <mergeCell ref="P141:T141"/>
+    <mergeCell ref="P137:T137"/>
+    <mergeCell ref="P138:T138"/>
+    <mergeCell ref="P136:T136"/>
+    <mergeCell ref="P140:T140"/>
+    <mergeCell ref="P139:T139"/>
+    <mergeCell ref="P142:T142"/>
+    <mergeCell ref="P145:T145"/>
+    <mergeCell ref="P146:T146"/>
+    <mergeCell ref="P147:T147"/>
+    <mergeCell ref="P148:T148"/>
+    <mergeCell ref="P144:T144"/>
+    <mergeCell ref="P143:T143"/>
+    <mergeCell ref="P149:T149"/>
+    <mergeCell ref="P154:T154"/>
+    <mergeCell ref="P155:T155"/>
+    <mergeCell ref="P214:T214"/>
+    <mergeCell ref="P213:T213"/>
+    <mergeCell ref="P203:T203"/>
+    <mergeCell ref="P204:T204"/>
+    <mergeCell ref="P205:T205"/>
+    <mergeCell ref="P206:T206"/>
+    <mergeCell ref="P207:T207"/>
+    <mergeCell ref="P208:T208"/>
+    <mergeCell ref="P209:T209"/>
+    <mergeCell ref="P210:T210"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="P58:T58"/>
+    <mergeCell ref="P94:T94"/>
+    <mergeCell ref="P80:T80"/>
+    <mergeCell ref="P93:T93"/>
+    <mergeCell ref="P86:T86"/>
+    <mergeCell ref="P89:T89"/>
+    <mergeCell ref="P87:T87"/>
+    <mergeCell ref="P88:T88"/>
+    <mergeCell ref="P90:T90"/>
+    <mergeCell ref="P48:T48"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P46:T46"/>
+    <mergeCell ref="P40:T40"/>
+    <mergeCell ref="P42:T42"/>
+    <mergeCell ref="P127:T127"/>
+    <mergeCell ref="P62:T62"/>
+    <mergeCell ref="P125:T125"/>
+    <mergeCell ref="P123:T123"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="P82:T82"/>
+    <mergeCell ref="P102:T102"/>
+    <mergeCell ref="P95:T95"/>
+    <mergeCell ref="P91:T91"/>
+    <mergeCell ref="P92:T92"/>
+    <mergeCell ref="P75:T75"/>
+    <mergeCell ref="P76:T76"/>
+    <mergeCell ref="P78:T78"/>
+    <mergeCell ref="P77:T77"/>
+    <mergeCell ref="P79:T79"/>
+    <mergeCell ref="P121:T121"/>
+    <mergeCell ref="P122:T122"/>
+    <mergeCell ref="P84:T84"/>
+    <mergeCell ref="P85:T85"/>
+    <mergeCell ref="P83:T83"/>
+    <mergeCell ref="P81:T81"/>
+    <mergeCell ref="A179:F179"/>
+    <mergeCell ref="A180:F180"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A142:F142"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A143:F143"/>
+    <mergeCell ref="A146:F146"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A125:F125"/>
+    <mergeCell ref="A129:F129"/>
+    <mergeCell ref="A130:F130"/>
+    <mergeCell ref="A177:F177"/>
+    <mergeCell ref="A176:F176"/>
+    <mergeCell ref="A166:F166"/>
+    <mergeCell ref="A178:F178"/>
+    <mergeCell ref="A167:F167"/>
+    <mergeCell ref="A174:F174"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:F127"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A141:F141"/>
+    <mergeCell ref="A139:F139"/>
+    <mergeCell ref="A128:F128"/>
+    <mergeCell ref="A122:F122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="P114:T114"/>
+    <mergeCell ref="A121:F121"/>
+    <mergeCell ref="P113:T113"/>
+    <mergeCell ref="P115:T115"/>
+    <mergeCell ref="P117:T117"/>
+    <mergeCell ref="P118:T118"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A173:F173"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A170:F170"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="A169:F169"/>
+    <mergeCell ref="A168:F168"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="A157:F157"/>
+    <mergeCell ref="A165:F165"/>
+    <mergeCell ref="A159:F159"/>
+    <mergeCell ref="A164:F164"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A162:F162"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A160:F160"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P22:T22"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P20:T20"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G4:T4"/>
+    <mergeCell ref="A1:O3"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:T5"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P7:T7"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="P109:T109"/>
+    <mergeCell ref="P108:T108"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="P28:T28"/>
+    <mergeCell ref="P26:T26"/>
+    <mergeCell ref="P27:T27"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="P106:T106"/>
+    <mergeCell ref="P107:T107"/>
+    <mergeCell ref="P103:T103"/>
+    <mergeCell ref="P104:T104"/>
+    <mergeCell ref="P105:T105"/>
+    <mergeCell ref="P100:T100"/>
+    <mergeCell ref="P101:T101"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A96:F96"/>
     <mergeCell ref="P30:T30"/>
     <mergeCell ref="P29:T29"/>
     <mergeCell ref="P31:T31"/>
@@ -14437,6 +14832,84 @@
     <mergeCell ref="P68:T68"/>
     <mergeCell ref="A69:F69"/>
     <mergeCell ref="A67:F67"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P52:T52"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P69:T69"/>
+    <mergeCell ref="P72:T72"/>
+    <mergeCell ref="P63:T63"/>
+    <mergeCell ref="P67:T67"/>
+    <mergeCell ref="P66:T66"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P54:T54"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P61:T61"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="A228:F228"/>
+    <mergeCell ref="A229:F229"/>
+    <mergeCell ref="A230:F230"/>
+    <mergeCell ref="A200:F200"/>
+    <mergeCell ref="A201:F201"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A203:F203"/>
+    <mergeCell ref="A224:F224"/>
+    <mergeCell ref="A225:F225"/>
+    <mergeCell ref="A226:F226"/>
+    <mergeCell ref="A227:F227"/>
+    <mergeCell ref="A223:F223"/>
+    <mergeCell ref="A215:F215"/>
+    <mergeCell ref="A216:F216"/>
+    <mergeCell ref="A221:F221"/>
+    <mergeCell ref="A218:F218"/>
+    <mergeCell ref="A217:F217"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="A220:F220"/>
+    <mergeCell ref="A222:F222"/>
+    <mergeCell ref="A206:F206"/>
+    <mergeCell ref="A208:F208"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="A213:F213"/>
+    <mergeCell ref="A214:F214"/>
+    <mergeCell ref="A186:F186"/>
+    <mergeCell ref="A187:F187"/>
+    <mergeCell ref="A190:F190"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A193:F193"/>
+    <mergeCell ref="A211:F211"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A210:F210"/>
+    <mergeCell ref="A209:F209"/>
+    <mergeCell ref="A192:F192"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A198:F198"/>
+    <mergeCell ref="A204:F204"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="A194:F194"/>
+    <mergeCell ref="A196:F196"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A182:F182"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A189:F189"/>
+    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="A185:F185"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A184:F184"/>
     <mergeCell ref="A70:F70"/>
     <mergeCell ref="A83:F83"/>
     <mergeCell ref="A84:F84"/>
@@ -14444,332 +14917,6 @@
     <mergeCell ref="A93:F93"/>
     <mergeCell ref="A94:F94"/>
     <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A64:F64"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="P110:T110"/>
-    <mergeCell ref="P106:T106"/>
-    <mergeCell ref="P107:T107"/>
-    <mergeCell ref="P103:T103"/>
-    <mergeCell ref="P104:T104"/>
-    <mergeCell ref="P105:T105"/>
-    <mergeCell ref="P100:T100"/>
-    <mergeCell ref="P101:T101"/>
-    <mergeCell ref="A100:F100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G4:T4"/>
-    <mergeCell ref="A1:O3"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:T5"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P7:T7"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="P109:T109"/>
-    <mergeCell ref="P108:T108"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="P28:T28"/>
-    <mergeCell ref="P26:T26"/>
-    <mergeCell ref="P27:T27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P22:T22"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P20:T20"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A150:F150"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A173:F173"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A170:F170"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A153:F153"/>
-    <mergeCell ref="A169:F169"/>
-    <mergeCell ref="A168:F168"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A155:F155"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="A157:F157"/>
-    <mergeCell ref="A165:F165"/>
-    <mergeCell ref="A159:F159"/>
-    <mergeCell ref="A164:F164"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A162:F162"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="A160:F160"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A149:F149"/>
-    <mergeCell ref="A122:F122"/>
-    <mergeCell ref="A123:F123"/>
-    <mergeCell ref="P114:T114"/>
-    <mergeCell ref="A121:F121"/>
-    <mergeCell ref="P113:T113"/>
-    <mergeCell ref="P115:T115"/>
-    <mergeCell ref="P117:T117"/>
-    <mergeCell ref="P118:T118"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A179:F179"/>
-    <mergeCell ref="A180:F180"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A142:F142"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="A143:F143"/>
-    <mergeCell ref="A146:F146"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A125:F125"/>
-    <mergeCell ref="A129:F129"/>
-    <mergeCell ref="A130:F130"/>
-    <mergeCell ref="A177:F177"/>
-    <mergeCell ref="A176:F176"/>
-    <mergeCell ref="A166:F166"/>
-    <mergeCell ref="A178:F178"/>
-    <mergeCell ref="A167:F167"/>
-    <mergeCell ref="A174:F174"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:F127"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A141:F141"/>
-    <mergeCell ref="A139:F139"/>
-    <mergeCell ref="A128:F128"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="P127:T127"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P125:T125"/>
-    <mergeCell ref="P123:T123"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="P120:T120"/>
-    <mergeCell ref="P82:T82"/>
-    <mergeCell ref="P102:T102"/>
-    <mergeCell ref="P95:T95"/>
-    <mergeCell ref="P91:T91"/>
-    <mergeCell ref="P92:T92"/>
-    <mergeCell ref="P75:T75"/>
-    <mergeCell ref="P76:T76"/>
-    <mergeCell ref="P78:T78"/>
-    <mergeCell ref="P77:T77"/>
-    <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P121:T121"/>
-    <mergeCell ref="P204:T204"/>
-    <mergeCell ref="P205:T205"/>
-    <mergeCell ref="P206:T206"/>
-    <mergeCell ref="P207:T207"/>
-    <mergeCell ref="P208:T208"/>
-    <mergeCell ref="P209:T209"/>
-    <mergeCell ref="P210:T210"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="P58:T58"/>
-    <mergeCell ref="P94:T94"/>
-    <mergeCell ref="P80:T80"/>
-    <mergeCell ref="P93:T93"/>
-    <mergeCell ref="P86:T86"/>
-    <mergeCell ref="P89:T89"/>
-    <mergeCell ref="P87:T87"/>
-    <mergeCell ref="P88:T88"/>
-    <mergeCell ref="P90:T90"/>
-    <mergeCell ref="P48:T48"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P46:T46"/>
-    <mergeCell ref="P40:T40"/>
-    <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P218:T218"/>
-    <mergeCell ref="P222:T222"/>
-    <mergeCell ref="P223:T223"/>
-    <mergeCell ref="P221:T221"/>
-    <mergeCell ref="P135:T135"/>
-    <mergeCell ref="P141:T141"/>
-    <mergeCell ref="P137:T137"/>
-    <mergeCell ref="P138:T138"/>
-    <mergeCell ref="P136:T136"/>
-    <mergeCell ref="P140:T140"/>
-    <mergeCell ref="P139:T139"/>
-    <mergeCell ref="P142:T142"/>
-    <mergeCell ref="P145:T145"/>
-    <mergeCell ref="P146:T146"/>
-    <mergeCell ref="P147:T147"/>
-    <mergeCell ref="P148:T148"/>
-    <mergeCell ref="P144:T144"/>
-    <mergeCell ref="P143:T143"/>
-    <mergeCell ref="P149:T149"/>
-    <mergeCell ref="P154:T154"/>
-    <mergeCell ref="P155:T155"/>
-    <mergeCell ref="P214:T214"/>
-    <mergeCell ref="P213:T213"/>
-    <mergeCell ref="P203:T203"/>
-    <mergeCell ref="P159:T159"/>
-    <mergeCell ref="P160:T160"/>
-    <mergeCell ref="P161:T161"/>
-    <mergeCell ref="P162:T162"/>
-    <mergeCell ref="P163:T163"/>
-    <mergeCell ref="P151:T151"/>
-    <mergeCell ref="P153:T153"/>
-    <mergeCell ref="P152:T152"/>
-    <mergeCell ref="P158:T158"/>
-    <mergeCell ref="P157:T157"/>
-    <mergeCell ref="P165:T165"/>
-    <mergeCell ref="P164:T164"/>
-    <mergeCell ref="P171:T171"/>
-    <mergeCell ref="P172:T172"/>
-    <mergeCell ref="P169:T169"/>
-    <mergeCell ref="P170:T170"/>
-    <mergeCell ref="P173:T173"/>
-    <mergeCell ref="P167:T167"/>
-    <mergeCell ref="P168:T168"/>
-    <mergeCell ref="P202:T202"/>
-    <mergeCell ref="P198:T198"/>
-    <mergeCell ref="P211:T211"/>
-    <mergeCell ref="P212:T212"/>
-    <mergeCell ref="P219:T219"/>
-    <mergeCell ref="P220:T220"/>
-    <mergeCell ref="P186:T186"/>
-    <mergeCell ref="P187:T187"/>
-    <mergeCell ref="P191:T191"/>
-    <mergeCell ref="P188:T188"/>
-    <mergeCell ref="P189:T189"/>
-    <mergeCell ref="P190:T190"/>
-    <mergeCell ref="P200:T200"/>
-    <mergeCell ref="P201:T201"/>
-    <mergeCell ref="P196:T196"/>
-    <mergeCell ref="P197:T197"/>
-    <mergeCell ref="P192:T192"/>
-    <mergeCell ref="P193:T193"/>
-    <mergeCell ref="P194:T194"/>
-    <mergeCell ref="P195:T195"/>
-    <mergeCell ref="P199:T199"/>
-    <mergeCell ref="P215:T215"/>
-    <mergeCell ref="P216:T216"/>
-    <mergeCell ref="P217:T217"/>
-    <mergeCell ref="P183:T183"/>
-    <mergeCell ref="P184:T184"/>
-    <mergeCell ref="P185:T185"/>
-    <mergeCell ref="P126:T126"/>
-    <mergeCell ref="P124:T124"/>
-    <mergeCell ref="P134:T134"/>
-    <mergeCell ref="P128:T128"/>
-    <mergeCell ref="P130:T130"/>
-    <mergeCell ref="P129:T129"/>
-    <mergeCell ref="P131:T131"/>
-    <mergeCell ref="P132:T132"/>
-    <mergeCell ref="P133:T133"/>
-    <mergeCell ref="P150:T150"/>
-    <mergeCell ref="P156:T156"/>
-    <mergeCell ref="P175:T175"/>
-    <mergeCell ref="P174:T174"/>
-    <mergeCell ref="P181:T181"/>
-    <mergeCell ref="P182:T182"/>
-    <mergeCell ref="P177:T177"/>
-    <mergeCell ref="P178:T178"/>
-    <mergeCell ref="P176:T176"/>
-    <mergeCell ref="P180:T180"/>
-    <mergeCell ref="P179:T179"/>
-    <mergeCell ref="P166:T166"/>
-    <mergeCell ref="P122:T122"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P8:T8"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P60:T60"/>
-    <mergeCell ref="P59:T59"/>
-    <mergeCell ref="P74:T74"/>
-    <mergeCell ref="P71:T71"/>
-    <mergeCell ref="P64:T64"/>
-    <mergeCell ref="P65:T65"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="P43:T43"/>
-    <mergeCell ref="P44:T44"/>
-    <mergeCell ref="P84:T84"/>
-    <mergeCell ref="P85:T85"/>
-    <mergeCell ref="P83:T83"/>
-    <mergeCell ref="P81:T81"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P18:T18"/>
-    <mergeCell ref="P19:T19"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="P24:T24"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H45 H53:H230">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
@@ -14802,8 +14949,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -14830,23 +14978,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="12" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="133"/>
-      <c r="L1" s="134"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="132"/>
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
-      <c r="A2" s="120"/>
+      <c r="A2" s="114"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -14857,61 +15005,61 @@
       <c r="I2" s="86"/>
       <c r="J2" s="86"/>
       <c r="K2" s="86"/>
-      <c r="L2" s="135"/>
+      <c r="L2" s="133"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
-      <c r="A3" s="129"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="136"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
-      <c r="A4" s="127" t="str">
+      <c r="A4" s="142" t="str">
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="130" t="str">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="128" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="131"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
-      <c r="A5" s="127" t="str">
+      <c r="A5" s="142" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="130" t="str">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="128" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="131"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="129"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
       <c r="A6" s="38" t="str">
@@ -14922,58 +15070,58 @@
       <c r="C6" s="39"/>
       <c r="D6" s="40"/>
       <c r="E6" s="40"/>
-      <c r="F6" s="137" t="str">
+      <c r="F6" s="136" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="78"/>
-      <c r="H6" s="137" t="str">
+      <c r="G6" s="79"/>
+      <c r="H6" s="136" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 226.800,00</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="141" t="str">
+      <c r="I6" s="81"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="140" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 567</v>
       </c>
-      <c r="L6" s="131"/>
+      <c r="L6" s="129"/>
     </row>
     <row r="7" spans="1:12" ht="12" customHeight="1">
-      <c r="A7" s="128" t="s">
+      <c r="A7" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="138" t="s">
+      <c r="B7" s="83"/>
+      <c r="C7" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="139" t="s">
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139" t="s">
+      <c r="H7" s="138"/>
+      <c r="I7" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="J7" s="140"/>
-      <c r="K7" s="139"/>
-      <c r="L7" s="140"/>
+      <c r="J7" s="139"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="139"/>
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
-      <c r="A8" s="129"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="88"/>
-      <c r="J8" s="136"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="136"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="89"/>
+      <c r="L8" s="135"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
       <c r="A9" s="41"/>
@@ -15869,11 +16017,11 @@
     </row>
     <row r="55" spans="1:12" ht="12" customHeight="1">
       <c r="A55" s="44"/>
-      <c r="B55" s="126" t="s">
+      <c r="B55" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="78"/>
+      <c r="C55" s="81"/>
+      <c r="D55" s="79"/>
       <c r="E55" s="59">
         <f>SUMIF(Funções!$H$8:$H$242,"I",Funções!$N$8:$N$242)</f>
         <v>567</v>
@@ -15896,11 +16044,11 @@
     </row>
     <row r="56" spans="1:12" ht="12" customHeight="1">
       <c r="A56" s="44"/>
-      <c r="B56" s="126" t="s">
+      <c r="B56" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="77"/>
-      <c r="D56" s="78"/>
+      <c r="C56" s="81"/>
+      <c r="D56" s="79"/>
       <c r="E56" s="59">
         <f>SUMIF(Funções!$H$8:$H$130,"A",Funções!$N$8:$N$130)</f>
         <v>0</v>
@@ -15924,11 +16072,11 @@
     </row>
     <row r="57" spans="1:12" ht="12" customHeight="1">
       <c r="A57" s="44"/>
-      <c r="B57" s="126" t="s">
+      <c r="B57" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="78"/>
+      <c r="C57" s="81"/>
+      <c r="D57" s="79"/>
       <c r="E57" s="59">
         <f>SUMIF(Funções!$H$8:$H$130,"E",Funções!$N$8:$N$130)</f>
         <v>0</v>
@@ -15949,11 +16097,11 @@
     </row>
     <row r="58" spans="1:12" ht="12" customHeight="1">
       <c r="A58" s="44"/>
-      <c r="B58" s="126" t="s">
+      <c r="B58" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="78"/>
+      <c r="C58" s="81"/>
+      <c r="D58" s="79"/>
       <c r="E58" s="59">
         <f>SUMIF(Funções!$H$8:$H$130,"T",Funções!$N$8:$N$130)</f>
         <v>0</v>
@@ -15988,6 +16136,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:B8"/>
     <mergeCell ref="F4:L4"/>
     <mergeCell ref="A1:L3"/>
     <mergeCell ref="H6:J6"/>
@@ -15999,13 +16154,6 @@
     <mergeCell ref="F5:L5"/>
     <mergeCell ref="I7:J8"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:B8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>

--- a/2-Requisitos/2.5-Planilha_de_Contagem/Contagem Estimada - Pousada Power.xlsx
+++ b/2-Requisitos/2.5-Planilha_de_Contagem/Contagem Estimada - Pousada Power.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berla\git\PousadaPower\2-Requisitos\2.5-Planilha_de_Contagem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\Git\PousadaPower\2-Requisitos\2.5-Planilha_de_Contagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,6 +26,7 @@
     <definedName name="UFPB">Contagem!$Y$12</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -724,7 +725,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* \-??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
@@ -1536,14 +1537,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1566,19 +1570,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1970,6 +1971,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2151,6 +2248,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 7"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2300,6 +2493,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 8"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7620000" cy="7620000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 8"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2652,36 +2941,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="12" customHeight="1">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-      <c r="AB1" s="84"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="85"/>
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
@@ -2690,34 +2979,34 @@
       <c r="AI1" s="1"/>
     </row>
     <row r="2" spans="1:35" ht="12" customHeight="1">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
-      <c r="X2" s="86"/>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="87"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="88"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
@@ -2727,34 +3016,34 @@
       <c r="AI2" s="1"/>
     </row>
     <row r="3" spans="1:35" ht="12" customHeight="1">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="89"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="89"/>
-      <c r="R3" s="89"/>
-      <c r="S3" s="89"/>
-      <c r="T3" s="89"/>
-      <c r="U3" s="89"/>
-      <c r="V3" s="89"/>
-      <c r="W3" s="89"/>
-      <c r="X3" s="89"/>
-      <c r="Y3" s="89"/>
-      <c r="Z3" s="89"/>
-      <c r="AA3" s="89"/>
-      <c r="AB3" s="90"/>
+      <c r="A3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="91"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -2764,45 +3053,45 @@
       <c r="AI3" s="1"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
       <c r="F4" s="97"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="78" t="s">
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="79"/>
+      <c r="S4" s="80"/>
       <c r="T4" s="2">
         <v>400</v>
       </c>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="V4" s="79"/>
-      <c r="W4" s="96">
+      <c r="V4" s="80"/>
+      <c r="W4" s="78">
         <f>W5*T4</f>
         <v>226800</v>
       </c>
-      <c r="X4" s="81"/>
-      <c r="Y4" s="81"/>
-      <c r="Z4" s="81"/>
-      <c r="AA4" s="81"/>
-      <c r="AB4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="80"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
@@ -2812,41 +3101,41 @@
       <c r="AI4" s="1"/>
     </row>
     <row r="5" spans="1:35" ht="12" customHeight="1">
-      <c r="A5" s="80" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="78" t="s">
+      <c r="A5" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="V5" s="79"/>
-      <c r="W5" s="91">
+      <c r="V5" s="80"/>
+      <c r="W5" s="92">
         <f>SUM(Y11:Y14)</f>
         <v>567</v>
       </c>
-      <c r="X5" s="81"/>
-      <c r="Y5" s="81"/>
-      <c r="Z5" s="81"/>
-      <c r="AA5" s="81"/>
-      <c r="AB5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="80"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -2856,36 +3145,36 @@
       <c r="AI5" s="1"/>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="80"/>
       <c r="AC6" s="1"/>
       <c r="AD6" s="1"/>
       <c r="AE6" s="1"/>
@@ -2895,38 +3184,38 @@
       <c r="AI6" s="1"/>
     </row>
     <row r="7" spans="1:35" ht="12" customHeight="1">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="81"/>
-      <c r="N7" s="81"/>
-      <c r="O7" s="81"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="81"/>
-      <c r="R7" s="81"/>
-      <c r="S7" s="81"/>
-      <c r="T7" s="79"/>
-      <c r="U7" s="93" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="80"/>
+      <c r="U7" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="81"/>
-      <c r="W7" s="79"/>
-      <c r="X7" s="92"/>
-      <c r="Y7" s="81"/>
-      <c r="Z7" s="81"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="80"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="80"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
@@ -2936,38 +3225,38 @@
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="12" customHeight="1">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="81"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="93" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="80"/>
+      <c r="U8" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="V8" s="81"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="92"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="80"/>
+      <c r="X8" s="93"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="80"/>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
@@ -3016,43 +3305,43 @@
       <c r="A10" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="100" t="s">
+      <c r="B10" s="85"/>
+      <c r="C10" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="80"/>
       <c r="L10" s="3"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="78" t="s">
+      <c r="P10" s="84"/>
+      <c r="Q10" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="R10" s="81"/>
-      <c r="S10" s="81"/>
-      <c r="T10" s="79"/>
-      <c r="U10" s="78" t="s">
+      <c r="R10" s="79"/>
+      <c r="S10" s="79"/>
+      <c r="T10" s="80"/>
+      <c r="U10" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="81"/>
-      <c r="W10" s="81"/>
-      <c r="X10" s="79"/>
-      <c r="Y10" s="78" t="s">
+      <c r="V10" s="79"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="81"/>
-      <c r="AA10" s="81"/>
-      <c r="AB10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="80"/>
       <c r="AC10" s="5"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
@@ -3062,46 +3351,46 @@
       <c r="AI10" s="1"/>
     </row>
     <row r="11" spans="1:35" ht="12" customHeight="1">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="100" t="s">
+      <c r="A11" s="86"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
-      <c r="K11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="80"/>
       <c r="L11" s="3"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="85"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="93" t="s">
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="R11" s="79"/>
-      <c r="S11" s="91">
+      <c r="R11" s="80"/>
+      <c r="S11" s="92">
         <f>Sumário!E55</f>
         <v>567</v>
       </c>
-      <c r="T11" s="79"/>
-      <c r="U11" s="94">
+      <c r="T11" s="80"/>
+      <c r="U11" s="95">
         <v>1</v>
       </c>
-      <c r="V11" s="81"/>
-      <c r="W11" s="81"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="91">
-        <f t="shared" ref="Y11:Y14" si="0">S11*U11</f>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="92">
+        <f>S11*U11</f>
         <v>567</v>
       </c>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="81"/>
-      <c r="AB11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="80"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -3111,46 +3400,46 @@
       <c r="AI11" s="1"/>
     </row>
     <row r="12" spans="1:35" ht="12" customHeight="1">
-      <c r="A12" s="85"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="100" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="81"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
       <c r="L12" s="3"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="85"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="93" t="s">
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="81"/>
-      <c r="S12" s="91">
+      <c r="R12" s="79"/>
+      <c r="S12" s="92">
         <f>Sumário!E56</f>
         <v>0</v>
       </c>
-      <c r="T12" s="79"/>
-      <c r="U12" s="94">
+      <c r="T12" s="80"/>
+      <c r="U12" s="95">
         <v>1</v>
       </c>
-      <c r="V12" s="81"/>
-      <c r="W12" s="81"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="91">
-        <f t="shared" si="0"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="92">
+        <f>S12*U12</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="81"/>
-      <c r="AA12" s="81"/>
-      <c r="AB12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="80"/>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
@@ -3160,46 +3449,46 @@
       <c r="AI12" s="1"/>
     </row>
     <row r="13" spans="1:35" ht="12" customHeight="1">
-      <c r="A13" s="85"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="100" t="s">
+      <c r="A13" s="86"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="81"/>
-      <c r="J13" s="81"/>
-      <c r="K13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="80"/>
       <c r="L13" s="3"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="93" t="s">
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="81"/>
-      <c r="S13" s="91">
+      <c r="R13" s="79"/>
+      <c r="S13" s="92">
         <f>Sumário!E57</f>
         <v>0</v>
       </c>
-      <c r="T13" s="79"/>
-      <c r="U13" s="94">
+      <c r="T13" s="80"/>
+      <c r="U13" s="95">
         <v>1</v>
       </c>
-      <c r="V13" s="81"/>
-      <c r="W13" s="81"/>
-      <c r="X13" s="79"/>
-      <c r="Y13" s="91">
-        <f t="shared" si="0"/>
+      <c r="V13" s="79"/>
+      <c r="W13" s="79"/>
+      <c r="X13" s="80"/>
+      <c r="Y13" s="92">
+        <f>S13*U13</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="81"/>
-      <c r="AA13" s="81"/>
-      <c r="AB13" s="79"/>
+      <c r="Z13" s="79"/>
+      <c r="AA13" s="79"/>
+      <c r="AB13" s="80"/>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -3209,8 +3498,8 @@
       <c r="AI13" s="1"/>
     </row>
     <row r="14" spans="1:35" ht="12" customHeight="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="90"/>
+      <c r="A14" s="89"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3223,26 +3512,26 @@
       <c r="L14" s="1"/>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="89"/>
-      <c r="Q14" s="93"/>
-      <c r="R14" s="81"/>
-      <c r="S14" s="91">
+      <c r="O14" s="89"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="79"/>
+      <c r="S14" s="92">
         <f>Sumário!E58</f>
         <v>0</v>
       </c>
-      <c r="T14" s="79"/>
-      <c r="U14" s="94"/>
-      <c r="V14" s="81"/>
-      <c r="W14" s="81"/>
-      <c r="X14" s="79"/>
-      <c r="Y14" s="91">
-        <f t="shared" si="0"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="79"/>
+      <c r="W14" s="79"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="92">
+        <f>S14*U14</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="81"/>
-      <c r="AA14" s="81"/>
-      <c r="AB14" s="79"/>
+      <c r="Z14" s="79"/>
+      <c r="AA14" s="79"/>
+      <c r="AB14" s="80"/>
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
@@ -3302,17 +3591,17 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="98" t="s">
+      <c r="K16" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89"/>
-      <c r="O16" s="89"/>
-      <c r="P16" s="89"/>
-      <c r="Q16" s="89"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="90"/>
+      <c r="Q16" s="90"/>
+      <c r="R16" s="90"/>
+      <c r="S16" s="90"/>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -3331,34 +3620,34 @@
       <c r="AI16" s="1"/>
     </row>
     <row r="17" spans="1:35" ht="12" customHeight="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="83"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="83"/>
-      <c r="L17" s="83"/>
-      <c r="M17" s="83"/>
-      <c r="N17" s="83"/>
-      <c r="O17" s="83"/>
-      <c r="P17" s="83"/>
-      <c r="Q17" s="83"/>
-      <c r="R17" s="83"/>
-      <c r="S17" s="83"/>
-      <c r="T17" s="83"/>
-      <c r="U17" s="83"/>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="83"/>
-      <c r="Z17" s="83"/>
-      <c r="AA17" s="83"/>
-      <c r="AB17" s="84"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="84"/>
+      <c r="N17" s="84"/>
+      <c r="O17" s="84"/>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="S17" s="84"/>
+      <c r="T17" s="84"/>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="84"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="85"/>
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
@@ -3368,34 +3657,34 @@
       <c r="AI17" s="1"/>
     </row>
     <row r="18" spans="1:35" ht="12" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
-      <c r="U18" s="86"/>
-      <c r="V18" s="86"/>
-      <c r="W18" s="86"/>
-      <c r="X18" s="86"/>
-      <c r="Y18" s="86"/>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="86"/>
-      <c r="AB18" s="87"/>
+      <c r="A18" s="86"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="88"/>
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
@@ -3405,34 +3694,34 @@
       <c r="AI18" s="1"/>
     </row>
     <row r="19" spans="1:35" ht="12" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
-      <c r="U19" s="86"/>
-      <c r="V19" s="86"/>
-      <c r="W19" s="86"/>
-      <c r="X19" s="86"/>
-      <c r="Y19" s="86"/>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="86"/>
-      <c r="AB19" s="87"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="88"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
@@ -3442,34 +3731,34 @@
       <c r="AI19" s="1"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
-      <c r="U20" s="86"/>
-      <c r="V20" s="86"/>
-      <c r="W20" s="86"/>
-      <c r="X20" s="86"/>
-      <c r="Y20" s="86"/>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="87"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="88"/>
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
@@ -3479,34 +3768,34 @@
       <c r="AI20" s="1"/>
     </row>
     <row r="21" spans="1:35" ht="12" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
-      <c r="U21" s="86"/>
-      <c r="V21" s="86"/>
-      <c r="W21" s="86"/>
-      <c r="X21" s="86"/>
-      <c r="Y21" s="86"/>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="86"/>
-      <c r="AB21" s="87"/>
+      <c r="A21" s="86"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="88"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
@@ -3516,34 +3805,34 @@
       <c r="AI21" s="1"/>
     </row>
     <row r="22" spans="1:35" ht="12" customHeight="1">
-      <c r="A22" s="85"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
-      <c r="U22" s="86"/>
-      <c r="V22" s="86"/>
-      <c r="W22" s="86"/>
-      <c r="X22" s="86"/>
-      <c r="Y22" s="86"/>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="86"/>
-      <c r="AB22" s="87"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="88"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
@@ -3553,34 +3842,34 @@
       <c r="AI22" s="1"/>
     </row>
     <row r="23" spans="1:35" ht="12" customHeight="1">
-      <c r="A23" s="85"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
-      <c r="U23" s="86"/>
-      <c r="V23" s="86"/>
-      <c r="W23" s="86"/>
-      <c r="X23" s="86"/>
-      <c r="Y23" s="86"/>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="86"/>
-      <c r="AB23" s="87"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="88"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
@@ -3590,34 +3879,34 @@
       <c r="AI23" s="1"/>
     </row>
     <row r="24" spans="1:35" ht="12" customHeight="1">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
-      <c r="U24" s="86"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="87"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
+      <c r="X24" s="87"/>
+      <c r="Y24" s="87"/>
+      <c r="Z24" s="87"/>
+      <c r="AA24" s="87"/>
+      <c r="AB24" s="88"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
@@ -3627,34 +3916,34 @@
       <c r="AI24" s="1"/>
     </row>
     <row r="25" spans="1:35" ht="12" customHeight="1">
-      <c r="A25" s="85"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
-      <c r="U25" s="86"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="86"/>
-      <c r="AB25" s="87"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
+      <c r="X25" s="87"/>
+      <c r="Y25" s="87"/>
+      <c r="Z25" s="87"/>
+      <c r="AA25" s="87"/>
+      <c r="AB25" s="88"/>
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -3664,34 +3953,34 @@
       <c r="AI25" s="1"/>
     </row>
     <row r="26" spans="1:35" ht="12" customHeight="1">
-      <c r="A26" s="85"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
-      <c r="U26" s="86"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="86"/>
-      <c r="AB26" s="87"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
+      <c r="X26" s="87"/>
+      <c r="Y26" s="87"/>
+      <c r="Z26" s="87"/>
+      <c r="AA26" s="87"/>
+      <c r="AB26" s="88"/>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
@@ -3701,34 +3990,34 @@
       <c r="AI26" s="1"/>
     </row>
     <row r="27" spans="1:35" ht="12" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
-      <c r="U27" s="86"/>
-      <c r="V27" s="86"/>
-      <c r="W27" s="86"/>
-      <c r="X27" s="86"/>
-      <c r="Y27" s="86"/>
-      <c r="Z27" s="86"/>
-      <c r="AA27" s="86"/>
-      <c r="AB27" s="87"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
+      <c r="N27" s="87"/>
+      <c r="O27" s="87"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="87"/>
+      <c r="R27" s="87"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="87"/>
+      <c r="U27" s="87"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
+      <c r="X27" s="87"/>
+      <c r="Y27" s="87"/>
+      <c r="Z27" s="87"/>
+      <c r="AA27" s="87"/>
+      <c r="AB27" s="88"/>
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -3738,34 +4027,34 @@
       <c r="AI27" s="1"/>
     </row>
     <row r="28" spans="1:35" ht="12" customHeight="1">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
-      <c r="U28" s="86"/>
-      <c r="V28" s="86"/>
-      <c r="W28" s="86"/>
-      <c r="X28" s="86"/>
-      <c r="Y28" s="86"/>
-      <c r="Z28" s="86"/>
-      <c r="AA28" s="86"/>
-      <c r="AB28" s="87"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="87"/>
+      <c r="J28" s="87"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="87"/>
+      <c r="R28" s="87"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="87"/>
+      <c r="U28" s="87"/>
+      <c r="V28" s="87"/>
+      <c r="W28" s="87"/>
+      <c r="X28" s="87"/>
+      <c r="Y28" s="87"/>
+      <c r="Z28" s="87"/>
+      <c r="AA28" s="87"/>
+      <c r="AB28" s="88"/>
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
@@ -3775,34 +4064,34 @@
       <c r="AI28" s="1"/>
     </row>
     <row r="29" spans="1:35" ht="12" customHeight="1">
-      <c r="A29" s="85"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="87"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="87"/>
+      <c r="R29" s="87"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="87"/>
+      <c r="U29" s="87"/>
+      <c r="V29" s="87"/>
+      <c r="W29" s="87"/>
+      <c r="X29" s="87"/>
+      <c r="Y29" s="87"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="87"/>
+      <c r="AB29" s="88"/>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -3812,34 +4101,34 @@
       <c r="AI29" s="1"/>
     </row>
     <row r="30" spans="1:35" ht="12" customHeight="1">
-      <c r="A30" s="85"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
-      <c r="U30" s="86"/>
-      <c r="V30" s="86"/>
-      <c r="W30" s="86"/>
-      <c r="X30" s="86"/>
-      <c r="Y30" s="86"/>
-      <c r="Z30" s="86"/>
-      <c r="AA30" s="86"/>
-      <c r="AB30" s="87"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="87"/>
+      <c r="I30" s="87"/>
+      <c r="J30" s="87"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="87"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="87"/>
+      <c r="R30" s="87"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="87"/>
+      <c r="U30" s="87"/>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="87"/>
+      <c r="AB30" s="88"/>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
@@ -3849,34 +4138,34 @@
       <c r="AI30" s="1"/>
     </row>
     <row r="31" spans="1:35" ht="12" customHeight="1">
-      <c r="A31" s="85"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="87"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="87"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="87"/>
+      <c r="H31" s="87"/>
+      <c r="I31" s="87"/>
+      <c r="J31" s="87"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
+      <c r="N31" s="87"/>
+      <c r="O31" s="87"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="87"/>
+      <c r="R31" s="87"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="87"/>
+      <c r="U31" s="87"/>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="87"/>
+      <c r="AB31" s="88"/>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
@@ -3886,34 +4175,34 @@
       <c r="AI31" s="1"/>
     </row>
     <row r="32" spans="1:35" ht="12" customHeight="1">
-      <c r="A32" s="85"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
-      <c r="U32" s="86"/>
-      <c r="V32" s="86"/>
-      <c r="W32" s="86"/>
-      <c r="X32" s="86"/>
-      <c r="Y32" s="86"/>
-      <c r="Z32" s="86"/>
-      <c r="AA32" s="86"/>
-      <c r="AB32" s="87"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="88"/>
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
@@ -3923,34 +4212,34 @@
       <c r="AI32" s="1"/>
     </row>
     <row r="33" spans="1:35" ht="12" customHeight="1">
-      <c r="A33" s="85"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
-      <c r="U33" s="86"/>
-      <c r="V33" s="86"/>
-      <c r="W33" s="86"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="86"/>
-      <c r="Z33" s="86"/>
-      <c r="AA33" s="86"/>
-      <c r="AB33" s="87"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="87"/>
+      <c r="AB33" s="88"/>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
@@ -3960,34 +4249,34 @@
       <c r="AI33" s="1"/>
     </row>
     <row r="34" spans="1:35" ht="12" customHeight="1">
-      <c r="A34" s="85"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="86"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="86"/>
-      <c r="I34" s="86"/>
-      <c r="J34" s="86"/>
-      <c r="K34" s="86"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
-      <c r="N34" s="86"/>
-      <c r="O34" s="86"/>
-      <c r="P34" s="86"/>
-      <c r="Q34" s="86"/>
-      <c r="R34" s="86"/>
-      <c r="S34" s="86"/>
-      <c r="T34" s="86"/>
-      <c r="U34" s="86"/>
-      <c r="V34" s="86"/>
-      <c r="W34" s="86"/>
-      <c r="X34" s="86"/>
-      <c r="Y34" s="86"/>
-      <c r="Z34" s="86"/>
-      <c r="AA34" s="86"/>
-      <c r="AB34" s="87"/>
+      <c r="A34" s="86"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="87"/>
+      <c r="AB34" s="88"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
@@ -3997,34 +4286,34 @@
       <c r="AI34" s="1"/>
     </row>
     <row r="35" spans="1:35" ht="12" customHeight="1">
-      <c r="A35" s="85"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="86"/>
-      <c r="F35" s="86"/>
-      <c r="G35" s="86"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="86"/>
-      <c r="L35" s="86"/>
-      <c r="M35" s="86"/>
-      <c r="N35" s="86"/>
-      <c r="O35" s="86"/>
-      <c r="P35" s="86"/>
-      <c r="Q35" s="86"/>
-      <c r="R35" s="86"/>
-      <c r="S35" s="86"/>
-      <c r="T35" s="86"/>
-      <c r="U35" s="86"/>
-      <c r="V35" s="86"/>
-      <c r="W35" s="86"/>
-      <c r="X35" s="86"/>
-      <c r="Y35" s="86"/>
-      <c r="Z35" s="86"/>
-      <c r="AA35" s="86"/>
-      <c r="AB35" s="87"/>
+      <c r="A35" s="86"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="87"/>
+      <c r="L35" s="87"/>
+      <c r="M35" s="87"/>
+      <c r="N35" s="87"/>
+      <c r="O35" s="87"/>
+      <c r="P35" s="87"/>
+      <c r="Q35" s="87"/>
+      <c r="R35" s="87"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="87"/>
+      <c r="U35" s="87"/>
+      <c r="V35" s="87"/>
+      <c r="W35" s="87"/>
+      <c r="X35" s="87"/>
+      <c r="Y35" s="87"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="87"/>
+      <c r="AB35" s="88"/>
       <c r="AC35" s="1"/>
       <c r="AD35" s="1"/>
       <c r="AE35" s="1"/>
@@ -4034,34 +4323,34 @@
       <c r="AI35" s="1"/>
     </row>
     <row r="36" spans="1:35" ht="12" customHeight="1">
-      <c r="A36" s="85"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="86"/>
-      <c r="K36" s="86"/>
-      <c r="L36" s="86"/>
-      <c r="M36" s="86"/>
-      <c r="N36" s="86"/>
-      <c r="O36" s="86"/>
-      <c r="P36" s="86"/>
-      <c r="Q36" s="86"/>
-      <c r="R36" s="86"/>
-      <c r="S36" s="86"/>
-      <c r="T36" s="86"/>
-      <c r="U36" s="86"/>
-      <c r="V36" s="86"/>
-      <c r="W36" s="86"/>
-      <c r="X36" s="86"/>
-      <c r="Y36" s="86"/>
-      <c r="Z36" s="86"/>
-      <c r="AA36" s="86"/>
-      <c r="AB36" s="87"/>
+      <c r="A36" s="86"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="87"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="87"/>
+      <c r="J36" s="87"/>
+      <c r="K36" s="87"/>
+      <c r="L36" s="87"/>
+      <c r="M36" s="87"/>
+      <c r="N36" s="87"/>
+      <c r="O36" s="87"/>
+      <c r="P36" s="87"/>
+      <c r="Q36" s="87"/>
+      <c r="R36" s="87"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="87"/>
+      <c r="U36" s="87"/>
+      <c r="V36" s="87"/>
+      <c r="W36" s="87"/>
+      <c r="X36" s="87"/>
+      <c r="Y36" s="87"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="87"/>
+      <c r="AB36" s="88"/>
       <c r="AC36" s="1"/>
       <c r="AD36" s="1"/>
       <c r="AE36" s="1"/>
@@ -4071,34 +4360,34 @@
       <c r="AI36" s="1"/>
     </row>
     <row r="37" spans="1:35" ht="12" customHeight="1">
-      <c r="A37" s="85"/>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
-      <c r="J37" s="86"/>
-      <c r="K37" s="86"/>
-      <c r="L37" s="86"/>
-      <c r="M37" s="86"/>
-      <c r="N37" s="86"/>
-      <c r="O37" s="86"/>
-      <c r="P37" s="86"/>
-      <c r="Q37" s="86"/>
-      <c r="R37" s="86"/>
-      <c r="S37" s="86"/>
-      <c r="T37" s="86"/>
-      <c r="U37" s="86"/>
-      <c r="V37" s="86"/>
-      <c r="W37" s="86"/>
-      <c r="X37" s="86"/>
-      <c r="Y37" s="86"/>
-      <c r="Z37" s="86"/>
-      <c r="AA37" s="86"/>
-      <c r="AB37" s="87"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="87"/>
+      <c r="AB37" s="88"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
@@ -4108,34 +4397,34 @@
       <c r="AI37" s="1"/>
     </row>
     <row r="38" spans="1:35" ht="12" customHeight="1">
-      <c r="A38" s="88"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-      <c r="T38" s="89"/>
-      <c r="U38" s="89"/>
-      <c r="V38" s="89"/>
-      <c r="W38" s="89"/>
-      <c r="X38" s="89"/>
-      <c r="Y38" s="89"/>
-      <c r="Z38" s="89"/>
-      <c r="AA38" s="89"/>
-      <c r="AB38" s="90"/>
+      <c r="A38" s="89"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="90"/>
+      <c r="L38" s="90"/>
+      <c r="M38" s="90"/>
+      <c r="N38" s="90"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+      <c r="T38" s="90"/>
+      <c r="U38" s="90"/>
+      <c r="V38" s="90"/>
+      <c r="W38" s="90"/>
+      <c r="X38" s="90"/>
+      <c r="Y38" s="90"/>
+      <c r="Z38" s="90"/>
+      <c r="AA38" s="90"/>
+      <c r="AB38" s="91"/>
       <c r="AC38" s="1"/>
       <c r="AD38" s="1"/>
       <c r="AE38" s="1"/>
@@ -4192,17 +4481,17 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="98" t="s">
+      <c r="K40" s="99" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="89"/>
-      <c r="M40" s="89"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="89"/>
-      <c r="P40" s="89"/>
-      <c r="Q40" s="89"/>
-      <c r="R40" s="89"/>
-      <c r="S40" s="89"/>
+      <c r="L40" s="90"/>
+      <c r="M40" s="90"/>
+      <c r="N40" s="90"/>
+      <c r="O40" s="90"/>
+      <c r="P40" s="90"/>
+      <c r="Q40" s="90"/>
+      <c r="R40" s="90"/>
+      <c r="S40" s="90"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
@@ -4221,34 +4510,34 @@
       <c r="AI40" s="1"/>
     </row>
     <row r="41" spans="1:35" ht="12" customHeight="1">
-      <c r="A41" s="99"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="83"/>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-      <c r="N41" s="83"/>
-      <c r="O41" s="83"/>
-      <c r="P41" s="83"/>
-      <c r="Q41" s="83"/>
-      <c r="R41" s="83"/>
-      <c r="S41" s="83"/>
-      <c r="T41" s="83"/>
-      <c r="U41" s="83"/>
-      <c r="V41" s="83"/>
-      <c r="W41" s="83"/>
-      <c r="X41" s="83"/>
-      <c r="Y41" s="83"/>
-      <c r="Z41" s="83"/>
-      <c r="AA41" s="83"/>
-      <c r="AB41" s="84"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="84"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="84"/>
+      <c r="Q41" s="84"/>
+      <c r="R41" s="84"/>
+      <c r="S41" s="84"/>
+      <c r="T41" s="84"/>
+      <c r="U41" s="84"/>
+      <c r="V41" s="84"/>
+      <c r="W41" s="84"/>
+      <c r="X41" s="84"/>
+      <c r="Y41" s="84"/>
+      <c r="Z41" s="84"/>
+      <c r="AA41" s="84"/>
+      <c r="AB41" s="85"/>
       <c r="AC41" s="1"/>
       <c r="AD41" s="1"/>
       <c r="AE41" s="1"/>
@@ -4258,34 +4547,34 @@
       <c r="AI41" s="1"/>
     </row>
     <row r="42" spans="1:35" ht="12" customHeight="1">
-      <c r="A42" s="85"/>
-      <c r="B42" s="86"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="86"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="86"/>
-      <c r="I42" s="86"/>
-      <c r="J42" s="86"/>
-      <c r="K42" s="86"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="86"/>
-      <c r="O42" s="86"/>
-      <c r="P42" s="86"/>
-      <c r="Q42" s="86"/>
-      <c r="R42" s="86"/>
-      <c r="S42" s="86"/>
-      <c r="T42" s="86"/>
-      <c r="U42" s="86"/>
-      <c r="V42" s="86"/>
-      <c r="W42" s="86"/>
-      <c r="X42" s="86"/>
-      <c r="Y42" s="86"/>
-      <c r="Z42" s="86"/>
-      <c r="AA42" s="86"/>
-      <c r="AB42" s="87"/>
+      <c r="A42" s="86"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="87"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="87"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="87"/>
+      <c r="O42" s="87"/>
+      <c r="P42" s="87"/>
+      <c r="Q42" s="87"/>
+      <c r="R42" s="87"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="87"/>
+      <c r="U42" s="87"/>
+      <c r="V42" s="87"/>
+      <c r="W42" s="87"/>
+      <c r="X42" s="87"/>
+      <c r="Y42" s="87"/>
+      <c r="Z42" s="87"/>
+      <c r="AA42" s="87"/>
+      <c r="AB42" s="88"/>
       <c r="AC42" s="1"/>
       <c r="AD42" s="1"/>
       <c r="AE42" s="1"/>
@@ -4295,34 +4584,34 @@
       <c r="AI42" s="1"/>
     </row>
     <row r="43" spans="1:35" ht="12" customHeight="1">
-      <c r="A43" s="85"/>
-      <c r="B43" s="86"/>
-      <c r="C43" s="86"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="86"/>
-      <c r="K43" s="86"/>
-      <c r="L43" s="86"/>
-      <c r="M43" s="86"/>
-      <c r="N43" s="86"/>
-      <c r="O43" s="86"/>
-      <c r="P43" s="86"/>
-      <c r="Q43" s="86"/>
-      <c r="R43" s="86"/>
-      <c r="S43" s="86"/>
-      <c r="T43" s="86"/>
-      <c r="U43" s="86"/>
-      <c r="V43" s="86"/>
-      <c r="W43" s="86"/>
-      <c r="X43" s="86"/>
-      <c r="Y43" s="86"/>
-      <c r="Z43" s="86"/>
-      <c r="AA43" s="86"/>
-      <c r="AB43" s="87"/>
+      <c r="A43" s="86"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="87"/>
+      <c r="I43" s="87"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="87"/>
+      <c r="Q43" s="87"/>
+      <c r="R43" s="87"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="87"/>
+      <c r="U43" s="87"/>
+      <c r="V43" s="87"/>
+      <c r="W43" s="87"/>
+      <c r="X43" s="87"/>
+      <c r="Y43" s="87"/>
+      <c r="Z43" s="87"/>
+      <c r="AA43" s="87"/>
+      <c r="AB43" s="88"/>
       <c r="AC43" s="1"/>
       <c r="AD43" s="1"/>
       <c r="AE43" s="1"/>
@@ -4332,34 +4621,34 @@
       <c r="AI43" s="1"/>
     </row>
     <row r="44" spans="1:35" ht="12" customHeight="1">
-      <c r="A44" s="85"/>
-      <c r="B44" s="86"/>
-      <c r="C44" s="86"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="86"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="86"/>
-      <c r="H44" s="86"/>
-      <c r="I44" s="86"/>
-      <c r="J44" s="86"/>
-      <c r="K44" s="86"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
-      <c r="N44" s="86"/>
-      <c r="O44" s="86"/>
-      <c r="P44" s="86"/>
-      <c r="Q44" s="86"/>
-      <c r="R44" s="86"/>
-      <c r="S44" s="86"/>
-      <c r="T44" s="86"/>
-      <c r="U44" s="86"/>
-      <c r="V44" s="86"/>
-      <c r="W44" s="86"/>
-      <c r="X44" s="86"/>
-      <c r="Y44" s="86"/>
-      <c r="Z44" s="86"/>
-      <c r="AA44" s="86"/>
-      <c r="AB44" s="87"/>
+      <c r="A44" s="86"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="87"/>
+      <c r="H44" s="87"/>
+      <c r="I44" s="87"/>
+      <c r="J44" s="87"/>
+      <c r="K44" s="87"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="87"/>
+      <c r="Q44" s="87"/>
+      <c r="R44" s="87"/>
+      <c r="S44" s="87"/>
+      <c r="T44" s="87"/>
+      <c r="U44" s="87"/>
+      <c r="V44" s="87"/>
+      <c r="W44" s="87"/>
+      <c r="X44" s="87"/>
+      <c r="Y44" s="87"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="87"/>
+      <c r="AB44" s="88"/>
       <c r="AC44" s="1"/>
       <c r="AD44" s="1"/>
       <c r="AE44" s="1"/>
@@ -4369,34 +4658,34 @@
       <c r="AI44" s="1"/>
     </row>
     <row r="45" spans="1:35" ht="12" customHeight="1">
-      <c r="A45" s="85"/>
-      <c r="B45" s="86"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="86"/>
-      <c r="F45" s="86"/>
-      <c r="G45" s="86"/>
-      <c r="H45" s="86"/>
-      <c r="I45" s="86"/>
-      <c r="J45" s="86"/>
-      <c r="K45" s="86"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
-      <c r="N45" s="86"/>
-      <c r="O45" s="86"/>
-      <c r="P45" s="86"/>
-      <c r="Q45" s="86"/>
-      <c r="R45" s="86"/>
-      <c r="S45" s="86"/>
-      <c r="T45" s="86"/>
-      <c r="U45" s="86"/>
-      <c r="V45" s="86"/>
-      <c r="W45" s="86"/>
-      <c r="X45" s="86"/>
-      <c r="Y45" s="86"/>
-      <c r="Z45" s="86"/>
-      <c r="AA45" s="86"/>
-      <c r="AB45" s="87"/>
+      <c r="A45" s="86"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="87"/>
+      <c r="I45" s="87"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="87"/>
+      <c r="Q45" s="87"/>
+      <c r="R45" s="87"/>
+      <c r="S45" s="87"/>
+      <c r="T45" s="87"/>
+      <c r="U45" s="87"/>
+      <c r="V45" s="87"/>
+      <c r="W45" s="87"/>
+      <c r="X45" s="87"/>
+      <c r="Y45" s="87"/>
+      <c r="Z45" s="87"/>
+      <c r="AA45" s="87"/>
+      <c r="AB45" s="88"/>
       <c r="AC45" s="1"/>
       <c r="AD45" s="1"/>
       <c r="AE45" s="1"/>
@@ -4406,34 +4695,34 @@
       <c r="AI45" s="1"/>
     </row>
     <row r="46" spans="1:35" ht="12" customHeight="1">
-      <c r="A46" s="85"/>
-      <c r="B46" s="86"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="86"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
-      <c r="N46" s="86"/>
-      <c r="O46" s="86"/>
-      <c r="P46" s="86"/>
-      <c r="Q46" s="86"/>
-      <c r="R46" s="86"/>
-      <c r="S46" s="86"/>
-      <c r="T46" s="86"/>
-      <c r="U46" s="86"/>
-      <c r="V46" s="86"/>
-      <c r="W46" s="86"/>
-      <c r="X46" s="86"/>
-      <c r="Y46" s="86"/>
-      <c r="Z46" s="86"/>
-      <c r="AA46" s="86"/>
-      <c r="AB46" s="87"/>
+      <c r="A46" s="86"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="87"/>
+      <c r="I46" s="87"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="87"/>
+      <c r="N46" s="87"/>
+      <c r="O46" s="87"/>
+      <c r="P46" s="87"/>
+      <c r="Q46" s="87"/>
+      <c r="R46" s="87"/>
+      <c r="S46" s="87"/>
+      <c r="T46" s="87"/>
+      <c r="U46" s="87"/>
+      <c r="V46" s="87"/>
+      <c r="W46" s="87"/>
+      <c r="X46" s="87"/>
+      <c r="Y46" s="87"/>
+      <c r="Z46" s="87"/>
+      <c r="AA46" s="87"/>
+      <c r="AB46" s="88"/>
       <c r="AC46" s="1"/>
       <c r="AD46" s="1"/>
       <c r="AE46" s="1"/>
@@ -4443,34 +4732,34 @@
       <c r="AI46" s="1"/>
     </row>
     <row r="47" spans="1:35" ht="12" customHeight="1">
-      <c r="A47" s="85"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="86"/>
-      <c r="K47" s="86"/>
-      <c r="L47" s="86"/>
-      <c r="M47" s="86"/>
-      <c r="N47" s="86"/>
-      <c r="O47" s="86"/>
-      <c r="P47" s="86"/>
-      <c r="Q47" s="86"/>
-      <c r="R47" s="86"/>
-      <c r="S47" s="86"/>
-      <c r="T47" s="86"/>
-      <c r="U47" s="86"/>
-      <c r="V47" s="86"/>
-      <c r="W47" s="86"/>
-      <c r="X47" s="86"/>
-      <c r="Y47" s="86"/>
-      <c r="Z47" s="86"/>
-      <c r="AA47" s="86"/>
-      <c r="AB47" s="87"/>
+      <c r="A47" s="86"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="87"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
+      <c r="N47" s="87"/>
+      <c r="O47" s="87"/>
+      <c r="P47" s="87"/>
+      <c r="Q47" s="87"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="87"/>
+      <c r="W47" s="87"/>
+      <c r="X47" s="87"/>
+      <c r="Y47" s="87"/>
+      <c r="Z47" s="87"/>
+      <c r="AA47" s="87"/>
+      <c r="AB47" s="88"/>
       <c r="AC47" s="1"/>
       <c r="AD47" s="1"/>
       <c r="AE47" s="1"/>
@@ -4480,34 +4769,34 @@
       <c r="AI47" s="1"/>
     </row>
     <row r="48" spans="1:35" ht="12" customHeight="1">
-      <c r="A48" s="85"/>
-      <c r="B48" s="86"/>
-      <c r="C48" s="86"/>
-      <c r="D48" s="86"/>
-      <c r="E48" s="86"/>
-      <c r="F48" s="86"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="86"/>
-      <c r="I48" s="86"/>
-      <c r="J48" s="86"/>
-      <c r="K48" s="86"/>
-      <c r="L48" s="86"/>
-      <c r="M48" s="86"/>
-      <c r="N48" s="86"/>
-      <c r="O48" s="86"/>
-      <c r="P48" s="86"/>
-      <c r="Q48" s="86"/>
-      <c r="R48" s="86"/>
-      <c r="S48" s="86"/>
-      <c r="T48" s="86"/>
-      <c r="U48" s="86"/>
-      <c r="V48" s="86"/>
-      <c r="W48" s="86"/>
-      <c r="X48" s="86"/>
-      <c r="Y48" s="86"/>
-      <c r="Z48" s="86"/>
-      <c r="AA48" s="86"/>
-      <c r="AB48" s="87"/>
+      <c r="A48" s="86"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="87"/>
+      <c r="G48" s="87"/>
+      <c r="H48" s="87"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="87"/>
+      <c r="K48" s="87"/>
+      <c r="L48" s="87"/>
+      <c r="M48" s="87"/>
+      <c r="N48" s="87"/>
+      <c r="O48" s="87"/>
+      <c r="P48" s="87"/>
+      <c r="Q48" s="87"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="87"/>
+      <c r="W48" s="87"/>
+      <c r="X48" s="87"/>
+      <c r="Y48" s="87"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="87"/>
+      <c r="AB48" s="88"/>
       <c r="AC48" s="1"/>
       <c r="AD48" s="1"/>
       <c r="AE48" s="1"/>
@@ -4517,34 +4806,34 @@
       <c r="AI48" s="1"/>
     </row>
     <row r="49" spans="1:35" ht="12" customHeight="1">
-      <c r="A49" s="85"/>
-      <c r="B49" s="86"/>
-      <c r="C49" s="86"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
-      <c r="G49" s="86"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
-      <c r="J49" s="86"/>
-      <c r="K49" s="86"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="86"/>
-      <c r="O49" s="86"/>
-      <c r="P49" s="86"/>
-      <c r="Q49" s="86"/>
-      <c r="R49" s="86"/>
-      <c r="S49" s="86"/>
-      <c r="T49" s="86"/>
-      <c r="U49" s="86"/>
-      <c r="V49" s="86"/>
-      <c r="W49" s="86"/>
-      <c r="X49" s="86"/>
-      <c r="Y49" s="86"/>
-      <c r="Z49" s="86"/>
-      <c r="AA49" s="86"/>
-      <c r="AB49" s="87"/>
+      <c r="A49" s="86"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="87"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="87"/>
+      <c r="M49" s="87"/>
+      <c r="N49" s="87"/>
+      <c r="O49" s="87"/>
+      <c r="P49" s="87"/>
+      <c r="Q49" s="87"/>
+      <c r="R49" s="87"/>
+      <c r="S49" s="87"/>
+      <c r="T49" s="87"/>
+      <c r="U49" s="87"/>
+      <c r="V49" s="87"/>
+      <c r="W49" s="87"/>
+      <c r="X49" s="87"/>
+      <c r="Y49" s="87"/>
+      <c r="Z49" s="87"/>
+      <c r="AA49" s="87"/>
+      <c r="AB49" s="88"/>
       <c r="AC49" s="1"/>
       <c r="AD49" s="1"/>
       <c r="AE49" s="1"/>
@@ -4554,34 +4843,34 @@
       <c r="AI49" s="1"/>
     </row>
     <row r="50" spans="1:35" ht="12" customHeight="1">
-      <c r="A50" s="85"/>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
-      <c r="O50" s="86"/>
-      <c r="P50" s="86"/>
-      <c r="Q50" s="86"/>
-      <c r="R50" s="86"/>
-      <c r="S50" s="86"/>
-      <c r="T50" s="86"/>
-      <c r="U50" s="86"/>
-      <c r="V50" s="86"/>
-      <c r="W50" s="86"/>
-      <c r="X50" s="86"/>
-      <c r="Y50" s="86"/>
-      <c r="Z50" s="86"/>
-      <c r="AA50" s="86"/>
-      <c r="AB50" s="87"/>
+      <c r="A50" s="86"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="87"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="87"/>
+      <c r="M50" s="87"/>
+      <c r="N50" s="87"/>
+      <c r="O50" s="87"/>
+      <c r="P50" s="87"/>
+      <c r="Q50" s="87"/>
+      <c r="R50" s="87"/>
+      <c r="S50" s="87"/>
+      <c r="T50" s="87"/>
+      <c r="U50" s="87"/>
+      <c r="V50" s="87"/>
+      <c r="W50" s="87"/>
+      <c r="X50" s="87"/>
+      <c r="Y50" s="87"/>
+      <c r="Z50" s="87"/>
+      <c r="AA50" s="87"/>
+      <c r="AB50" s="88"/>
       <c r="AC50" s="1"/>
       <c r="AD50" s="1"/>
       <c r="AE50" s="1"/>
@@ -4591,34 +4880,34 @@
       <c r="AI50" s="1"/>
     </row>
     <row r="51" spans="1:35" ht="12" customHeight="1">
-      <c r="A51" s="85"/>
-      <c r="B51" s="86"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="86"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="86"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
-      <c r="J51" s="86"/>
-      <c r="K51" s="86"/>
-      <c r="L51" s="86"/>
-      <c r="M51" s="86"/>
-      <c r="N51" s="86"/>
-      <c r="O51" s="86"/>
-      <c r="P51" s="86"/>
-      <c r="Q51" s="86"/>
-      <c r="R51" s="86"/>
-      <c r="S51" s="86"/>
-      <c r="T51" s="86"/>
-      <c r="U51" s="86"/>
-      <c r="V51" s="86"/>
-      <c r="W51" s="86"/>
-      <c r="X51" s="86"/>
-      <c r="Y51" s="86"/>
-      <c r="Z51" s="86"/>
-      <c r="AA51" s="86"/>
-      <c r="AB51" s="87"/>
+      <c r="A51" s="86"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="87"/>
+      <c r="I51" s="87"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="87"/>
+      <c r="M51" s="87"/>
+      <c r="N51" s="87"/>
+      <c r="O51" s="87"/>
+      <c r="P51" s="87"/>
+      <c r="Q51" s="87"/>
+      <c r="R51" s="87"/>
+      <c r="S51" s="87"/>
+      <c r="T51" s="87"/>
+      <c r="U51" s="87"/>
+      <c r="V51" s="87"/>
+      <c r="W51" s="87"/>
+      <c r="X51" s="87"/>
+      <c r="Y51" s="87"/>
+      <c r="Z51" s="87"/>
+      <c r="AA51" s="87"/>
+      <c r="AB51" s="88"/>
       <c r="AC51" s="1"/>
       <c r="AD51" s="1"/>
       <c r="AE51" s="1"/>
@@ -4628,34 +4917,34 @@
       <c r="AI51" s="1"/>
     </row>
     <row r="52" spans="1:35" ht="12" customHeight="1">
-      <c r="A52" s="85"/>
-      <c r="B52" s="86"/>
-      <c r="C52" s="86"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="86"/>
-      <c r="F52" s="86"/>
-      <c r="G52" s="86"/>
-      <c r="H52" s="86"/>
-      <c r="I52" s="86"/>
-      <c r="J52" s="86"/>
-      <c r="K52" s="86"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="86"/>
-      <c r="N52" s="86"/>
-      <c r="O52" s="86"/>
-      <c r="P52" s="86"/>
-      <c r="Q52" s="86"/>
-      <c r="R52" s="86"/>
-      <c r="S52" s="86"/>
-      <c r="T52" s="86"/>
-      <c r="U52" s="86"/>
-      <c r="V52" s="86"/>
-      <c r="W52" s="86"/>
-      <c r="X52" s="86"/>
-      <c r="Y52" s="86"/>
-      <c r="Z52" s="86"/>
-      <c r="AA52" s="86"/>
-      <c r="AB52" s="87"/>
+      <c r="A52" s="86"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="87"/>
+      <c r="S52" s="87"/>
+      <c r="T52" s="87"/>
+      <c r="U52" s="87"/>
+      <c r="V52" s="87"/>
+      <c r="W52" s="87"/>
+      <c r="X52" s="87"/>
+      <c r="Y52" s="87"/>
+      <c r="Z52" s="87"/>
+      <c r="AA52" s="87"/>
+      <c r="AB52" s="88"/>
       <c r="AC52" s="1"/>
       <c r="AD52" s="1"/>
       <c r="AE52" s="1"/>
@@ -4665,34 +4954,34 @@
       <c r="AI52" s="1"/>
     </row>
     <row r="53" spans="1:35" ht="12" customHeight="1">
-      <c r="A53" s="85"/>
-      <c r="B53" s="86"/>
-      <c r="C53" s="86"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="86"/>
-      <c r="F53" s="86"/>
-      <c r="G53" s="86"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
-      <c r="J53" s="86"/>
-      <c r="K53" s="86"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
-      <c r="N53" s="86"/>
-      <c r="O53" s="86"/>
-      <c r="P53" s="86"/>
-      <c r="Q53" s="86"/>
-      <c r="R53" s="86"/>
-      <c r="S53" s="86"/>
-      <c r="T53" s="86"/>
-      <c r="U53" s="86"/>
-      <c r="V53" s="86"/>
-      <c r="W53" s="86"/>
-      <c r="X53" s="86"/>
-      <c r="Y53" s="86"/>
-      <c r="Z53" s="86"/>
-      <c r="AA53" s="86"/>
-      <c r="AB53" s="87"/>
+      <c r="A53" s="86"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+      <c r="N53" s="87"/>
+      <c r="O53" s="87"/>
+      <c r="P53" s="87"/>
+      <c r="Q53" s="87"/>
+      <c r="R53" s="87"/>
+      <c r="S53" s="87"/>
+      <c r="T53" s="87"/>
+      <c r="U53" s="87"/>
+      <c r="V53" s="87"/>
+      <c r="W53" s="87"/>
+      <c r="X53" s="87"/>
+      <c r="Y53" s="87"/>
+      <c r="Z53" s="87"/>
+      <c r="AA53" s="87"/>
+      <c r="AB53" s="88"/>
       <c r="AC53" s="1"/>
       <c r="AD53" s="1"/>
       <c r="AE53" s="1"/>
@@ -4702,34 +4991,34 @@
       <c r="AI53" s="1"/>
     </row>
     <row r="54" spans="1:35" ht="12" customHeight="1">
-      <c r="A54" s="85"/>
-      <c r="B54" s="86"/>
-      <c r="C54" s="86"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="86"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="86"/>
-      <c r="I54" s="86"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="86"/>
-      <c r="L54" s="86"/>
-      <c r="M54" s="86"/>
-      <c r="N54" s="86"/>
-      <c r="O54" s="86"/>
-      <c r="P54" s="86"/>
-      <c r="Q54" s="86"/>
-      <c r="R54" s="86"/>
-      <c r="S54" s="86"/>
-      <c r="T54" s="86"/>
-      <c r="U54" s="86"/>
-      <c r="V54" s="86"/>
-      <c r="W54" s="86"/>
-      <c r="X54" s="86"/>
-      <c r="Y54" s="86"/>
-      <c r="Z54" s="86"/>
-      <c r="AA54" s="86"/>
-      <c r="AB54" s="87"/>
+      <c r="A54" s="86"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="87"/>
+      <c r="D54" s="87"/>
+      <c r="E54" s="87"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="87"/>
+      <c r="H54" s="87"/>
+      <c r="I54" s="87"/>
+      <c r="J54" s="87"/>
+      <c r="K54" s="87"/>
+      <c r="L54" s="87"/>
+      <c r="M54" s="87"/>
+      <c r="N54" s="87"/>
+      <c r="O54" s="87"/>
+      <c r="P54" s="87"/>
+      <c r="Q54" s="87"/>
+      <c r="R54" s="87"/>
+      <c r="S54" s="87"/>
+      <c r="T54" s="87"/>
+      <c r="U54" s="87"/>
+      <c r="V54" s="87"/>
+      <c r="W54" s="87"/>
+      <c r="X54" s="87"/>
+      <c r="Y54" s="87"/>
+      <c r="Z54" s="87"/>
+      <c r="AA54" s="87"/>
+      <c r="AB54" s="88"/>
       <c r="AC54" s="1"/>
       <c r="AD54" s="1"/>
       <c r="AE54" s="1"/>
@@ -4739,34 +5028,34 @@
       <c r="AI54" s="1"/>
     </row>
     <row r="55" spans="1:35" ht="12" customHeight="1">
-      <c r="A55" s="85"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="86"/>
-      <c r="O55" s="86"/>
-      <c r="P55" s="86"/>
-      <c r="Q55" s="86"/>
-      <c r="R55" s="86"/>
-      <c r="S55" s="86"/>
-      <c r="T55" s="86"/>
-      <c r="U55" s="86"/>
-      <c r="V55" s="86"/>
-      <c r="W55" s="86"/>
-      <c r="X55" s="86"/>
-      <c r="Y55" s="86"/>
-      <c r="Z55" s="86"/>
-      <c r="AA55" s="86"/>
-      <c r="AB55" s="87"/>
+      <c r="A55" s="86"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="87"/>
+      <c r="H55" s="87"/>
+      <c r="I55" s="87"/>
+      <c r="J55" s="87"/>
+      <c r="K55" s="87"/>
+      <c r="L55" s="87"/>
+      <c r="M55" s="87"/>
+      <c r="N55" s="87"/>
+      <c r="O55" s="87"/>
+      <c r="P55" s="87"/>
+      <c r="Q55" s="87"/>
+      <c r="R55" s="87"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="87"/>
+      <c r="V55" s="87"/>
+      <c r="W55" s="87"/>
+      <c r="X55" s="87"/>
+      <c r="Y55" s="87"/>
+      <c r="Z55" s="87"/>
+      <c r="AA55" s="87"/>
+      <c r="AB55" s="88"/>
       <c r="AC55" s="1"/>
       <c r="AD55" s="1"/>
       <c r="AE55" s="1"/>
@@ -4776,34 +5065,34 @@
       <c r="AI55" s="1"/>
     </row>
     <row r="56" spans="1:35" ht="12" customHeight="1">
-      <c r="A56" s="85"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="86"/>
-      <c r="I56" s="86"/>
-      <c r="J56" s="86"/>
-      <c r="K56" s="86"/>
-      <c r="L56" s="86"/>
-      <c r="M56" s="86"/>
-      <c r="N56" s="86"/>
-      <c r="O56" s="86"/>
-      <c r="P56" s="86"/>
-      <c r="Q56" s="86"/>
-      <c r="R56" s="86"/>
-      <c r="S56" s="86"/>
-      <c r="T56" s="86"/>
-      <c r="U56" s="86"/>
-      <c r="V56" s="86"/>
-      <c r="W56" s="86"/>
-      <c r="X56" s="86"/>
-      <c r="Y56" s="86"/>
-      <c r="Z56" s="86"/>
-      <c r="AA56" s="86"/>
-      <c r="AB56" s="87"/>
+      <c r="A56" s="86"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="87"/>
+      <c r="H56" s="87"/>
+      <c r="I56" s="87"/>
+      <c r="J56" s="87"/>
+      <c r="K56" s="87"/>
+      <c r="L56" s="87"/>
+      <c r="M56" s="87"/>
+      <c r="N56" s="87"/>
+      <c r="O56" s="87"/>
+      <c r="P56" s="87"/>
+      <c r="Q56" s="87"/>
+      <c r="R56" s="87"/>
+      <c r="S56" s="87"/>
+      <c r="T56" s="87"/>
+      <c r="U56" s="87"/>
+      <c r="V56" s="87"/>
+      <c r="W56" s="87"/>
+      <c r="X56" s="87"/>
+      <c r="Y56" s="87"/>
+      <c r="Z56" s="87"/>
+      <c r="AA56" s="87"/>
+      <c r="AB56" s="88"/>
       <c r="AC56" s="1"/>
       <c r="AD56" s="1"/>
       <c r="AE56" s="1"/>
@@ -4813,34 +5102,34 @@
       <c r="AI56" s="1"/>
     </row>
     <row r="57" spans="1:35" ht="12" customHeight="1">
-      <c r="A57" s="85"/>
-      <c r="B57" s="86"/>
-      <c r="C57" s="86"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="86"/>
-      <c r="F57" s="86"/>
-      <c r="G57" s="86"/>
-      <c r="H57" s="86"/>
-      <c r="I57" s="86"/>
-      <c r="J57" s="86"/>
-      <c r="K57" s="86"/>
-      <c r="L57" s="86"/>
-      <c r="M57" s="86"/>
-      <c r="N57" s="86"/>
-      <c r="O57" s="86"/>
-      <c r="P57" s="86"/>
-      <c r="Q57" s="86"/>
-      <c r="R57" s="86"/>
-      <c r="S57" s="86"/>
-      <c r="T57" s="86"/>
-      <c r="U57" s="86"/>
-      <c r="V57" s="86"/>
-      <c r="W57" s="86"/>
-      <c r="X57" s="86"/>
-      <c r="Y57" s="86"/>
-      <c r="Z57" s="86"/>
-      <c r="AA57" s="86"/>
-      <c r="AB57" s="87"/>
+      <c r="A57" s="86"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="87"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="87"/>
+      <c r="K57" s="87"/>
+      <c r="L57" s="87"/>
+      <c r="M57" s="87"/>
+      <c r="N57" s="87"/>
+      <c r="O57" s="87"/>
+      <c r="P57" s="87"/>
+      <c r="Q57" s="87"/>
+      <c r="R57" s="87"/>
+      <c r="S57" s="87"/>
+      <c r="T57" s="87"/>
+      <c r="U57" s="87"/>
+      <c r="V57" s="87"/>
+      <c r="W57" s="87"/>
+      <c r="X57" s="87"/>
+      <c r="Y57" s="87"/>
+      <c r="Z57" s="87"/>
+      <c r="AA57" s="87"/>
+      <c r="AB57" s="88"/>
       <c r="AC57" s="1"/>
       <c r="AD57" s="1"/>
       <c r="AE57" s="1"/>
@@ -4850,34 +5139,34 @@
       <c r="AI57" s="1"/>
     </row>
     <row r="58" spans="1:35" ht="12" customHeight="1">
-      <c r="A58" s="85"/>
-      <c r="B58" s="86"/>
-      <c r="C58" s="86"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="86"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="86"/>
-      <c r="I58" s="86"/>
-      <c r="J58" s="86"/>
-      <c r="K58" s="86"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86"/>
-      <c r="N58" s="86"/>
-      <c r="O58" s="86"/>
-      <c r="P58" s="86"/>
-      <c r="Q58" s="86"/>
-      <c r="R58" s="86"/>
-      <c r="S58" s="86"/>
-      <c r="T58" s="86"/>
-      <c r="U58" s="86"/>
-      <c r="V58" s="86"/>
-      <c r="W58" s="86"/>
-      <c r="X58" s="86"/>
-      <c r="Y58" s="86"/>
-      <c r="Z58" s="86"/>
-      <c r="AA58" s="86"/>
-      <c r="AB58" s="87"/>
+      <c r="A58" s="86"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="87"/>
+      <c r="M58" s="87"/>
+      <c r="N58" s="87"/>
+      <c r="O58" s="87"/>
+      <c r="P58" s="87"/>
+      <c r="Q58" s="87"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="87"/>
+      <c r="V58" s="87"/>
+      <c r="W58" s="87"/>
+      <c r="X58" s="87"/>
+      <c r="Y58" s="87"/>
+      <c r="Z58" s="87"/>
+      <c r="AA58" s="87"/>
+      <c r="AB58" s="88"/>
       <c r="AC58" s="1"/>
       <c r="AD58" s="1"/>
       <c r="AE58" s="1"/>
@@ -4887,34 +5176,34 @@
       <c r="AI58" s="1"/>
     </row>
     <row r="59" spans="1:35" ht="12" customHeight="1">
-      <c r="A59" s="85"/>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="86"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="86"/>
-      <c r="P59" s="86"/>
-      <c r="Q59" s="86"/>
-      <c r="R59" s="86"/>
-      <c r="S59" s="86"/>
-      <c r="T59" s="86"/>
-      <c r="U59" s="86"/>
-      <c r="V59" s="86"/>
-      <c r="W59" s="86"/>
-      <c r="X59" s="86"/>
-      <c r="Y59" s="86"/>
-      <c r="Z59" s="86"/>
-      <c r="AA59" s="86"/>
-      <c r="AB59" s="87"/>
+      <c r="A59" s="86"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="F59" s="87"/>
+      <c r="G59" s="87"/>
+      <c r="H59" s="87"/>
+      <c r="I59" s="87"/>
+      <c r="J59" s="87"/>
+      <c r="K59" s="87"/>
+      <c r="L59" s="87"/>
+      <c r="M59" s="87"/>
+      <c r="N59" s="87"/>
+      <c r="O59" s="87"/>
+      <c r="P59" s="87"/>
+      <c r="Q59" s="87"/>
+      <c r="R59" s="87"/>
+      <c r="S59" s="87"/>
+      <c r="T59" s="87"/>
+      <c r="U59" s="87"/>
+      <c r="V59" s="87"/>
+      <c r="W59" s="87"/>
+      <c r="X59" s="87"/>
+      <c r="Y59" s="87"/>
+      <c r="Z59" s="87"/>
+      <c r="AA59" s="87"/>
+      <c r="AB59" s="88"/>
       <c r="AC59" s="1"/>
       <c r="AD59" s="1"/>
       <c r="AE59" s="1"/>
@@ -4924,34 +5213,34 @@
       <c r="AI59" s="1"/>
     </row>
     <row r="60" spans="1:35" ht="12" customHeight="1">
-      <c r="A60" s="88"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="89"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="89"/>
-      <c r="M60" s="89"/>
-      <c r="N60" s="89"/>
-      <c r="O60" s="89"/>
-      <c r="P60" s="89"/>
-      <c r="Q60" s="89"/>
-      <c r="R60" s="89"/>
-      <c r="S60" s="89"/>
-      <c r="T60" s="89"/>
-      <c r="U60" s="89"/>
-      <c r="V60" s="89"/>
-      <c r="W60" s="89"/>
-      <c r="X60" s="89"/>
-      <c r="Y60" s="89"/>
-      <c r="Z60" s="89"/>
-      <c r="AA60" s="89"/>
-      <c r="AB60" s="90"/>
+      <c r="A60" s="89"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="90"/>
+      <c r="E60" s="90"/>
+      <c r="F60" s="90"/>
+      <c r="G60" s="90"/>
+      <c r="H60" s="90"/>
+      <c r="I60" s="90"/>
+      <c r="J60" s="90"/>
+      <c r="K60" s="90"/>
+      <c r="L60" s="90"/>
+      <c r="M60" s="90"/>
+      <c r="N60" s="90"/>
+      <c r="O60" s="90"/>
+      <c r="P60" s="90"/>
+      <c r="Q60" s="90"/>
+      <c r="R60" s="90"/>
+      <c r="S60" s="90"/>
+      <c r="T60" s="90"/>
+      <c r="U60" s="90"/>
+      <c r="V60" s="90"/>
+      <c r="W60" s="90"/>
+      <c r="X60" s="90"/>
+      <c r="Y60" s="90"/>
+      <c r="Z60" s="90"/>
+      <c r="AA60" s="90"/>
+      <c r="AB60" s="91"/>
       <c r="AC60" s="1"/>
       <c r="AD60" s="1"/>
       <c r="AE60" s="1"/>
@@ -4999,7 +5288,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="U10:X10"/>
     <mergeCell ref="K16:S16"/>
     <mergeCell ref="A17:AB38"/>
     <mergeCell ref="A41:AB60"/>
@@ -5031,23 +5319,24 @@
     <mergeCell ref="U7:W7"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="F8:T8"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:AB3"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:T5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="U10:X10"/>
     <mergeCell ref="Y11:AB11"/>
     <mergeCell ref="Y10:AB10"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="X8:AB8"/>
     <mergeCell ref="U8:W8"/>
     <mergeCell ref="U11:X11"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:T5"/>
-    <mergeCell ref="A4:E4"/>
     <mergeCell ref="W5:AB5"/>
     <mergeCell ref="W4:AB4"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:AB3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A15" r:id="rId1" display="http://www.fattocs.com.br/download/GuiaPlanilhaIFPUG.pdf"/>
@@ -5063,8 +5352,8 @@
   <dimension ref="A1:T230"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A53" sqref="A53:F53"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A132" sqref="A132:O138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1"/>
@@ -5090,20 +5379,20 @@
       <c r="A1" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -5112,20 +5401,20 @@
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
       <c r="A2" s="114"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
@@ -5134,20 +5423,20 @@
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1">
       <c r="A3" s="114"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86"/>
-      <c r="O3" s="86"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
@@ -5159,80 +5448,80 @@
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="112" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="81"/>
-      <c r="S4" s="81"/>
-      <c r="T4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="80"/>
     </row>
     <row r="5" spans="1:20" ht="15" customHeight="1">
       <c r="A5" s="115" t="str">
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="112" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="81"/>
-      <c r="T5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="80"/>
     </row>
     <row r="6" spans="1:20" ht="15" customHeight="1">
       <c r="A6" s="115" t="str">
         <f>Contagem!A4&amp;" : "&amp;Contagem!F4</f>
         <v xml:space="preserve">Empresa : </v>
       </c>
-      <c r="B6" s="81"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="79"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="80"/>
       <c r="F6" s="112" t="str">
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="125" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 226.800,00</v>
       </c>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="91"/>
       <c r="N6" s="117" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 567</v>
@@ -5248,11 +5537,11 @@
       <c r="A7" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="79"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="12" t="s">
         <v>27</v>
       </c>
@@ -5621,10 +5910,10 @@
       <c r="A15" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
       <c r="F15" s="122"/>
       <c r="G15" s="16" t="s">
         <v>44</v>
@@ -5668,10 +5957,10 @@
       <c r="A16" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
       <c r="F16" s="122"/>
       <c r="G16" s="16" t="s">
         <v>48</v>
@@ -5713,10 +6002,10 @@
     </row>
     <row r="17" spans="1:20" ht="18" customHeight="1">
       <c r="A17" s="121"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
       <c r="F17" s="122"/>
       <c r="G17" s="16"/>
       <c r="H17" s="17"/>
@@ -5737,10 +6026,10 @@
       <c r="A18" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
       <c r="F18" s="106"/>
       <c r="G18" s="18"/>
       <c r="H18" s="17" t="s">
@@ -5775,10 +6064,10 @@
       <c r="A19" s="105" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
       <c r="F19" s="106"/>
       <c r="G19" s="16" t="s">
         <v>36</v>
@@ -5822,10 +6111,10 @@
       <c r="A20" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="106"/>
       <c r="G20" s="16" t="s">
         <v>39</v>
@@ -5869,10 +6158,10 @@
       <c r="A21" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
       <c r="F21" s="106"/>
       <c r="G21" s="16" t="s">
         <v>39</v>
@@ -5916,10 +6205,10 @@
       <c r="A22" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
       <c r="F22" s="106"/>
       <c r="G22" s="16" t="s">
         <v>44</v>
@@ -5963,10 +6252,10 @@
       <c r="A23" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
       <c r="F23" s="106"/>
       <c r="G23" s="16" t="s">
         <v>44</v>
@@ -6927,10 +7216,10 @@
       <c r="A46" s="105" t="s">
         <v>158</v>
       </c>
-      <c r="B46" s="81"/>
-      <c r="C46" s="81"/>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="79"/>
+      <c r="E46" s="79"/>
       <c r="F46" s="106"/>
       <c r="G46" s="18"/>
       <c r="H46" s="17" t="s">
@@ -6965,10 +7254,10 @@
       <c r="A47" s="105" t="s">
         <v>159</v>
       </c>
-      <c r="B47" s="81"/>
-      <c r="C47" s="81"/>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="79"/>
+      <c r="E47" s="79"/>
       <c r="F47" s="106"/>
       <c r="G47" s="18" t="s">
         <v>36</v>
@@ -7012,10 +7301,10 @@
       <c r="A48" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="81"/>
-      <c r="C48" s="81"/>
-      <c r="D48" s="81"/>
-      <c r="E48" s="81"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="79"/>
+      <c r="E48" s="79"/>
       <c r="F48" s="106"/>
       <c r="G48" s="18" t="s">
         <v>39</v>
@@ -7059,10 +7348,10 @@
       <c r="A49" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="81"/>
-      <c r="C49" s="81"/>
-      <c r="D49" s="81"/>
-      <c r="E49" s="81"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="79"/>
+      <c r="D49" s="79"/>
+      <c r="E49" s="79"/>
       <c r="F49" s="106"/>
       <c r="G49" s="18" t="s">
         <v>39</v>
@@ -7106,10 +7395,10 @@
       <c r="A50" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="79"/>
       <c r="F50" s="106"/>
       <c r="G50" s="18" t="s">
         <v>44</v>
@@ -7153,10 +7442,10 @@
       <c r="A51" s="105" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="81"/>
-      <c r="C51" s="81"/>
-      <c r="D51" s="81"/>
-      <c r="E51" s="81"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="79"/>
+      <c r="E51" s="79"/>
       <c r="F51" s="106"/>
       <c r="G51" s="18" t="s">
         <v>44</v>
@@ -7222,7 +7511,7 @@
         <v>EEL</v>
       </c>
       <c r="L52" s="19" t="str">
-        <f t="shared" ref="L52" si="12">IF(OR(ISBLANK(I52),ISBLANK(J52)),IF(OR(G52="ALI",G52="AIE"),"L",IF(ISBLANK(G52),"","A")),IF(G52="EE",IF(J52&gt;=3,IF(I52&gt;=5,"H","A"),IF(J52&gt;=2,IF(I52&gt;=16,"H",IF(I52&lt;=4,"L","A")),IF(I52&lt;=15,"L","A"))),IF(OR(G52="SE",G52="CE"),IF(J52&gt;=4,IF(I52&gt;=6,"H","A"),IF(J52&gt;=2,IF(I52&gt;=20,"H",IF(I52&lt;=5,"L","A")),IF(I52&lt;=19,"L","A"))),IF(OR(G52="ALI",G52="AIE"),IF(J52&gt;=6,IF(I52&gt;=20,"H","A"),IF(J52&gt;=2,IF(I52&gt;=51,"H",IF(I52&lt;=19,"L","A")),IF(I52&lt;=50,"L","A")))))))</f>
+        <f>IF(OR(ISBLANK(I52),ISBLANK(J52)),IF(OR(G52="ALI",G52="AIE"),"L",IF(ISBLANK(G52),"","A")),IF(G52="EE",IF(J52&gt;=3,IF(I52&gt;=5,"H","A"),IF(J52&gt;=2,IF(I52&gt;=16,"H",IF(I52&lt;=4,"L","A")),IF(I52&lt;=15,"L","A"))),IF(OR(G52="SE",G52="CE"),IF(J52&gt;=4,IF(I52&gt;=6,"H","A"),IF(J52&gt;=2,IF(I52&gt;=20,"H",IF(I52&lt;=5,"L","A")),IF(I52&lt;=19,"L","A"))),IF(OR(G52="ALI",G52="AIE"),IF(J52&gt;=6,IF(I52&gt;=20,"H","A"),IF(J52&gt;=2,IF(I52&gt;=51,"H",IF(I52&lt;=19,"L","A")),IF(I52&lt;=50,"L","A")))))))</f>
         <v>L</v>
       </c>
       <c r="M52" s="20" t="str">
@@ -7230,7 +7519,7 @@
         <v>Baixa</v>
       </c>
       <c r="N52" s="21">
-        <f t="shared" ref="N52" si="13">IF(ISBLANK(G52),"",IF(G52="ALI",IF(L52="L",7,IF(L52="A",10,15)),IF(G52="AIE",IF(L52="L",5,IF(L52="A",7,10)),IF(G52="SE",IF(L52="L",4,IF(L52="A",5,7)),IF(OR(G52="EE",G52="CE"),IF(L52="L",3,IF(L52="A",4,6)))))))</f>
+        <f>IF(ISBLANK(G52),"",IF(G52="ALI",IF(L52="L",7,IF(L52="A",10,15)),IF(G52="AIE",IF(L52="L",5,IF(L52="A",7,10)),IF(G52="SE",IF(L52="L",4,IF(L52="A",5,7)),IF(OR(G52="EE",G52="CE"),IF(L52="L",3,IF(L52="A",4,6)))))))</f>
         <v>3</v>
       </c>
       <c r="O52" s="22">
@@ -10429,10 +10718,10 @@
       <c r="A129" s="121" t="s">
         <v>110</v>
       </c>
-      <c r="B129" s="83"/>
-      <c r="C129" s="83"/>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
+      <c r="B129" s="84"/>
+      <c r="C129" s="84"/>
+      <c r="D129" s="84"/>
+      <c r="E129" s="84"/>
       <c r="F129" s="122"/>
       <c r="G129" s="16" t="s">
         <v>39</v>
@@ -10470,10 +10759,10 @@
     </row>
     <row r="130" spans="1:20" ht="18" customHeight="1">
       <c r="A130" s="121"/>
-      <c r="B130" s="83"/>
-      <c r="C130" s="83"/>
-      <c r="D130" s="83"/>
-      <c r="E130" s="83"/>
+      <c r="B130" s="84"/>
+      <c r="C130" s="84"/>
+      <c r="D130" s="84"/>
+      <c r="E130" s="84"/>
       <c r="F130" s="122"/>
       <c r="G130" s="16"/>
       <c r="H130" s="17" t="s">
@@ -10845,10 +11134,10 @@
     </row>
     <row r="139" spans="1:20" ht="18" customHeight="1">
       <c r="A139" s="121"/>
-      <c r="B139" s="83"/>
-      <c r="C139" s="83"/>
-      <c r="D139" s="83"/>
-      <c r="E139" s="83"/>
+      <c r="B139" s="84"/>
+      <c r="C139" s="84"/>
+      <c r="D139" s="84"/>
+      <c r="E139" s="84"/>
       <c r="F139" s="122"/>
       <c r="G139" s="16"/>
       <c r="H139" s="17" t="s">
@@ -10883,10 +11172,10 @@
       <c r="A140" s="121" t="s">
         <v>119</v>
       </c>
-      <c r="B140" s="83"/>
-      <c r="C140" s="83"/>
-      <c r="D140" s="83"/>
-      <c r="E140" s="83"/>
+      <c r="B140" s="84"/>
+      <c r="C140" s="84"/>
+      <c r="D140" s="84"/>
+      <c r="E140" s="84"/>
       <c r="F140" s="122"/>
       <c r="G140" s="16"/>
       <c r="H140" s="17" t="s">
@@ -10921,10 +11210,10 @@
       <c r="A141" s="121" t="s">
         <v>120</v>
       </c>
-      <c r="B141" s="83"/>
-      <c r="C141" s="83"/>
-      <c r="D141" s="83"/>
-      <c r="E141" s="83"/>
+      <c r="B141" s="84"/>
+      <c r="C141" s="84"/>
+      <c r="D141" s="84"/>
+      <c r="E141" s="84"/>
       <c r="F141" s="122"/>
       <c r="G141" s="16" t="s">
         <v>36</v>
@@ -10964,10 +11253,10 @@
       <c r="A142" s="121" t="s">
         <v>121</v>
       </c>
-      <c r="B142" s="83"/>
-      <c r="C142" s="83"/>
-      <c r="D142" s="83"/>
-      <c r="E142" s="83"/>
+      <c r="B142" s="84"/>
+      <c r="C142" s="84"/>
+      <c r="D142" s="84"/>
+      <c r="E142" s="84"/>
       <c r="F142" s="122"/>
       <c r="G142" s="16" t="s">
         <v>39</v>
@@ -11005,10 +11294,10 @@
     </row>
     <row r="143" spans="1:20" ht="18" customHeight="1">
       <c r="A143" s="121"/>
-      <c r="B143" s="83"/>
-      <c r="C143" s="83"/>
-      <c r="D143" s="83"/>
-      <c r="E143" s="83"/>
+      <c r="B143" s="84"/>
+      <c r="C143" s="84"/>
+      <c r="D143" s="84"/>
+      <c r="E143" s="84"/>
       <c r="F143" s="122"/>
       <c r="G143" s="16"/>
       <c r="H143" s="17" t="s">
@@ -11337,10 +11626,10 @@
     </row>
     <row r="151" spans="1:20" ht="18" customHeight="1">
       <c r="A151" s="121"/>
-      <c r="B151" s="83"/>
-      <c r="C151" s="83"/>
-      <c r="D151" s="83"/>
-      <c r="E151" s="83"/>
+      <c r="B151" s="84"/>
+      <c r="C151" s="84"/>
+      <c r="D151" s="84"/>
+      <c r="E151" s="84"/>
       <c r="F151" s="122"/>
       <c r="G151" s="16"/>
       <c r="H151" s="17" t="s">
@@ -11669,10 +11958,10 @@
     </row>
     <row r="159" spans="1:20" ht="18" customHeight="1">
       <c r="A159" s="126"/>
-      <c r="B159" s="86"/>
-      <c r="C159" s="86"/>
-      <c r="D159" s="86"/>
-      <c r="E159" s="86"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="87"/>
+      <c r="D159" s="87"/>
+      <c r="E159" s="87"/>
       <c r="F159" s="127"/>
       <c r="G159" s="16"/>
       <c r="H159" s="17" t="s">
@@ -12001,10 +12290,10 @@
     </row>
     <row r="167" spans="1:20" ht="18" customHeight="1">
       <c r="A167" s="126"/>
-      <c r="B167" s="86"/>
-      <c r="C167" s="86"/>
-      <c r="D167" s="86"/>
-      <c r="E167" s="86"/>
+      <c r="B167" s="87"/>
+      <c r="C167" s="87"/>
+      <c r="D167" s="87"/>
+      <c r="E167" s="87"/>
       <c r="F167" s="127"/>
       <c r="G167" s="16"/>
       <c r="H167" s="17" t="s">
@@ -14501,18 +14790,11 @@
     <mergeCell ref="P19:T19"/>
     <mergeCell ref="P17:T17"/>
     <mergeCell ref="P24:T24"/>
-    <mergeCell ref="P183:T183"/>
-    <mergeCell ref="P184:T184"/>
-    <mergeCell ref="P185:T185"/>
-    <mergeCell ref="P126:T126"/>
-    <mergeCell ref="P124:T124"/>
-    <mergeCell ref="P134:T134"/>
-    <mergeCell ref="P128:T128"/>
-    <mergeCell ref="P130:T130"/>
-    <mergeCell ref="P129:T129"/>
-    <mergeCell ref="P131:T131"/>
-    <mergeCell ref="P132:T132"/>
-    <mergeCell ref="P133:T133"/>
+    <mergeCell ref="P35:T35"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P38:T38"/>
+    <mergeCell ref="P50:T50"/>
+    <mergeCell ref="P51:T51"/>
     <mergeCell ref="P150:T150"/>
     <mergeCell ref="P156:T156"/>
     <mergeCell ref="P175:T175"/>
@@ -14525,11 +14807,6 @@
     <mergeCell ref="P180:T180"/>
     <mergeCell ref="P179:T179"/>
     <mergeCell ref="P166:T166"/>
-    <mergeCell ref="P202:T202"/>
-    <mergeCell ref="P198:T198"/>
-    <mergeCell ref="P211:T211"/>
-    <mergeCell ref="P212:T212"/>
-    <mergeCell ref="P219:T219"/>
     <mergeCell ref="P220:T220"/>
     <mergeCell ref="P186:T186"/>
     <mergeCell ref="P187:T187"/>
@@ -14549,25 +14826,18 @@
     <mergeCell ref="P215:T215"/>
     <mergeCell ref="P216:T216"/>
     <mergeCell ref="P217:T217"/>
-    <mergeCell ref="P165:T165"/>
-    <mergeCell ref="P164:T164"/>
-    <mergeCell ref="P171:T171"/>
-    <mergeCell ref="P172:T172"/>
-    <mergeCell ref="P169:T169"/>
     <mergeCell ref="P170:T170"/>
     <mergeCell ref="P173:T173"/>
     <mergeCell ref="P167:T167"/>
     <mergeCell ref="P168:T168"/>
-    <mergeCell ref="P159:T159"/>
-    <mergeCell ref="P160:T160"/>
-    <mergeCell ref="P161:T161"/>
-    <mergeCell ref="P162:T162"/>
-    <mergeCell ref="P163:T163"/>
-    <mergeCell ref="P151:T151"/>
-    <mergeCell ref="P153:T153"/>
-    <mergeCell ref="P152:T152"/>
-    <mergeCell ref="P158:T158"/>
-    <mergeCell ref="P157:T157"/>
+    <mergeCell ref="P202:T202"/>
+    <mergeCell ref="P198:T198"/>
+    <mergeCell ref="P211:T211"/>
+    <mergeCell ref="P212:T212"/>
+    <mergeCell ref="P219:T219"/>
+    <mergeCell ref="P183:T183"/>
+    <mergeCell ref="P184:T184"/>
+    <mergeCell ref="P185:T185"/>
     <mergeCell ref="P218:T218"/>
     <mergeCell ref="P222:T222"/>
     <mergeCell ref="P223:T223"/>
@@ -14592,13 +14862,6 @@
     <mergeCell ref="P214:T214"/>
     <mergeCell ref="P213:T213"/>
     <mergeCell ref="P203:T203"/>
-    <mergeCell ref="P204:T204"/>
-    <mergeCell ref="P205:T205"/>
-    <mergeCell ref="P206:T206"/>
-    <mergeCell ref="P207:T207"/>
-    <mergeCell ref="P208:T208"/>
-    <mergeCell ref="P209:T209"/>
-    <mergeCell ref="P210:T210"/>
     <mergeCell ref="P14:T14"/>
     <mergeCell ref="P13:T13"/>
     <mergeCell ref="P49:T49"/>
@@ -14616,12 +14879,30 @@
     <mergeCell ref="P46:T46"/>
     <mergeCell ref="P40:T40"/>
     <mergeCell ref="P42:T42"/>
-    <mergeCell ref="P127:T127"/>
-    <mergeCell ref="P62:T62"/>
-    <mergeCell ref="P125:T125"/>
-    <mergeCell ref="P123:T123"/>
-    <mergeCell ref="P119:T119"/>
-    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="P110:T110"/>
+    <mergeCell ref="P104:T104"/>
+    <mergeCell ref="P204:T204"/>
+    <mergeCell ref="P205:T205"/>
+    <mergeCell ref="P206:T206"/>
+    <mergeCell ref="P207:T207"/>
+    <mergeCell ref="P208:T208"/>
+    <mergeCell ref="P209:T209"/>
+    <mergeCell ref="P210:T210"/>
+    <mergeCell ref="P159:T159"/>
+    <mergeCell ref="P160:T160"/>
+    <mergeCell ref="P161:T161"/>
+    <mergeCell ref="P162:T162"/>
+    <mergeCell ref="P163:T163"/>
+    <mergeCell ref="P151:T151"/>
+    <mergeCell ref="P153:T153"/>
+    <mergeCell ref="P152:T152"/>
+    <mergeCell ref="P158:T158"/>
+    <mergeCell ref="P157:T157"/>
+    <mergeCell ref="P165:T165"/>
+    <mergeCell ref="P164:T164"/>
+    <mergeCell ref="P171:T171"/>
+    <mergeCell ref="P172:T172"/>
+    <mergeCell ref="P169:T169"/>
     <mergeCell ref="P82:T82"/>
     <mergeCell ref="P102:T102"/>
     <mergeCell ref="P95:T95"/>
@@ -14632,8 +14913,6 @@
     <mergeCell ref="P78:T78"/>
     <mergeCell ref="P77:T77"/>
     <mergeCell ref="P79:T79"/>
-    <mergeCell ref="P121:T121"/>
-    <mergeCell ref="P122:T122"/>
     <mergeCell ref="P84:T84"/>
     <mergeCell ref="P85:T85"/>
     <mergeCell ref="P83:T83"/>
@@ -14662,6 +14941,23 @@
     <mergeCell ref="A141:F141"/>
     <mergeCell ref="A139:F139"/>
     <mergeCell ref="A128:F128"/>
+    <mergeCell ref="P111:T111"/>
+    <mergeCell ref="P112:T112"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="P116:T116"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:F119"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="P119:T119"/>
+    <mergeCell ref="P120:T120"/>
+    <mergeCell ref="A151:F151"/>
+    <mergeCell ref="A149:F149"/>
     <mergeCell ref="A122:F122"/>
     <mergeCell ref="A123:F123"/>
     <mergeCell ref="P114:T114"/>
@@ -14670,25 +14966,20 @@
     <mergeCell ref="P115:T115"/>
     <mergeCell ref="P117:T117"/>
     <mergeCell ref="P118:T118"/>
-    <mergeCell ref="P111:T111"/>
-    <mergeCell ref="P112:T112"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="P116:T116"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:F119"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A172:F172"/>
-    <mergeCell ref="A173:F173"/>
-    <mergeCell ref="A171:F171"/>
-    <mergeCell ref="A170:F170"/>
-    <mergeCell ref="A148:F148"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A153:F153"/>
-    <mergeCell ref="A169:F169"/>
-    <mergeCell ref="A168:F168"/>
-    <mergeCell ref="A158:F158"/>
-    <mergeCell ref="A155:F155"/>
+    <mergeCell ref="P127:T127"/>
+    <mergeCell ref="P125:T125"/>
+    <mergeCell ref="P123:T123"/>
+    <mergeCell ref="P121:T121"/>
+    <mergeCell ref="P122:T122"/>
+    <mergeCell ref="P126:T126"/>
+    <mergeCell ref="P124:T124"/>
+    <mergeCell ref="P134:T134"/>
+    <mergeCell ref="P128:T128"/>
+    <mergeCell ref="P130:T130"/>
+    <mergeCell ref="P129:T129"/>
+    <mergeCell ref="P131:T131"/>
+    <mergeCell ref="P132:T132"/>
+    <mergeCell ref="P133:T133"/>
     <mergeCell ref="A156:F156"/>
     <mergeCell ref="A157:F157"/>
     <mergeCell ref="A165:F165"/>
@@ -14698,15 +14989,16 @@
     <mergeCell ref="A162:F162"/>
     <mergeCell ref="A161:F161"/>
     <mergeCell ref="A160:F160"/>
-    <mergeCell ref="A151:F151"/>
-    <mergeCell ref="A149:F149"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P34:T34"/>
+    <mergeCell ref="P36:T36"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A150:F150"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A19:F19"/>
@@ -14719,16 +15011,8 @@
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A53:F53"/>
     <mergeCell ref="A34:F34"/>
     <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A61:F61"/>
     <mergeCell ref="A16:F16"/>
     <mergeCell ref="P23:T23"/>
     <mergeCell ref="P22:T22"/>
@@ -14740,12 +15024,11 @@
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A35:F35"/>
     <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A113:F113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P32:T32"/>
+    <mergeCell ref="A38:F38"/>
     <mergeCell ref="G4:T4"/>
     <mergeCell ref="A1:O3"/>
     <mergeCell ref="A5:F5"/>
@@ -14767,11 +15050,9 @@
     <mergeCell ref="A81:F81"/>
     <mergeCell ref="A82:F82"/>
     <mergeCell ref="A68:F68"/>
-    <mergeCell ref="P110:T110"/>
     <mergeCell ref="P106:T106"/>
     <mergeCell ref="P107:T107"/>
     <mergeCell ref="P103:T103"/>
-    <mergeCell ref="P104:T104"/>
     <mergeCell ref="P105:T105"/>
     <mergeCell ref="P100:T100"/>
     <mergeCell ref="P101:T101"/>
@@ -14784,9 +15065,7 @@
     <mergeCell ref="A90:F90"/>
     <mergeCell ref="A89:F89"/>
     <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A105:F105"/>
     <mergeCell ref="A36:F36"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A43:F43"/>
@@ -14808,25 +15087,9 @@
     <mergeCell ref="A63:F63"/>
     <mergeCell ref="A95:F95"/>
     <mergeCell ref="A96:F96"/>
-    <mergeCell ref="P30:T30"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P32:T32"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="A77:F77"/>
-    <mergeCell ref="A78:F78"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="A79:F79"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="A72:F72"/>
-    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A29:F29"/>
     <mergeCell ref="P70:T70"/>
     <mergeCell ref="P73:T73"/>
     <mergeCell ref="P68:T68"/>
@@ -14834,25 +15097,22 @@
     <mergeCell ref="A67:F67"/>
     <mergeCell ref="P53:T53"/>
     <mergeCell ref="P52:T52"/>
-    <mergeCell ref="P47:T47"/>
     <mergeCell ref="P69:T69"/>
     <mergeCell ref="P72:T72"/>
     <mergeCell ref="P63:T63"/>
     <mergeCell ref="P67:T67"/>
     <mergeCell ref="P66:T66"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P34:T34"/>
-    <mergeCell ref="P36:T36"/>
-    <mergeCell ref="P35:T35"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P38:T38"/>
     <mergeCell ref="P54:T54"/>
     <mergeCell ref="P55:T55"/>
     <mergeCell ref="P61:T61"/>
     <mergeCell ref="P57:T57"/>
     <mergeCell ref="P56:T56"/>
-    <mergeCell ref="P50:T50"/>
-    <mergeCell ref="P51:T51"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="P62:T62"/>
     <mergeCell ref="A228:F228"/>
     <mergeCell ref="A229:F229"/>
     <mergeCell ref="A230:F230"/>
@@ -14896,6 +15156,8 @@
     <mergeCell ref="A194:F194"/>
     <mergeCell ref="A196:F196"/>
     <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A189:F189"/>
+    <mergeCell ref="A188:F188"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
@@ -14905,8 +15167,21 @@
     <mergeCell ref="A52:F52"/>
     <mergeCell ref="A182:F182"/>
     <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A189:F189"/>
-    <mergeCell ref="A188:F188"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A77:F77"/>
+    <mergeCell ref="A78:F78"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A79:F79"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:F104"/>
     <mergeCell ref="A185:F185"/>
     <mergeCell ref="A183:F183"/>
     <mergeCell ref="A184:F184"/>
@@ -14917,6 +15192,20 @@
     <mergeCell ref="A93:F93"/>
     <mergeCell ref="A94:F94"/>
     <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A150:F150"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A172:F172"/>
+    <mergeCell ref="A173:F173"/>
+    <mergeCell ref="A171:F171"/>
+    <mergeCell ref="A170:F170"/>
+    <mergeCell ref="A148:F148"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A153:F153"/>
+    <mergeCell ref="A169:F169"/>
+    <mergeCell ref="A168:F168"/>
+    <mergeCell ref="A158:F158"/>
+    <mergeCell ref="A155:F155"/>
   </mergeCells>
   <conditionalFormatting sqref="H8:H45 H53:H230">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
@@ -14995,30 +15284,30 @@
     </row>
     <row r="2" spans="1:12" ht="12" customHeight="1">
       <c r="A2" s="114"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
       <c r="L2" s="133"/>
     </row>
     <row r="3" spans="1:12" ht="12" customHeight="1">
       <c r="A3" s="134"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
       <c r="L3" s="135"/>
     </row>
     <row r="4" spans="1:12" ht="12" customHeight="1">
@@ -15026,19 +15315,19 @@
         <f>Contagem!A5&amp;" : "&amp;Contagem!F5</f>
         <v xml:space="preserve">Aplicação : </v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
       <c r="F4" s="128" t="str">
         <f>Contagem!A6&amp;" : "&amp;Contagem!F6</f>
         <v xml:space="preserve">Projeto : </v>
       </c>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
       <c r="L4" s="129"/>
     </row>
     <row r="5" spans="1:12" ht="12" customHeight="1">
@@ -15046,19 +15335,19 @@
         <f>Contagem!A7&amp;" : "&amp;Contagem!F7</f>
         <v xml:space="preserve">Responsável : </v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
       <c r="F5" s="128" t="str">
         <f>Contagem!A8&amp;" : "&amp;Contagem!F8</f>
         <v xml:space="preserve">Revisor : </v>
       </c>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
       <c r="L5" s="129"/>
     </row>
     <row r="6" spans="1:12" ht="12" customHeight="1">
@@ -15074,13 +15363,13 @@
         <f>Contagem!R4&amp;" = "&amp;VALUE(Contagem!T4)</f>
         <v>R$/PF = 400</v>
       </c>
-      <c r="G6" s="79"/>
+      <c r="G6" s="80"/>
       <c r="H6" s="136" t="str">
         <f>" Custo= "&amp;DOLLAR(Contagem!W4)</f>
         <v xml:space="preserve"> Custo= R$ 226.800,00</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
       <c r="K6" s="140" t="str">
         <f>"PF  = "&amp;VALUE(Contagem!W5)</f>
         <v>PF  = 567</v>
@@ -15091,13 +15380,13 @@
       <c r="A7" s="143" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="137" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
       <c r="G7" s="138" t="s">
         <v>133</v>
       </c>
@@ -15111,16 +15400,16 @@
     </row>
     <row r="8" spans="1:12" ht="12" customHeight="1">
       <c r="A8" s="134"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="89"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
       <c r="J8" s="135"/>
-      <c r="K8" s="89"/>
+      <c r="K8" s="90"/>
       <c r="L8" s="135"/>
     </row>
     <row r="9" spans="1:12" ht="12" customHeight="1">
@@ -16020,8 +16309,8 @@
       <c r="B55" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="81"/>
-      <c r="D55" s="79"/>
+      <c r="C55" s="79"/>
+      <c r="D55" s="80"/>
       <c r="E55" s="59">
         <f>SUMIF(Funções!$H$8:$H$242,"I",Funções!$N$8:$N$242)</f>
         <v>567</v>
@@ -16031,7 +16320,7 @@
         <v>1</v>
       </c>
       <c r="G55" s="59">
-        <f t="shared" ref="G55:G58" si="0">F55*E55</f>
+        <f>F55*E55</f>
         <v>567</v>
       </c>
       <c r="H55" s="60"/>
@@ -16047,8 +16336,8 @@
       <c r="B56" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="81"/>
-      <c r="D56" s="79"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
       <c r="E56" s="59">
         <f>SUMIF(Funções!$H$8:$H$130,"A",Funções!$N$8:$N$130)</f>
         <v>0</v>
@@ -16058,7 +16347,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="59">
-        <f t="shared" si="0"/>
+        <f>F56*E56</f>
         <v>0</v>
       </c>
       <c r="H56" s="60"/>
@@ -16075,8 +16364,8 @@
       <c r="B57" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="C57" s="81"/>
-      <c r="D57" s="79"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="80"/>
       <c r="E57" s="59">
         <f>SUMIF(Funções!$H$8:$H$130,"E",Funções!$N$8:$N$130)</f>
         <v>0</v>
@@ -16086,7 +16375,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="59">
-        <f t="shared" si="0"/>
+        <f>F57*E57</f>
         <v>0</v>
       </c>
       <c r="H57" s="60"/>
@@ -16100,8 +16389,8 @@
       <c r="B58" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="79"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="80"/>
       <c r="E58" s="59">
         <f>SUMIF(Funções!$H$8:$H$130,"T",Funções!$N$8:$N$130)</f>
         <v>0</v>
@@ -16111,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="59">
-        <f t="shared" si="0"/>
+        <f>F58*E58</f>
         <v>0</v>
       </c>
       <c r="H58" s="60"/>
